--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -5009,6 +5009,56 @@
         <v>9.0</v>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" s="2">
+        <v>44043.0</v>
+      </c>
+      <c r="B93" s="1">
+        <v>385241.0</v>
+      </c>
+      <c r="C93" s="1">
+        <v>49522.0</v>
+      </c>
+      <c r="D93" s="1">
+        <v>335646.0</v>
+      </c>
+      <c r="E93" s="1">
+        <v>73.0</v>
+      </c>
+      <c r="F93" s="1">
+        <v>950.0</v>
+      </c>
+      <c r="G93" s="1">
+        <v>24254.0</v>
+      </c>
+      <c r="H93" s="1">
+        <v>415.0</v>
+      </c>
+      <c r="I93" s="1">
+        <v>331.0</v>
+      </c>
+      <c r="J93" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="K93" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="L93" s="1">
+        <v>323.0</v>
+      </c>
+      <c r="M93" s="1">
+        <v>565.0</v>
+      </c>
+      <c r="N93" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="O93" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="P93" s="1">
+        <v>9.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -68,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -78,6 +78,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -105,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -123,6 +124,9 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -3406,7 +3410,7 @@
       <c r="D61" s="1">
         <v>165057.0</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="7">
         <v>0.0</v>
       </c>
       <c r="F61" s="1">
@@ -3418,28 +3422,28 @@
       <c r="H61" s="1">
         <v>514.0</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61" s="7">
         <v>0.0</v>
       </c>
       <c r="J61" s="1">
         <v>61.0</v>
       </c>
-      <c r="K61" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="L61" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="M61" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N61" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="O61" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="P61" s="1">
+      <c r="K61" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="L61" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="M61" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="N61" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="O61" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="P61" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -3456,7 +3460,7 @@
       <c r="D62" s="1">
         <v>168162.0</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="7">
         <v>0.0</v>
       </c>
       <c r="F62" s="1">
@@ -3468,28 +3472,28 @@
       <c r="H62" s="1">
         <v>526.0</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62" s="7">
         <v>0.0</v>
       </c>
       <c r="J62" s="1">
         <v>72.0</v>
       </c>
-      <c r="K62" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="L62" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="M62" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N62" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="O62" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="P62" s="1">
+      <c r="K62" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="L62" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="M62" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="N62" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="O62" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="P62" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -4006,7 +4010,7 @@
       <c r="D73" s="1">
         <v>226076.0</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73" s="7">
         <v>0.0</v>
       </c>
       <c r="F73" s="1">
@@ -4018,28 +4022,28 @@
       <c r="H73" s="1">
         <v>598.0</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I73" s="7">
         <v>0.0</v>
       </c>
       <c r="J73" s="1">
         <v>74.0</v>
       </c>
-      <c r="K73" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="L73" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="M73" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N73" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="O73" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="P73" s="1">
+      <c r="K73" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="L73" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="M73" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="N73" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="O73" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="P73" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -4195,66 +4199,66 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="7">
+      <c r="A77" s="8">
         <v>44027.0</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77" s="9">
         <v>275121.0</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="9">
         <f>26045-512+729</f>
         <v>26262</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77" s="9">
         <v>249049.0</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E77" s="9">
         <v>27.0</v>
       </c>
-      <c r="F77" s="8">
+      <c r="F77" s="9">
         <v>597.0</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G77" s="9">
         <v>11955.0</v>
       </c>
-      <c r="H77" s="8">
+      <c r="H77" s="9">
         <v>414.0</v>
       </c>
-      <c r="I77" s="8">
+      <c r="I77" s="9">
         <v>258.0</v>
       </c>
-      <c r="J77" s="8">
+      <c r="J77" s="9">
         <v>48.0</v>
       </c>
-      <c r="K77" s="8">
+      <c r="K77" s="9">
         <v>16.0</v>
       </c>
-      <c r="L77" s="8">
+      <c r="L77" s="9">
         <v>188.0</v>
       </c>
-      <c r="M77" s="8">
+      <c r="M77" s="9">
         <v>360.0</v>
       </c>
-      <c r="N77" s="8">
+      <c r="N77" s="9">
         <v>12.0</v>
       </c>
-      <c r="O77" s="8">
+      <c r="O77" s="9">
         <v>29.0</v>
       </c>
-      <c r="P77" s="8">
+      <c r="P77" s="9">
         <v>8.0</v>
       </c>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="9"/>
-      <c r="S77" s="9"/>
-      <c r="T77" s="9"/>
-      <c r="U77" s="9"/>
-      <c r="V77" s="9"/>
-      <c r="W77" s="9"/>
-      <c r="X77" s="9"/>
-      <c r="Y77" s="9"/>
-      <c r="Z77" s="9"/>
-      <c r="AA77" s="9"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
+      <c r="V77" s="10"/>
+      <c r="W77" s="10"/>
+      <c r="X77" s="10"/>
+      <c r="Y77" s="10"/>
+      <c r="Z77" s="10"/>
+      <c r="AA77" s="10"/>
     </row>
     <row r="78">
       <c r="A78" s="2">
@@ -4722,7 +4726,7 @@
       <c r="D87" s="1">
         <v>307453.0</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E87" s="7">
         <v>0.0</v>
       </c>
       <c r="F87" s="1">
@@ -4734,28 +4738,28 @@
       <c r="H87" s="1">
         <v>668.0</v>
       </c>
-      <c r="I87" s="1">
+      <c r="I87" s="7">
         <v>0.0</v>
       </c>
       <c r="J87" s="1">
         <v>61.0</v>
       </c>
-      <c r="K87" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="L87" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="M87" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N87" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="O87" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="P87" s="1">
+      <c r="K87" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="L87" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="M87" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="N87" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="O87" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="P87" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -5056,6 +5060,56 @@
         <v>41.0</v>
       </c>
       <c r="P93" s="1">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2">
+        <v>44044.0</v>
+      </c>
+      <c r="B94" s="1">
+        <v>394235.0</v>
+      </c>
+      <c r="C94" s="1">
+        <v>51656.0</v>
+      </c>
+      <c r="D94" s="1">
+        <v>342571.0</v>
+      </c>
+      <c r="E94" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F94" s="1">
+        <v>963.0</v>
+      </c>
+      <c r="G94" s="1">
+        <v>25793.0</v>
+      </c>
+      <c r="H94" s="1">
+        <v>412.0</v>
+      </c>
+      <c r="I94" s="1">
+        <v>327.0</v>
+      </c>
+      <c r="J94" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="K94" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="L94" s="1">
+        <v>330.0</v>
+      </c>
+      <c r="M94" s="1">
+        <v>571.0</v>
+      </c>
+      <c r="N94" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="O94" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="P94" s="1">
         <v>9.0</v>
       </c>
     </row>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -68,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -78,7 +78,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -106,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -124,9 +123,6 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -3410,7 +3406,7 @@
       <c r="D61" s="1">
         <v>165057.0</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="3">
         <v>0.0</v>
       </c>
       <c r="F61" s="1">
@@ -3422,28 +3418,28 @@
       <c r="H61" s="1">
         <v>514.0</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61" s="3">
         <v>0.0</v>
       </c>
       <c r="J61" s="1">
         <v>61.0</v>
       </c>
-      <c r="K61" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="L61" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="M61" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="N61" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="O61" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="P61" s="7">
+      <c r="K61" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P61" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -3460,7 +3456,7 @@
       <c r="D62" s="1">
         <v>168162.0</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="3">
         <v>0.0</v>
       </c>
       <c r="F62" s="1">
@@ -3472,28 +3468,28 @@
       <c r="H62" s="1">
         <v>526.0</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="3">
         <v>0.0</v>
       </c>
       <c r="J62" s="1">
         <v>72.0</v>
       </c>
-      <c r="K62" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="L62" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="M62" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="N62" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="O62" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="P62" s="7">
+      <c r="K62" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P62" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -4010,7 +4006,7 @@
       <c r="D73" s="1">
         <v>226076.0</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="3">
         <v>0.0</v>
       </c>
       <c r="F73" s="1">
@@ -4022,28 +4018,28 @@
       <c r="H73" s="1">
         <v>598.0</v>
       </c>
-      <c r="I73" s="7">
+      <c r="I73" s="3">
         <v>0.0</v>
       </c>
       <c r="J73" s="1">
         <v>74.0</v>
       </c>
-      <c r="K73" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="L73" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="M73" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="N73" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="O73" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="P73" s="7">
+      <c r="K73" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L73" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P73" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -4199,66 +4195,66 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="8">
+      <c r="A77" s="7">
         <v>44027.0</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B77" s="8">
         <v>275121.0</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="8">
         <f>26045-512+729</f>
         <v>26262</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="8">
         <v>249049.0</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E77" s="8">
         <v>27.0</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F77" s="8">
         <v>597.0</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G77" s="8">
         <v>11955.0</v>
       </c>
-      <c r="H77" s="9">
+      <c r="H77" s="8">
         <v>414.0</v>
       </c>
-      <c r="I77" s="9">
+      <c r="I77" s="8">
         <v>258.0</v>
       </c>
-      <c r="J77" s="9">
+      <c r="J77" s="8">
         <v>48.0</v>
       </c>
-      <c r="K77" s="9">
+      <c r="K77" s="8">
         <v>16.0</v>
       </c>
-      <c r="L77" s="9">
+      <c r="L77" s="8">
         <v>188.0</v>
       </c>
-      <c r="M77" s="9">
+      <c r="M77" s="8">
         <v>360.0</v>
       </c>
-      <c r="N77" s="9">
+      <c r="N77" s="8">
         <v>12.0</v>
       </c>
-      <c r="O77" s="9">
+      <c r="O77" s="8">
         <v>29.0</v>
       </c>
-      <c r="P77" s="9">
+      <c r="P77" s="8">
         <v>8.0</v>
       </c>
-      <c r="Q77" s="10"/>
-      <c r="R77" s="10"/>
-      <c r="S77" s="10"/>
-      <c r="T77" s="10"/>
-      <c r="U77" s="10"/>
-      <c r="V77" s="10"/>
-      <c r="W77" s="10"/>
-      <c r="X77" s="10"/>
-      <c r="Y77" s="10"/>
-      <c r="Z77" s="10"/>
-      <c r="AA77" s="10"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
+      <c r="V77" s="9"/>
+      <c r="W77" s="9"/>
+      <c r="X77" s="9"/>
+      <c r="Y77" s="9"/>
+      <c r="Z77" s="9"/>
+      <c r="AA77" s="9"/>
     </row>
     <row r="78">
       <c r="A78" s="2">
@@ -4726,7 +4722,7 @@
       <c r="D87" s="1">
         <v>307453.0</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E87" s="3">
         <v>0.0</v>
       </c>
       <c r="F87" s="1">
@@ -4738,28 +4734,28 @@
       <c r="H87" s="1">
         <v>668.0</v>
       </c>
-      <c r="I87" s="7">
+      <c r="I87" s="3">
         <v>0.0</v>
       </c>
       <c r="J87" s="1">
         <v>61.0</v>
       </c>
-      <c r="K87" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="L87" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="M87" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="N87" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="O87" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="P87" s="7">
+      <c r="K87" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L87" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P87" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -5110,6 +5106,56 @@
         <v>41.0</v>
       </c>
       <c r="P94" s="1">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2">
+        <v>44045.0</v>
+      </c>
+      <c r="B95" s="1">
+        <v>401713.0</v>
+      </c>
+      <c r="C95" s="1">
+        <v>53546.0</v>
+      </c>
+      <c r="D95" s="1">
+        <v>348144.0</v>
+      </c>
+      <c r="E95" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="F95" s="1">
+        <v>990.0</v>
+      </c>
+      <c r="G95" s="1">
+        <v>27186.0</v>
+      </c>
+      <c r="H95" s="1">
+        <v>426.0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>343.0</v>
+      </c>
+      <c r="J95" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="K95" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="L95" s="1">
+        <v>342.0</v>
+      </c>
+      <c r="M95" s="1">
+        <v>586.0</v>
+      </c>
+      <c r="N95" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="O95" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="P95" s="1">
         <v>9.0</v>
       </c>
     </row>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -5159,6 +5159,56 @@
         <v>9.0</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" s="2">
+        <v>44046.0</v>
+      </c>
+      <c r="B96" s="1">
+        <v>404163.0</v>
+      </c>
+      <c r="C96" s="1">
+        <v>54056.0</v>
+      </c>
+      <c r="D96" s="1">
+        <v>350084.0</v>
+      </c>
+      <c r="E96" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1008.0</v>
+      </c>
+      <c r="G96" s="1">
+        <v>28797.0</v>
+      </c>
+      <c r="H96" s="1">
+        <v>449.0</v>
+      </c>
+      <c r="I96" s="1">
+        <v>327.0</v>
+      </c>
+      <c r="J96" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="K96" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="L96" s="1">
+        <v>342.0</v>
+      </c>
+      <c r="M96" s="1">
+        <v>604.0</v>
+      </c>
+      <c r="N96" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="O96" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="P96" s="1">
+        <v>9.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -5209,6 +5209,56 @@
         <v>9.0</v>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" s="2">
+        <v>44047.0</v>
+      </c>
+      <c r="B97" s="1">
+        <v>411395.0</v>
+      </c>
+      <c r="C97" s="1">
+        <v>55991.0</v>
+      </c>
+      <c r="D97" s="1">
+        <v>355398.0</v>
+      </c>
+      <c r="E97" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1043.0</v>
+      </c>
+      <c r="G97" s="1">
+        <v>30209.0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>430.0</v>
+      </c>
+      <c r="I97" s="1">
+        <v>349.0</v>
+      </c>
+      <c r="J97" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="K97" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="L97" s="1">
+        <v>358.0</v>
+      </c>
+      <c r="M97" s="1">
+        <v>623.0</v>
+      </c>
+      <c r="N97" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="O97" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="P97" s="1">
+        <v>41.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -68,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -78,6 +78,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -105,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -130,6 +131,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -5252,11 +5256,61 @@
       <c r="N97" s="1">
         <v>12.0</v>
       </c>
-      <c r="O97" s="1">
+      <c r="O97" s="10">
+        <v>41.0</v>
+      </c>
+      <c r="P97" s="10">
         <v>9.0</v>
       </c>
-      <c r="P97" s="1">
+    </row>
+    <row r="98">
+      <c r="A98" s="2">
+        <v>44048.0</v>
+      </c>
+      <c r="B98" s="1">
+        <v>419850.0</v>
+      </c>
+      <c r="C98" s="1">
+        <v>58056.0</v>
+      </c>
+      <c r="D98" s="1">
+        <v>361769.0</v>
+      </c>
+      <c r="E98" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1074.0</v>
+      </c>
+      <c r="G98" s="1">
+        <v>31771.0</v>
+      </c>
+      <c r="H98" s="1">
+        <v>438.0</v>
+      </c>
+      <c r="I98" s="1">
+        <v>339.0</v>
+      </c>
+      <c r="J98" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="K98" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="L98" s="1">
+        <v>369.0</v>
+      </c>
+      <c r="M98" s="1">
+        <v>642.0</v>
+      </c>
+      <c r="N98" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="O98" s="1">
         <v>41.0</v>
+      </c>
+      <c r="P98" s="1">
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -5313,6 +5313,56 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" s="2">
+        <v>44049.0</v>
+      </c>
+      <c r="B99" s="1">
+        <v>428864.0</v>
+      </c>
+      <c r="C99" s="1">
+        <v>60430.0</v>
+      </c>
+      <c r="D99" s="1">
+        <v>368410.0</v>
+      </c>
+      <c r="E99" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="F99" s="1">
+        <v>1113.0</v>
+      </c>
+      <c r="G99" s="1">
+        <v>33184.0</v>
+      </c>
+      <c r="H99" s="1">
+        <v>421.0</v>
+      </c>
+      <c r="I99" s="1">
+        <v>296.0</v>
+      </c>
+      <c r="J99" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="K99" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="L99" s="1">
+        <v>394.0</v>
+      </c>
+      <c r="M99" s="1">
+        <v>656.0</v>
+      </c>
+      <c r="N99" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="O99" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="P99" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -68,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -78,7 +78,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -106,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -131,9 +130,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -5256,10 +5252,10 @@
       <c r="N97" s="1">
         <v>12.0</v>
       </c>
-      <c r="O97" s="10">
+      <c r="O97" s="1">
         <v>41.0</v>
       </c>
-      <c r="P97" s="10">
+      <c r="P97" s="1">
         <v>9.0</v>
       </c>
     </row>
@@ -5360,6 +5356,56 @@
         <v>41.0</v>
       </c>
       <c r="P99" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2">
+        <v>44050.0</v>
+      </c>
+      <c r="B100" s="1">
+        <v>439007.0</v>
+      </c>
+      <c r="C100" s="1">
+        <v>62931.0</v>
+      </c>
+      <c r="D100" s="1">
+        <v>376057.0</v>
+      </c>
+      <c r="E100" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="F100" s="1">
+        <v>1142.0</v>
+      </c>
+      <c r="G100" s="1">
+        <v>33382.0</v>
+      </c>
+      <c r="H100" s="1">
+        <v>449.0</v>
+      </c>
+      <c r="I100" s="1">
+        <v>338.0</v>
+      </c>
+      <c r="J100" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="K100" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="L100" s="1">
+        <v>404.0</v>
+      </c>
+      <c r="M100" s="1">
+        <v>675.0</v>
+      </c>
+      <c r="N100" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="O100" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="P100" s="1">
         <v>10.0</v>
       </c>
     </row>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -68,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -78,6 +78,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -105,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -130,6 +131,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -5409,6 +5413,109 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2">
+        <v>44051.0</v>
+      </c>
+      <c r="B101" s="1">
+        <v>446570.0</v>
+      </c>
+      <c r="C101" s="1">
+        <v>64692.0</v>
+      </c>
+      <c r="D101" s="1">
+        <v>381834.0</v>
+      </c>
+      <c r="E101" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1177.0</v>
+      </c>
+      <c r="G101" s="1">
+        <v>35145.0</v>
+      </c>
+      <c r="H101" s="1">
+        <v>474.0</v>
+      </c>
+      <c r="I101" s="1">
+        <v>298.0</v>
+      </c>
+      <c r="J101" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="K101" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="L101" s="1">
+        <v>415.0</v>
+      </c>
+      <c r="M101" s="1">
+        <v>699.0</v>
+      </c>
+      <c r="N101" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="O101" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="P101" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2">
+        <v>44052.0</v>
+      </c>
+      <c r="B102" s="1">
+        <v>453649.0</v>
+      </c>
+      <c r="C102" s="1">
+        <v>66434.0</v>
+      </c>
+      <c r="D102" s="1">
+        <v>387204.0</v>
+      </c>
+      <c r="E102" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1184.0</v>
+      </c>
+      <c r="G102" s="1">
+        <v>36945.0</v>
+      </c>
+      <c r="H102" s="1">
+        <v>466.0</v>
+      </c>
+      <c r="I102" s="1">
+        <v>282.0</v>
+      </c>
+      <c r="J102" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="K102" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="L102" s="1">
+        <v>415.0</v>
+      </c>
+      <c r="M102" s="1">
+        <v>706.0</v>
+      </c>
+      <c r="N102" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="O102" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="P102" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="10"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -5514,7 +5514,54 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="10"/>
+      <c r="A103" s="10">
+        <v>44053.0</v>
+      </c>
+      <c r="B103" s="1">
+        <v>456712.0</v>
+      </c>
+      <c r="C103" s="1">
+        <v>67105.0</v>
+      </c>
+      <c r="D103" s="1">
+        <v>389596.0</v>
+      </c>
+      <c r="E103" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F103" s="1">
+        <v>1209.0</v>
+      </c>
+      <c r="G103" s="1">
+        <v>38851.0</v>
+      </c>
+      <c r="H103" s="1">
+        <v>461.0</v>
+      </c>
+      <c r="I103" s="1">
+        <v>282.0</v>
+      </c>
+      <c r="J103" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="K103" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="L103" s="1">
+        <v>435.0</v>
+      </c>
+      <c r="M103" s="1">
+        <v>711.0</v>
+      </c>
+      <c r="N103" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="O103" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="P103" s="1">
+        <v>10.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -5563,6 +5563,56 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2">
+        <v>44054.0</v>
+      </c>
+      <c r="B104" s="1">
+        <v>463219.0</v>
+      </c>
+      <c r="C104" s="1">
+        <v>68594.0</v>
+      </c>
+      <c r="D104" s="1">
+        <v>394587.0</v>
+      </c>
+      <c r="E104" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="F104" s="1">
+        <v>1249.0</v>
+      </c>
+      <c r="G104" s="1">
+        <v>40469.0</v>
+      </c>
+      <c r="H104" s="1">
+        <v>437.0</v>
+      </c>
+      <c r="I104" s="1">
+        <v>308.0</v>
+      </c>
+      <c r="J104" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="K104" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="L104" s="1">
+        <v>461.0</v>
+      </c>
+      <c r="M104" s="1">
+        <v>725.0</v>
+      </c>
+      <c r="N104" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="O104" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="P104" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -5613,6 +5613,56 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" s="2">
+        <v>44055.0</v>
+      </c>
+      <c r="B105" s="1">
+        <v>471217.0</v>
+      </c>
+      <c r="C105" s="1">
+        <v>70558.0</v>
+      </c>
+      <c r="D105" s="1">
+        <v>400597.0</v>
+      </c>
+      <c r="E105" s="1">
+        <v>62.0</v>
+      </c>
+      <c r="F105" s="1">
+        <v>1288.0</v>
+      </c>
+      <c r="G105" s="1">
+        <v>42208.0</v>
+      </c>
+      <c r="H105" s="1">
+        <v>497.0</v>
+      </c>
+      <c r="I105" s="1">
+        <v>292.0</v>
+      </c>
+      <c r="J105" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="K105" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="L105" s="1">
+        <v>478.0</v>
+      </c>
+      <c r="M105" s="1">
+        <v>744.0</v>
+      </c>
+      <c r="N105" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="O105" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="P105" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -5663,6 +5663,56 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" s="2">
+        <v>44056.0</v>
+      </c>
+      <c r="B106" s="1">
+        <v>480496.0</v>
+      </c>
+      <c r="C106" s="1">
+        <v>72714.0</v>
+      </c>
+      <c r="D106" s="1">
+        <v>407738.0</v>
+      </c>
+      <c r="E106" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="F106" s="1">
+        <v>1313.0</v>
+      </c>
+      <c r="G106" s="1">
+        <v>43629.0</v>
+      </c>
+      <c r="H106" s="1">
+        <v>485.0</v>
+      </c>
+      <c r="I106" s="1">
+        <v>302.0</v>
+      </c>
+      <c r="J106" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="K106" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="L106" s="1">
+        <v>495.0</v>
+      </c>
+      <c r="M106" s="1">
+        <v>751.0</v>
+      </c>
+      <c r="N106" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="O106" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="P106" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -68,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -78,7 +78,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -106,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -131,9 +130,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -5514,7 +5510,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="10">
+      <c r="A103" s="2">
         <v>44053.0</v>
       </c>
       <c r="B103" s="1">
@@ -5710,6 +5706,56 @@
         <v>41.0</v>
       </c>
       <c r="P106" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2">
+        <v>44057.0</v>
+      </c>
+      <c r="B107" s="1">
+        <v>487886.0</v>
+      </c>
+      <c r="C107" s="1">
+        <v>74465.0</v>
+      </c>
+      <c r="D107" s="1">
+        <v>413347.0</v>
+      </c>
+      <c r="E107" s="1">
+        <v>74.0</v>
+      </c>
+      <c r="F107" s="1">
+        <v>1332.0</v>
+      </c>
+      <c r="G107" s="1">
+        <v>43905.0</v>
+      </c>
+      <c r="H107" s="1">
+        <v>486.0</v>
+      </c>
+      <c r="I107" s="1">
+        <v>277.0</v>
+      </c>
+      <c r="J107" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="K107" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="L107" s="1">
+        <v>514.0</v>
+      </c>
+      <c r="M107" s="1">
+        <v>751.0</v>
+      </c>
+      <c r="N107" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="O107" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="P107" s="1">
         <v>10.0</v>
       </c>
     </row>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -5759,6 +5759,56 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" s="2">
+        <v>44058.0</v>
+      </c>
+      <c r="B108" s="1">
+        <v>496331.0</v>
+      </c>
+      <c r="C108" s="1">
+        <v>76299.0</v>
+      </c>
+      <c r="D108" s="1">
+        <v>420006.0</v>
+      </c>
+      <c r="E108" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="F108" s="1">
+        <v>1340.0</v>
+      </c>
+      <c r="G108" s="1">
+        <v>45334.0</v>
+      </c>
+      <c r="H108" s="1">
+        <v>480.0</v>
+      </c>
+      <c r="I108" s="1">
+        <v>260.0</v>
+      </c>
+      <c r="J108" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="K108" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="L108" s="1">
+        <v>522.0</v>
+      </c>
+      <c r="M108" s="1">
+        <v>751.0</v>
+      </c>
+      <c r="N108" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="O108" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="P108" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -5809,6 +5809,56 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" s="2">
+        <v>44059.0</v>
+      </c>
+      <c r="B109" s="1">
+        <v>502634.0</v>
+      </c>
+      <c r="C109" s="1">
+        <v>77804.0</v>
+      </c>
+      <c r="D109" s="1">
+        <v>424794.0</v>
+      </c>
+      <c r="E109" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="F109" s="1">
+        <v>1347.0</v>
+      </c>
+      <c r="G109" s="1">
+        <v>46428.0</v>
+      </c>
+      <c r="H109" s="1">
+        <v>474.0</v>
+      </c>
+      <c r="I109" s="1">
+        <v>294.0</v>
+      </c>
+      <c r="J109" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="K109" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="L109" s="1">
+        <v>529.0</v>
+      </c>
+      <c r="M109" s="1">
+        <v>751.0</v>
+      </c>
+      <c r="N109" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="O109" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="P109" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -68,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -78,6 +78,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -105,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -130,6 +131,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -5410,7 +5414,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2">
+      <c r="A101" s="10">
         <v>44051.0</v>
       </c>
       <c r="B101" s="1">
@@ -5856,6 +5860,56 @@
         <v>41.0</v>
       </c>
       <c r="P109" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2">
+        <v>44060.0</v>
+      </c>
+      <c r="B110" s="1">
+        <v>505028.0</v>
+      </c>
+      <c r="C110" s="1">
+        <v>78223.0</v>
+      </c>
+      <c r="D110" s="1">
+        <v>426769.0</v>
+      </c>
+      <c r="E110" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="F110" s="1">
+        <v>1350.0</v>
+      </c>
+      <c r="G110" s="1">
+        <v>48211.0</v>
+      </c>
+      <c r="H110" s="1">
+        <v>463.0</v>
+      </c>
+      <c r="I110" s="1">
+        <v>260.0</v>
+      </c>
+      <c r="J110" s="1">
+        <v>47.0</v>
+      </c>
+      <c r="K110" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="L110" s="1">
+        <v>532.0</v>
+      </c>
+      <c r="M110" s="1">
+        <v>751.0</v>
+      </c>
+      <c r="N110" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="O110" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="P110" s="1">
         <v>10.0</v>
       </c>
     </row>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -5913,6 +5913,56 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2">
+        <v>44061.0</v>
+      </c>
+      <c r="B111" s="1">
+        <v>512400.0</v>
+      </c>
+      <c r="C111" s="1">
+        <v>79805.0</v>
+      </c>
+      <c r="D111" s="1">
+        <v>432519.0</v>
+      </c>
+      <c r="E111" s="1">
+        <v>76.0</v>
+      </c>
+      <c r="F111" s="1">
+        <v>1374.0</v>
+      </c>
+      <c r="G111" s="1">
+        <v>50307.0</v>
+      </c>
+      <c r="H111" s="1">
+        <v>496.0</v>
+      </c>
+      <c r="I111" s="1">
+        <v>273.0</v>
+      </c>
+      <c r="J111" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="K111" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="L111" s="1">
+        <v>549.0</v>
+      </c>
+      <c r="M111" s="1">
+        <v>758.0</v>
+      </c>
+      <c r="N111" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="O111" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="P111" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -5963,6 +5963,56 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2">
+        <v>44062.0</v>
+      </c>
+      <c r="B112" s="1">
+        <v>520559.0</v>
+      </c>
+      <c r="C112" s="1">
+        <v>81225.0</v>
+      </c>
+      <c r="D112" s="1">
+        <v>439158.0</v>
+      </c>
+      <c r="E112" s="1">
+        <v>176.0</v>
+      </c>
+      <c r="F112" s="1">
+        <v>1389.0</v>
+      </c>
+      <c r="G112" s="1">
+        <v>52614.0</v>
+      </c>
+      <c r="H112" s="1">
+        <v>469.0</v>
+      </c>
+      <c r="I112" s="1">
+        <v>303.0</v>
+      </c>
+      <c r="J112" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="K112" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="L112" s="1">
+        <v>558.0</v>
+      </c>
+      <c r="M112" s="1">
+        <v>764.0</v>
+      </c>
+      <c r="N112" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="O112" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="P112" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -68,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -78,7 +78,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -106,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -131,9 +130,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -5414,7 +5410,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="10">
+      <c r="A101" s="2">
         <v>44051.0</v>
       </c>
       <c r="B101" s="1">
@@ -6010,6 +6006,56 @@
         <v>41.0</v>
       </c>
       <c r="P112" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2">
+        <v>44063.0</v>
+      </c>
+      <c r="B113" s="1">
+        <v>529834.0</v>
+      </c>
+      <c r="C113" s="1">
+        <v>83755.0</v>
+      </c>
+      <c r="D113" s="1">
+        <v>445998.0</v>
+      </c>
+      <c r="E113" s="1">
+        <v>81.0</v>
+      </c>
+      <c r="F113" s="1">
+        <v>1399.0</v>
+      </c>
+      <c r="G113" s="1">
+        <v>54093.0</v>
+      </c>
+      <c r="H113" s="1">
+        <v>505.0</v>
+      </c>
+      <c r="I113" s="1">
+        <v>285.0</v>
+      </c>
+      <c r="J113" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="K113" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="L113" s="1">
+        <v>566.0</v>
+      </c>
+      <c r="M113" s="1">
+        <v>764.0</v>
+      </c>
+      <c r="N113" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="O113" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="P113" s="1">
         <v>10.0</v>
       </c>
     </row>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -68,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -78,6 +78,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -105,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -130,6 +131,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -6059,6 +6063,56 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2">
+        <v>44064.0</v>
+      </c>
+      <c r="B114" s="1">
+        <v>538050.0</v>
+      </c>
+      <c r="C114" s="1">
+        <v>85713.0</v>
+      </c>
+      <c r="D114" s="1">
+        <v>452288.0</v>
+      </c>
+      <c r="E114" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="F114" s="1">
+        <v>1413.0</v>
+      </c>
+      <c r="G114" s="1">
+        <v>54830.0</v>
+      </c>
+      <c r="H114" s="1">
+        <v>516.0</v>
+      </c>
+      <c r="I114" s="1">
+        <v>158.0</v>
+      </c>
+      <c r="J114" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="K114" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="L114" s="1">
+        <v>573.0</v>
+      </c>
+      <c r="M114" s="1">
+        <v>771.0</v>
+      </c>
+      <c r="N114" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="O114" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="P114" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>date</t>
   </si>
@@ -46,6 +46,9 @@
     <t>uci_sospechosos</t>
   </si>
   <si>
+    <t>trauma_shock</t>
+  </si>
+  <si>
     <t>defunciones_minsa</t>
   </si>
   <si>
@@ -68,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -78,7 +81,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -106,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -131,9 +133,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -364,11 +363,11 @@
     <col customWidth="1" min="9" max="9" width="24.86"/>
     <col customWidth="1" min="10" max="10" width="11.71"/>
     <col customWidth="1" min="11" max="11" width="15.43"/>
-    <col customWidth="1" min="12" max="12" width="17.14"/>
-    <col customWidth="1" min="13" max="13" width="18.57"/>
-    <col customWidth="1" min="14" max="14" width="18.29"/>
-    <col customWidth="1" min="15" max="15" width="19.43"/>
-    <col customWidth="1" min="16" max="16" width="20.71"/>
+    <col customWidth="1" min="12" max="13" width="17.14"/>
+    <col customWidth="1" min="14" max="14" width="18.57"/>
+    <col customWidth="1" min="15" max="15" width="18.29"/>
+    <col customWidth="1" min="16" max="16" width="19.43"/>
+    <col customWidth="1" min="17" max="17" width="20.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -420,6 +419,9 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -456,18 +458,21 @@
         <v>0.0</v>
       </c>
       <c r="L2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M2" s="1">
         <v>6.0</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>9.0</v>
       </c>
-      <c r="N2" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O2" s="3">
         <v>0.0</v>
       </c>
       <c r="P2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q2" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -506,18 +511,21 @@
         <v>0.0</v>
       </c>
       <c r="L3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M3" s="1">
         <v>6.0</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>11.0</v>
       </c>
-      <c r="N3" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O3" s="3">
         <v>0.0</v>
       </c>
       <c r="P3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -556,18 +564,21 @@
         <v>0.0</v>
       </c>
       <c r="L4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M4" s="1">
         <v>6.0</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>13.0</v>
       </c>
-      <c r="N4" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O4" s="3">
         <v>0.0</v>
       </c>
       <c r="P4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q4" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -606,18 +617,21 @@
         <v>8.0</v>
       </c>
       <c r="L5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M5" s="1">
         <v>6.0</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>13.0</v>
       </c>
-      <c r="N5" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O5" s="3">
         <v>0.0</v>
       </c>
       <c r="P5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q5" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -656,18 +670,21 @@
         <v>8.0</v>
       </c>
       <c r="L6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M6" s="1">
         <v>7.0</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>14.0</v>
       </c>
-      <c r="N6" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O6" s="3">
         <v>0.0</v>
       </c>
       <c r="P6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q6" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -706,18 +723,21 @@
         <v>8.0</v>
       </c>
       <c r="L7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M7" s="1">
         <v>7.0</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>17.0</v>
       </c>
-      <c r="N7" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O7" s="3">
         <v>0.0</v>
       </c>
       <c r="P7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q7" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -756,18 +776,21 @@
         <v>3.0</v>
       </c>
       <c r="L8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M8" s="1">
         <v>8.0</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>17.0</v>
       </c>
-      <c r="N8" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O8" s="3">
         <v>0.0</v>
       </c>
       <c r="P8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -806,18 +829,21 @@
         <v>3.0</v>
       </c>
       <c r="L9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M9" s="1">
         <v>8.0</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>19.0</v>
       </c>
-      <c r="N9" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O9" s="3">
         <v>0.0</v>
       </c>
       <c r="P9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -856,18 +882,21 @@
         <v>3.0</v>
       </c>
       <c r="L10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M10" s="1">
         <v>9.0</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>19.0</v>
       </c>
-      <c r="N10" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O10" s="3">
         <v>0.0</v>
       </c>
       <c r="P10" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -876,7 +905,7 @@
         <v>43961.0</v>
       </c>
       <c r="B11" s="5">
-        <f t="shared" ref="B11:P11" si="1">(B10+B12)/2</f>
+        <f t="shared" ref="B11:K11" si="1">(B10+B12)/2</f>
         <v>19972</v>
       </c>
       <c r="C11" s="5">
@@ -915,27 +944,29 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L11" s="5">
-        <f t="shared" si="1"/>
+      <c r="L11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" ref="M11:Q11" si="2">(M10+M12)/2</f>
         <v>9.5</v>
       </c>
-      <c r="M11" s="5">
-        <f t="shared" si="1"/>
+      <c r="N11" s="5">
+        <f t="shared" si="2"/>
         <v>19.5</v>
       </c>
-      <c r="N11" s="5">
-        <f t="shared" si="1"/>
+      <c r="O11" s="5">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O11" s="5">
-        <f t="shared" si="1"/>
+      <c r="P11" s="5">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P11" s="5">
-        <f t="shared" si="1"/>
+      <c r="Q11" s="5">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
@@ -946,6 +977,7 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -982,18 +1014,21 @@
         <v>3.0</v>
       </c>
       <c r="L12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M12" s="1">
         <v>10.0</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <v>20.0</v>
       </c>
-      <c r="N12" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O12" s="3">
         <v>0.0</v>
       </c>
       <c r="P12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -1032,18 +1067,21 @@
         <v>3.0</v>
       </c>
       <c r="L13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M13" s="1">
         <v>11.0</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <v>22.0</v>
       </c>
-      <c r="N13" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O13" s="3">
         <v>0.0</v>
       </c>
       <c r="P13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -1082,18 +1120,21 @@
         <v>4.0</v>
       </c>
       <c r="L14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="1">
         <v>11.0</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <v>22.0</v>
       </c>
-      <c r="N14" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O14" s="3">
         <v>0.0</v>
       </c>
       <c r="P14" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -1132,18 +1173,21 @@
         <v>0.0</v>
       </c>
       <c r="L15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M15" s="1">
         <v>11.0</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <v>24.0</v>
       </c>
-      <c r="N15" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O15" s="3">
         <v>0.0</v>
       </c>
       <c r="P15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -1182,18 +1226,21 @@
         <v>4.0</v>
       </c>
       <c r="L16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="1">
         <v>11.0</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <v>24.0</v>
       </c>
-      <c r="N16" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O16" s="3">
         <v>0.0</v>
       </c>
       <c r="P16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -1232,18 +1279,21 @@
         <v>4.0</v>
       </c>
       <c r="L17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="1">
         <v>11.0</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <v>24.0</v>
       </c>
-      <c r="N17" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O17" s="3">
         <v>0.0</v>
       </c>
       <c r="P17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -1282,18 +1332,21 @@
         <v>6.0</v>
       </c>
       <c r="L18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M18" s="1">
         <v>11.0</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <v>25.0</v>
       </c>
-      <c r="N18" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O18" s="3">
         <v>0.0</v>
       </c>
       <c r="P18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -1332,18 +1385,21 @@
         <v>4.0</v>
       </c>
       <c r="L19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M19" s="1">
         <v>11.0</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19" s="1">
         <v>25.0</v>
       </c>
-      <c r="N19" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O19" s="3">
         <v>0.0</v>
       </c>
       <c r="P19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q19" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -1382,18 +1438,21 @@
         <v>7.0</v>
       </c>
       <c r="L20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M20" s="1">
         <v>12.0</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <v>25.0</v>
       </c>
-      <c r="N20" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O20" s="3">
         <v>0.0</v>
       </c>
       <c r="P20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -1432,18 +1491,21 @@
         <v>6.0</v>
       </c>
       <c r="L21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M21" s="1">
         <v>12.0</v>
       </c>
-      <c r="M21" s="1">
+      <c r="N21" s="1">
         <v>29.0</v>
       </c>
-      <c r="N21" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O21" s="3">
         <v>0.0</v>
       </c>
       <c r="P21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -1482,18 +1544,21 @@
         <v>4.0</v>
       </c>
       <c r="L22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M22" s="1">
         <v>12.0</v>
       </c>
-      <c r="M22" s="1">
+      <c r="N22" s="1">
         <v>29.0</v>
       </c>
-      <c r="N22" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O22" s="3">
         <v>0.0</v>
       </c>
       <c r="P22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -1532,18 +1597,21 @@
         <v>3.0</v>
       </c>
       <c r="L23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M23" s="1">
         <v>13.0</v>
       </c>
-      <c r="M23" s="1">
+      <c r="N23" s="1">
         <v>29.0</v>
       </c>
-      <c r="N23" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O23" s="3">
         <v>0.0</v>
       </c>
       <c r="P23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -1582,18 +1650,21 @@
         <v>4.0</v>
       </c>
       <c r="L24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="1">
         <v>13.0</v>
       </c>
-      <c r="M24" s="1">
+      <c r="N24" s="1">
         <v>31.0</v>
       </c>
-      <c r="N24" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O24" s="3">
         <v>0.0</v>
       </c>
       <c r="P24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -1632,18 +1703,21 @@
         <v>7.0</v>
       </c>
       <c r="L25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M25" s="1">
         <v>13.0</v>
       </c>
-      <c r="M25" s="1">
+      <c r="N25" s="1">
         <v>33.0</v>
       </c>
-      <c r="N25" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O25" s="3">
         <v>0.0</v>
       </c>
       <c r="P25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q25" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -1682,18 +1756,21 @@
         <v>5.0</v>
       </c>
       <c r="L26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M26" s="1">
         <v>17.0</v>
       </c>
-      <c r="M26" s="1">
+      <c r="N26" s="1">
         <v>34.0</v>
       </c>
-      <c r="N26" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O26" s="3">
         <v>0.0</v>
       </c>
       <c r="P26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -1732,18 +1809,21 @@
         <v>4.0</v>
       </c>
       <c r="L27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M27" s="1">
         <v>17.0</v>
       </c>
-      <c r="M27" s="1">
+      <c r="N27" s="1">
         <v>34.0</v>
       </c>
-      <c r="N27" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O27" s="3">
         <v>0.0</v>
       </c>
       <c r="P27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -1782,18 +1862,21 @@
         <v>6.0</v>
       </c>
       <c r="L28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M28" s="1">
         <v>20.0</v>
       </c>
-      <c r="M28" s="1">
+      <c r="N28" s="1">
         <v>34.0</v>
       </c>
-      <c r="N28" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O28" s="3">
         <v>0.0</v>
       </c>
       <c r="P28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q28" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -1832,18 +1915,21 @@
         <v>5.0</v>
       </c>
       <c r="L29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M29" s="1">
         <v>22.0</v>
       </c>
-      <c r="M29" s="1">
+      <c r="N29" s="1">
         <v>34.0</v>
       </c>
-      <c r="N29" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O29" s="3">
         <v>0.0</v>
       </c>
       <c r="P29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -1882,18 +1968,21 @@
         <v>6.0</v>
       </c>
       <c r="L30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M30" s="1">
         <v>25.0</v>
       </c>
-      <c r="M30" s="1">
+      <c r="N30" s="1">
         <v>39.0</v>
       </c>
-      <c r="N30" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O30" s="3">
         <v>0.0</v>
       </c>
       <c r="P30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q30" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -1932,18 +2021,21 @@
         <v>5.0</v>
       </c>
       <c r="L31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M31" s="1">
         <v>26.0</v>
       </c>
-      <c r="M31" s="1">
+      <c r="N31" s="1">
         <v>40.0</v>
       </c>
-      <c r="N31" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O31" s="3">
         <v>0.0</v>
       </c>
       <c r="P31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q31" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -1982,18 +2074,21 @@
         <v>5.0</v>
       </c>
       <c r="L32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M32" s="1">
         <v>26.0</v>
       </c>
-      <c r="M32" s="1">
+      <c r="N32" s="1">
         <v>40.0</v>
       </c>
-      <c r="N32" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O32" s="3">
         <v>0.0</v>
       </c>
       <c r="P32" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -2032,18 +2127,21 @@
         <v>7.0</v>
       </c>
       <c r="L33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M33" s="1">
         <v>26.0</v>
       </c>
-      <c r="M33" s="1">
+      <c r="N33" s="1">
         <v>45.0</v>
       </c>
-      <c r="N33" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O33" s="3">
         <v>0.0</v>
       </c>
       <c r="P33" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -2082,18 +2180,21 @@
         <v>8.0</v>
       </c>
       <c r="L34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M34" s="1">
         <v>26.0</v>
       </c>
-      <c r="M34" s="1">
+      <c r="N34" s="1">
         <v>45.0</v>
       </c>
-      <c r="N34" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O34" s="3">
         <v>0.0</v>
       </c>
       <c r="P34" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q34" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -2132,18 +2233,21 @@
         <v>7.0</v>
       </c>
       <c r="L35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M35" s="1">
         <v>30.0</v>
       </c>
-      <c r="M35" s="1">
+      <c r="N35" s="1">
         <v>45.0</v>
       </c>
-      <c r="N35" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O35" s="3">
         <v>0.0</v>
       </c>
       <c r="P35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -2182,18 +2286,21 @@
         <v>8.0</v>
       </c>
       <c r="L36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M36" s="1">
         <v>31.0</v>
       </c>
-      <c r="M36" s="1">
+      <c r="N36" s="1">
         <v>45.0</v>
       </c>
-      <c r="N36" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O36" s="3">
         <v>0.0</v>
       </c>
       <c r="P36" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q36" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -2232,18 +2339,21 @@
         <v>8.0</v>
       </c>
       <c r="L37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M37" s="1">
         <v>38.0</v>
       </c>
-      <c r="M37" s="1">
+      <c r="N37" s="1">
         <v>45.0</v>
       </c>
-      <c r="N37" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O37" s="3">
         <v>0.0</v>
       </c>
       <c r="P37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q37" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -2282,18 +2392,21 @@
         <v>13.0</v>
       </c>
       <c r="L38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M38" s="1">
         <v>39.0</v>
       </c>
-      <c r="M38" s="1">
+      <c r="N38" s="1">
         <v>45.0</v>
       </c>
-      <c r="N38" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O38" s="3">
         <v>0.0</v>
       </c>
       <c r="P38" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q38" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -2332,18 +2445,21 @@
         <v>13.0</v>
       </c>
       <c r="L39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M39" s="1">
         <v>39.0</v>
       </c>
-      <c r="M39" s="1">
+      <c r="N39" s="1">
         <v>45.0</v>
       </c>
-      <c r="N39" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O39" s="3">
         <v>0.0</v>
       </c>
       <c r="P39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q39" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -2382,18 +2498,21 @@
         <v>11.0</v>
       </c>
       <c r="L40" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M40" s="1">
         <v>41.0</v>
       </c>
-      <c r="M40" s="1">
+      <c r="N40" s="1">
         <v>50.0</v>
       </c>
-      <c r="N40" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O40" s="3">
         <v>0.0</v>
       </c>
       <c r="P40" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q40" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -2432,18 +2551,21 @@
         <v>4.0</v>
       </c>
       <c r="L41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M41" s="1">
         <v>45.0</v>
       </c>
-      <c r="M41" s="1">
+      <c r="N41" s="1">
         <v>56.0</v>
       </c>
-      <c r="N41" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O41" s="3">
         <v>0.0</v>
       </c>
       <c r="P41" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -2482,18 +2604,21 @@
         <v>5.0</v>
       </c>
       <c r="L42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M42" s="1">
         <v>48.0</v>
       </c>
-      <c r="M42" s="1">
+      <c r="N42" s="1">
         <v>63.0</v>
       </c>
-      <c r="N42" s="3">
-        <v>0.0</v>
-      </c>
       <c r="O42" s="3">
         <v>0.0</v>
       </c>
       <c r="P42" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -2532,18 +2657,21 @@
         <v>5.0</v>
       </c>
       <c r="L43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M43" s="1">
         <v>49.0</v>
       </c>
-      <c r="M43" s="1">
+      <c r="N43" s="1">
         <v>67.0</v>
       </c>
-      <c r="N43" s="1">
+      <c r="O43" s="1">
         <v>3.0</v>
       </c>
-      <c r="O43" s="1">
+      <c r="P43" s="1">
         <v>1.0</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -2582,18 +2710,21 @@
         <v>5.0</v>
       </c>
       <c r="L44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M44" s="1">
         <v>53.0</v>
       </c>
-      <c r="M44" s="1">
+      <c r="N44" s="1">
         <v>69.0</v>
       </c>
-      <c r="N44" s="1">
+      <c r="O44" s="1">
         <v>3.0</v>
       </c>
-      <c r="O44" s="1">
+      <c r="P44" s="1">
         <v>1.0</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -2632,18 +2763,21 @@
         <v>5.0</v>
       </c>
       <c r="L45" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M45" s="1">
         <v>54.0</v>
       </c>
-      <c r="M45" s="1">
+      <c r="N45" s="1">
         <v>69.0</v>
       </c>
-      <c r="N45" s="1">
+      <c r="O45" s="1">
         <v>3.0</v>
       </c>
-      <c r="O45" s="1">
+      <c r="P45" s="1">
         <v>1.0</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -2682,18 +2816,21 @@
         <v>5.0</v>
       </c>
       <c r="L46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M46" s="1">
         <v>59.0</v>
       </c>
-      <c r="M46" s="1">
+      <c r="N46" s="1">
         <v>69.0</v>
       </c>
-      <c r="N46" s="1">
+      <c r="O46" s="1">
         <v>3.0</v>
       </c>
-      <c r="O46" s="1">
+      <c r="P46" s="1">
         <v>1.0</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -2732,18 +2869,21 @@
         <v>26.0</v>
       </c>
       <c r="L47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M47" s="1">
         <v>60.0</v>
       </c>
-      <c r="M47" s="1">
+      <c r="N47" s="1">
         <v>69.0</v>
       </c>
-      <c r="N47" s="1">
+      <c r="O47" s="1">
         <v>3.0</v>
       </c>
-      <c r="O47" s="1">
+      <c r="P47" s="1">
         <v>1.0</v>
       </c>
-      <c r="P47" s="1">
+      <c r="Q47" s="1">
         <v>2.0</v>
       </c>
     </row>
@@ -2782,18 +2922,21 @@
         <v>14.0</v>
       </c>
       <c r="L48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M48" s="1">
         <v>65.0</v>
       </c>
-      <c r="M48" s="1">
+      <c r="N48" s="1">
         <v>80.0</v>
       </c>
-      <c r="N48" s="1">
+      <c r="O48" s="1">
         <v>3.0</v>
       </c>
-      <c r="O48" s="1">
+      <c r="P48" s="1">
         <v>1.0</v>
       </c>
-      <c r="P48" s="1">
+      <c r="Q48" s="1">
         <v>2.0</v>
       </c>
     </row>
@@ -2832,18 +2975,21 @@
         <v>12.0</v>
       </c>
       <c r="L49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M49" s="1">
         <v>69.0</v>
       </c>
-      <c r="M49" s="1">
+      <c r="N49" s="1">
         <v>95.0</v>
       </c>
-      <c r="N49" s="1">
+      <c r="O49" s="1">
         <v>3.0</v>
       </c>
-      <c r="O49" s="1">
+      <c r="P49" s="1">
         <v>1.0</v>
       </c>
-      <c r="P49" s="1">
+      <c r="Q49" s="1">
         <v>2.0</v>
       </c>
     </row>
@@ -2882,18 +3028,21 @@
         <v>13.0</v>
       </c>
       <c r="L50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M50" s="1">
         <v>77.0</v>
       </c>
-      <c r="M50" s="1">
+      <c r="N50" s="1">
         <v>100.0</v>
       </c>
-      <c r="N50" s="1">
+      <c r="O50" s="1">
         <v>5.0</v>
       </c>
-      <c r="O50" s="1">
+      <c r="P50" s="1">
         <v>3.0</v>
       </c>
-      <c r="P50" s="1">
+      <c r="Q50" s="1">
         <v>2.0</v>
       </c>
     </row>
@@ -2932,18 +3081,21 @@
         <v>19.0</v>
       </c>
       <c r="L51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M51" s="1">
         <v>84.0</v>
       </c>
-      <c r="M51" s="1">
+      <c r="N51" s="1">
         <v>109.0</v>
       </c>
-      <c r="N51" s="1">
+      <c r="O51" s="1">
         <v>5.0</v>
       </c>
-      <c r="O51" s="1">
+      <c r="P51" s="1">
         <v>3.0</v>
       </c>
-      <c r="P51" s="1">
+      <c r="Q51" s="1">
         <v>2.0</v>
       </c>
     </row>
@@ -2982,18 +3134,21 @@
         <v>20.0</v>
       </c>
       <c r="L52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M52" s="1">
         <v>84.0</v>
       </c>
-      <c r="M52" s="1">
+      <c r="N52" s="1">
         <v>117.0</v>
       </c>
-      <c r="N52" s="1">
+      <c r="O52" s="1">
         <v>5.0</v>
       </c>
-      <c r="O52" s="1">
+      <c r="P52" s="1">
         <v>3.0</v>
       </c>
-      <c r="P52" s="1">
+      <c r="Q52" s="1">
         <v>2.0</v>
       </c>
     </row>
@@ -3032,18 +3187,21 @@
         <v>19.0</v>
       </c>
       <c r="L53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M53" s="1">
         <v>84.0</v>
       </c>
-      <c r="M53" s="1">
+      <c r="N53" s="1">
         <v>121.0</v>
       </c>
-      <c r="N53" s="1">
+      <c r="O53" s="1">
         <v>5.0</v>
       </c>
-      <c r="O53" s="1">
+      <c r="P53" s="1">
         <v>3.0</v>
       </c>
-      <c r="P53" s="1">
+      <c r="Q53" s="1">
         <v>2.0</v>
       </c>
     </row>
@@ -3082,18 +3240,21 @@
         <v>22.0</v>
       </c>
       <c r="L54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M54" s="1">
         <v>90.0</v>
       </c>
-      <c r="M54" s="1">
+      <c r="N54" s="1">
         <v>126.0</v>
       </c>
-      <c r="N54" s="1">
+      <c r="O54" s="1">
         <v>5.0</v>
       </c>
-      <c r="O54" s="1">
+      <c r="P54" s="1">
         <v>3.0</v>
       </c>
-      <c r="P54" s="1">
+      <c r="Q54" s="1">
         <v>2.0</v>
       </c>
     </row>
@@ -3132,18 +3293,21 @@
         <v>20.0</v>
       </c>
       <c r="L55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M55" s="1">
         <v>95.0</v>
       </c>
-      <c r="M55" s="1">
+      <c r="N55" s="1">
         <v>135.0</v>
       </c>
-      <c r="N55" s="1">
+      <c r="O55" s="1">
         <v>5.0</v>
       </c>
-      <c r="O55" s="1">
+      <c r="P55" s="1">
         <v>3.0</v>
       </c>
-      <c r="P55" s="1">
+      <c r="Q55" s="1">
         <v>2.0</v>
       </c>
     </row>
@@ -3182,18 +3346,21 @@
         <v>20.0</v>
       </c>
       <c r="L56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M56" s="1">
         <v>96.0</v>
       </c>
-      <c r="M56" s="1">
+      <c r="N56" s="1">
         <v>141.0</v>
       </c>
-      <c r="N56" s="1">
+      <c r="O56" s="1">
         <v>6.0</v>
       </c>
-      <c r="O56" s="1">
+      <c r="P56" s="1">
         <v>3.0</v>
       </c>
-      <c r="P56" s="1">
+      <c r="Q56" s="1">
         <v>2.0</v>
       </c>
     </row>
@@ -3232,18 +3399,21 @@
         <v>15.0</v>
       </c>
       <c r="L57" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M57" s="1">
         <v>102.0</v>
       </c>
-      <c r="M57" s="1">
+      <c r="N57" s="1">
         <v>149.0</v>
       </c>
-      <c r="N57" s="1">
+      <c r="O57" s="1">
         <v>6.0</v>
       </c>
-      <c r="O57" s="1">
+      <c r="P57" s="1">
         <v>3.0</v>
       </c>
-      <c r="P57" s="1">
+      <c r="Q57" s="1">
         <v>2.0</v>
       </c>
     </row>
@@ -3282,18 +3452,21 @@
         <v>14.0</v>
       </c>
       <c r="L58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M58" s="1">
         <v>114.0</v>
       </c>
-      <c r="M58" s="1">
+      <c r="N58" s="1">
         <v>159.0</v>
       </c>
-      <c r="N58" s="1">
+      <c r="O58" s="1">
         <v>6.0</v>
       </c>
-      <c r="O58" s="1">
+      <c r="P58" s="1">
         <v>3.0</v>
       </c>
-      <c r="P58" s="1">
+      <c r="Q58" s="1">
         <v>2.0</v>
       </c>
     </row>
@@ -3332,18 +3505,21 @@
         <v>15.0</v>
       </c>
       <c r="L59" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M59" s="1">
         <v>117.0</v>
       </c>
-      <c r="M59" s="1">
+      <c r="N59" s="1">
         <v>166.0</v>
       </c>
-      <c r="N59" s="1">
+      <c r="O59" s="1">
         <v>6.0</v>
       </c>
-      <c r="O59" s="1">
+      <c r="P59" s="1">
         <v>3.0</v>
       </c>
-      <c r="P59" s="1">
+      <c r="Q59" s="1">
         <v>2.0</v>
       </c>
     </row>
@@ -3382,18 +3558,21 @@
         <v>14.0</v>
       </c>
       <c r="L60" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M60" s="1">
         <v>117.0</v>
       </c>
-      <c r="M60" s="1">
+      <c r="N60" s="1">
         <v>166.0</v>
       </c>
-      <c r="N60" s="1">
+      <c r="O60" s="1">
         <v>6.0</v>
       </c>
-      <c r="O60" s="1">
+      <c r="P60" s="1">
         <v>3.0</v>
       </c>
-      <c r="P60" s="1">
+      <c r="Q60" s="1">
         <v>2.0</v>
       </c>
     </row>
@@ -3431,7 +3610,7 @@
       <c r="K61" s="3">
         <v>0.0</v>
       </c>
-      <c r="L61" s="3">
+      <c r="L61" s="1">
         <v>0.0</v>
       </c>
       <c r="M61" s="3">
@@ -3444,6 +3623,9 @@
         <v>0.0</v>
       </c>
       <c r="P61" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -3481,7 +3663,7 @@
       <c r="K62" s="3">
         <v>0.0</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="1">
         <v>0.0</v>
       </c>
       <c r="M62" s="3">
@@ -3494,6 +3676,9 @@
         <v>0.0</v>
       </c>
       <c r="P62" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -3532,18 +3717,21 @@
         <v>11.0</v>
       </c>
       <c r="L63" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M63" s="1">
         <v>132.0</v>
       </c>
-      <c r="M63" s="1">
+      <c r="N63" s="1">
         <v>202.0</v>
       </c>
-      <c r="N63" s="1">
+      <c r="O63" s="1">
         <v>6.0</v>
       </c>
-      <c r="O63" s="1">
+      <c r="P63" s="1">
         <v>3.0</v>
       </c>
-      <c r="P63" s="1">
+      <c r="Q63" s="1">
         <v>4.0</v>
       </c>
     </row>
@@ -3582,18 +3770,21 @@
         <v>18.0</v>
       </c>
       <c r="L64" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M64" s="1">
         <v>137.0</v>
       </c>
-      <c r="M64" s="1">
+      <c r="N64" s="1">
         <v>202.0</v>
       </c>
-      <c r="N64" s="1">
+      <c r="O64" s="1">
         <v>6.0</v>
       </c>
-      <c r="O64" s="1">
+      <c r="P64" s="1">
         <v>3.0</v>
       </c>
-      <c r="P64" s="1">
+      <c r="Q64" s="1">
         <v>4.0</v>
       </c>
     </row>
@@ -3632,18 +3823,21 @@
         <v>17.0</v>
       </c>
       <c r="L65" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M65" s="1">
         <v>146.0</v>
       </c>
-      <c r="M65" s="1">
+      <c r="N65" s="1">
         <v>213.0</v>
       </c>
-      <c r="N65" s="1">
+      <c r="O65" s="1">
         <v>6.0</v>
       </c>
-      <c r="O65" s="1">
+      <c r="P65" s="1">
         <v>5.0</v>
       </c>
-      <c r="P65" s="1">
+      <c r="Q65" s="1">
         <v>4.0</v>
       </c>
     </row>
@@ -3682,18 +3876,21 @@
         <v>15.0</v>
       </c>
       <c r="L66" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M66" s="1">
         <v>146.0</v>
       </c>
-      <c r="M66" s="1">
+      <c r="N66" s="1">
         <v>224.0</v>
       </c>
-      <c r="N66" s="1">
+      <c r="O66" s="1">
         <v>6.0</v>
       </c>
-      <c r="O66" s="1">
+      <c r="P66" s="1">
         <v>5.0</v>
       </c>
-      <c r="P66" s="1">
+      <c r="Q66" s="1">
         <v>4.0</v>
       </c>
     </row>
@@ -3732,18 +3929,21 @@
         <v>14.0</v>
       </c>
       <c r="L67" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M67" s="1">
         <v>150.0</v>
       </c>
-      <c r="M67" s="1">
+      <c r="N67" s="1">
         <v>242.0</v>
       </c>
-      <c r="N67" s="1">
+      <c r="O67" s="1">
         <v>6.0</v>
       </c>
-      <c r="O67" s="1">
+      <c r="P67" s="1">
         <v>5.0</v>
       </c>
-      <c r="P67" s="1">
+      <c r="Q67" s="1">
         <v>4.0</v>
       </c>
     </row>
@@ -3782,18 +3982,21 @@
         <v>18.0</v>
       </c>
       <c r="L68" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M68" s="1">
         <v>163.0</v>
       </c>
-      <c r="M68" s="1">
+      <c r="N68" s="1">
         <v>242.0</v>
       </c>
-      <c r="N68" s="1">
+      <c r="O68" s="1">
         <v>6.0</v>
       </c>
-      <c r="O68" s="1">
+      <c r="P68" s="1">
         <v>8.0</v>
       </c>
-      <c r="P68" s="1">
+      <c r="Q68" s="1">
         <v>4.0</v>
       </c>
     </row>
@@ -3832,18 +4035,21 @@
         <v>16.0</v>
       </c>
       <c r="L69" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M69" s="1">
         <v>171.0</v>
       </c>
-      <c r="M69" s="1">
+      <c r="N69" s="1">
         <v>244.0</v>
       </c>
-      <c r="N69" s="1">
+      <c r="O69" s="1">
         <v>10.0</v>
       </c>
-      <c r="O69" s="1">
+      <c r="P69" s="1">
         <v>8.0</v>
       </c>
-      <c r="P69" s="1">
+      <c r="Q69" s="1">
         <v>4.0</v>
       </c>
     </row>
@@ -3882,18 +4088,21 @@
         <v>28.0</v>
       </c>
       <c r="L70" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M70" s="1">
         <v>175.0</v>
       </c>
-      <c r="M70" s="1">
+      <c r="N70" s="1">
         <v>264.0</v>
       </c>
-      <c r="N70" s="1">
+      <c r="O70" s="1">
         <v>10.0</v>
       </c>
-      <c r="O70" s="1">
+      <c r="P70" s="1">
         <v>8.0</v>
       </c>
-      <c r="P70" s="1">
+      <c r="Q70" s="1">
         <v>4.0</v>
       </c>
     </row>
@@ -3932,18 +4141,21 @@
         <v>21.0</v>
       </c>
       <c r="L71" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M71" s="1">
         <v>179.0</v>
       </c>
-      <c r="M71" s="1">
+      <c r="N71" s="1">
         <v>264.0</v>
       </c>
-      <c r="N71" s="1">
+      <c r="O71" s="1">
         <v>11.0</v>
       </c>
-      <c r="O71" s="1">
+      <c r="P71" s="1">
         <v>8.0</v>
       </c>
-      <c r="P71" s="1">
+      <c r="Q71" s="1">
         <v>5.0</v>
       </c>
     </row>
@@ -3982,18 +4194,21 @@
         <v>21.0</v>
       </c>
       <c r="L72" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M72" s="1">
         <v>186.0</v>
       </c>
-      <c r="M72" s="1">
+      <c r="N72" s="1">
         <v>269.0</v>
       </c>
-      <c r="N72" s="1">
+      <c r="O72" s="1">
         <v>11.0</v>
       </c>
-      <c r="O72" s="1">
+      <c r="P72" s="1">
         <v>19.0</v>
       </c>
-      <c r="P72" s="1">
+      <c r="Q72" s="1">
         <v>5.0</v>
       </c>
     </row>
@@ -4031,7 +4246,7 @@
       <c r="K73" s="3">
         <v>0.0</v>
       </c>
-      <c r="L73" s="3">
+      <c r="L73" s="1">
         <v>0.0</v>
       </c>
       <c r="M73" s="3">
@@ -4044,6 +4259,9 @@
         <v>0.0</v>
       </c>
       <c r="P73" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q73" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -4082,18 +4300,21 @@
         <v>17.0</v>
       </c>
       <c r="L74" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M74" s="1">
         <v>186.0</v>
       </c>
-      <c r="M74" s="1">
+      <c r="N74" s="1">
         <v>269.0</v>
       </c>
-      <c r="N74" s="1">
+      <c r="O74" s="1">
         <v>11.0</v>
       </c>
-      <c r="O74" s="1">
+      <c r="P74" s="1">
         <v>19.0</v>
       </c>
-      <c r="P74" s="1">
+      <c r="Q74" s="1">
         <v>5.0</v>
       </c>
     </row>
@@ -4132,18 +4353,21 @@
         <v>15.0</v>
       </c>
       <c r="L75" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M75" s="1">
         <v>188.0</v>
       </c>
-      <c r="M75" s="1">
+      <c r="N75" s="1">
         <v>314.0</v>
       </c>
-      <c r="N75" s="1">
+      <c r="O75" s="1">
         <v>11.0</v>
       </c>
-      <c r="O75" s="1">
+      <c r="P75" s="1">
         <v>23.0</v>
       </c>
-      <c r="P75" s="1">
+      <c r="Q75" s="1">
         <v>5.0</v>
       </c>
     </row>
@@ -4183,18 +4407,21 @@
         <v>14.0</v>
       </c>
       <c r="L76" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M76" s="1">
         <v>188.0</v>
       </c>
-      <c r="M76" s="1">
+      <c r="N76" s="1">
         <v>347.0</v>
       </c>
-      <c r="N76" s="1">
+      <c r="O76" s="1">
         <v>12.0</v>
       </c>
-      <c r="O76" s="1">
+      <c r="P76" s="1">
         <v>24.0</v>
       </c>
-      <c r="P76" s="1">
+      <c r="Q76" s="1">
         <v>8.0</v>
       </c>
     </row>
@@ -4233,22 +4460,24 @@
       <c r="K77" s="8">
         <v>16.0</v>
       </c>
-      <c r="L77" s="8">
+      <c r="L77" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M77" s="8">
         <v>188.0</v>
       </c>
-      <c r="M77" s="8">
+      <c r="N77" s="8">
         <v>360.0</v>
       </c>
-      <c r="N77" s="8">
+      <c r="O77" s="8">
         <v>12.0</v>
       </c>
-      <c r="O77" s="8">
+      <c r="P77" s="8">
         <v>29.0</v>
       </c>
-      <c r="P77" s="8">
+      <c r="Q77" s="8">
         <v>8.0</v>
       </c>
-      <c r="Q77" s="9"/>
       <c r="R77" s="9"/>
       <c r="S77" s="9"/>
       <c r="T77" s="9"/>
@@ -4259,6 +4488,7 @@
       <c r="Y77" s="9"/>
       <c r="Z77" s="9"/>
       <c r="AA77" s="9"/>
+      <c r="AB77" s="9"/>
     </row>
     <row r="78">
       <c r="A78" s="2">
@@ -4296,18 +4526,21 @@
         <v>14.0</v>
       </c>
       <c r="L78" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M78" s="1">
         <v>201.0</v>
       </c>
-      <c r="M78" s="1">
+      <c r="N78" s="1">
         <v>380.0</v>
       </c>
-      <c r="N78" s="1">
+      <c r="O78" s="1">
         <v>12.0</v>
       </c>
-      <c r="O78" s="1">
+      <c r="P78" s="1">
         <v>29.0</v>
       </c>
-      <c r="P78" s="1">
+      <c r="Q78" s="1">
         <v>8.0</v>
       </c>
     </row>
@@ -4347,18 +4580,21 @@
         <v>13.0</v>
       </c>
       <c r="L79" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M79" s="1">
         <v>207.0</v>
       </c>
-      <c r="M79" s="1">
+      <c r="N79" s="1">
         <v>399.0</v>
       </c>
-      <c r="N79" s="1">
+      <c r="O79" s="1">
         <v>12.0</v>
       </c>
-      <c r="O79" s="1">
+      <c r="P79" s="1">
         <v>37.0</v>
       </c>
-      <c r="P79" s="1">
+      <c r="Q79" s="1">
         <v>8.0</v>
       </c>
     </row>
@@ -4398,18 +4634,21 @@
         <v>14.0</v>
       </c>
       <c r="L80" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M80" s="1">
         <v>213.0</v>
       </c>
-      <c r="M80" s="1">
+      <c r="N80" s="1">
         <v>407.0</v>
       </c>
-      <c r="N80" s="1">
+      <c r="O80" s="1">
         <v>12.0</v>
       </c>
-      <c r="O80" s="1">
+      <c r="P80" s="1">
         <v>38.0</v>
       </c>
-      <c r="P80" s="1">
+      <c r="Q80" s="1">
         <v>8.0</v>
       </c>
     </row>
@@ -4448,18 +4687,21 @@
         <v>13.0</v>
       </c>
       <c r="L81" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M81" s="1">
         <v>223.0</v>
       </c>
-      <c r="M81" s="1">
+      <c r="N81" s="1">
         <v>421.0</v>
       </c>
-      <c r="N81" s="1">
+      <c r="O81" s="1">
         <v>12.0</v>
       </c>
-      <c r="O81" s="1">
+      <c r="P81" s="1">
         <v>38.0</v>
       </c>
-      <c r="P81" s="1">
+      <c r="Q81" s="1">
         <v>8.0</v>
       </c>
     </row>
@@ -4498,18 +4740,21 @@
         <v>13.0</v>
       </c>
       <c r="L82" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M82" s="1">
         <v>237.0</v>
       </c>
-      <c r="M82" s="1">
+      <c r="N82" s="1">
         <v>439.0</v>
       </c>
-      <c r="N82" s="1">
+      <c r="O82" s="1">
         <v>12.0</v>
       </c>
-      <c r="O82" s="1">
+      <c r="P82" s="1">
         <v>38.0</v>
       </c>
-      <c r="P82" s="1">
+      <c r="Q82" s="1">
         <v>9.0</v>
       </c>
     </row>
@@ -4548,18 +4793,21 @@
         <v>14.0</v>
       </c>
       <c r="L83" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M83" s="1">
         <v>246.0</v>
       </c>
-      <c r="M83" s="1">
+      <c r="N83" s="1">
         <v>456.0</v>
       </c>
-      <c r="N83" s="1">
+      <c r="O83" s="1">
         <v>12.0</v>
       </c>
-      <c r="O83" s="1">
+      <c r="P83" s="1">
         <v>38.0</v>
       </c>
-      <c r="P83" s="1">
+      <c r="Q83" s="1">
         <v>9.0</v>
       </c>
     </row>
@@ -4598,18 +4846,21 @@
         <v>14.0</v>
       </c>
       <c r="L84" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M84" s="1">
         <v>257.0</v>
       </c>
-      <c r="M84" s="1">
+      <c r="N84" s="1">
         <v>469.0</v>
       </c>
-      <c r="N84" s="1">
+      <c r="O84" s="1">
         <v>12.0</v>
       </c>
-      <c r="O84" s="1">
+      <c r="P84" s="1">
         <v>38.0</v>
       </c>
-      <c r="P84" s="1">
+      <c r="Q84" s="1">
         <v>9.0</v>
       </c>
     </row>
@@ -4648,18 +4899,21 @@
         <v>15.0</v>
       </c>
       <c r="L85" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M85" s="1">
         <v>276.0</v>
       </c>
-      <c r="M85" s="1">
+      <c r="N85" s="1">
         <v>469.0</v>
       </c>
-      <c r="N85" s="1">
+      <c r="O85" s="1">
         <v>12.0</v>
       </c>
-      <c r="O85" s="1">
+      <c r="P85" s="1">
         <v>38.0</v>
       </c>
-      <c r="P85" s="1">
+      <c r="Q85" s="1">
         <v>9.0</v>
       </c>
     </row>
@@ -4698,18 +4952,21 @@
         <v>15.0</v>
       </c>
       <c r="L86" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M86" s="1">
         <v>285.0</v>
       </c>
-      <c r="M86" s="1">
+      <c r="N86" s="1">
         <v>481.0</v>
       </c>
-      <c r="N86" s="1">
+      <c r="O86" s="1">
         <v>12.0</v>
       </c>
-      <c r="O86" s="1">
+      <c r="P86" s="1">
         <v>38.0</v>
       </c>
-      <c r="P86" s="1">
+      <c r="Q86" s="1">
         <v>9.0</v>
       </c>
     </row>
@@ -4747,7 +5004,7 @@
       <c r="K87" s="3">
         <v>0.0</v>
       </c>
-      <c r="L87" s="3">
+      <c r="L87" s="1">
         <v>0.0</v>
       </c>
       <c r="M87" s="3">
@@ -4760,6 +5017,9 @@
         <v>0.0</v>
       </c>
       <c r="P87" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q87" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -4798,18 +5058,21 @@
         <v>22.0</v>
       </c>
       <c r="L88" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M88" s="1">
         <v>292.0</v>
       </c>
-      <c r="M88" s="1">
+      <c r="N88" s="1">
         <v>502.0</v>
       </c>
-      <c r="N88" s="1">
+      <c r="O88" s="1">
         <v>12.0</v>
       </c>
-      <c r="O88" s="1">
+      <c r="P88" s="1">
         <v>38.0</v>
       </c>
-      <c r="P88" s="1">
+      <c r="Q88" s="1">
         <v>9.0</v>
       </c>
     </row>
@@ -4848,18 +5111,21 @@
         <v>13.0</v>
       </c>
       <c r="L89" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M89" s="1">
         <v>299.0</v>
       </c>
-      <c r="M89" s="1">
+      <c r="N89" s="1">
         <v>513.0</v>
       </c>
-      <c r="N89" s="1">
+      <c r="O89" s="1">
         <v>12.0</v>
       </c>
-      <c r="O89" s="1">
+      <c r="P89" s="1">
         <v>38.0</v>
       </c>
-      <c r="P89" s="1">
+      <c r="Q89" s="1">
         <v>9.0</v>
       </c>
     </row>
@@ -4898,18 +5164,21 @@
         <v>12.0</v>
       </c>
       <c r="L90" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M90" s="1">
         <v>299.0</v>
       </c>
-      <c r="M90" s="1">
+      <c r="N90" s="1">
         <v>523.0</v>
       </c>
-      <c r="N90" s="1">
+      <c r="O90" s="1">
         <v>12.0</v>
       </c>
-      <c r="O90" s="1">
+      <c r="P90" s="1">
         <v>40.0</v>
       </c>
-      <c r="P90" s="1">
+      <c r="Q90" s="1">
         <v>9.0</v>
       </c>
     </row>
@@ -4948,18 +5217,21 @@
         <v>13.0</v>
       </c>
       <c r="L91" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M91" s="1">
         <v>305.0</v>
       </c>
-      <c r="M91" s="1">
+      <c r="N91" s="1">
         <v>538.0</v>
       </c>
-      <c r="N91" s="1">
+      <c r="O91" s="1">
         <v>12.0</v>
       </c>
-      <c r="O91" s="1">
+      <c r="P91" s="1">
         <v>40.0</v>
       </c>
-      <c r="P91" s="1">
+      <c r="Q91" s="1">
         <v>9.0</v>
       </c>
     </row>
@@ -4998,18 +5270,21 @@
         <v>12.0</v>
       </c>
       <c r="L92" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M92" s="1">
         <v>321.0</v>
       </c>
-      <c r="M92" s="1">
+      <c r="N92" s="1">
         <v>549.0</v>
       </c>
-      <c r="N92" s="1">
+      <c r="O92" s="1">
         <v>12.0</v>
       </c>
-      <c r="O92" s="1">
+      <c r="P92" s="1">
         <v>40.0</v>
       </c>
-      <c r="P92" s="1">
+      <c r="Q92" s="1">
         <v>9.0</v>
       </c>
     </row>
@@ -5048,18 +5323,21 @@
         <v>16.0</v>
       </c>
       <c r="L93" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M93" s="1">
         <v>323.0</v>
       </c>
-      <c r="M93" s="1">
+      <c r="N93" s="1">
         <v>565.0</v>
       </c>
-      <c r="N93" s="1">
+      <c r="O93" s="1">
         <v>12.0</v>
       </c>
-      <c r="O93" s="1">
+      <c r="P93" s="1">
         <v>41.0</v>
       </c>
-      <c r="P93" s="1">
+      <c r="Q93" s="1">
         <v>9.0</v>
       </c>
     </row>
@@ -5098,18 +5376,21 @@
         <v>16.0</v>
       </c>
       <c r="L94" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M94" s="1">
         <v>330.0</v>
       </c>
-      <c r="M94" s="1">
+      <c r="N94" s="1">
         <v>571.0</v>
       </c>
-      <c r="N94" s="1">
+      <c r="O94" s="1">
         <v>12.0</v>
       </c>
-      <c r="O94" s="1">
+      <c r="P94" s="1">
         <v>41.0</v>
       </c>
-      <c r="P94" s="1">
+      <c r="Q94" s="1">
         <v>9.0</v>
       </c>
     </row>
@@ -5148,18 +5429,21 @@
         <v>14.0</v>
       </c>
       <c r="L95" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M95" s="1">
         <v>342.0</v>
       </c>
-      <c r="M95" s="1">
+      <c r="N95" s="1">
         <v>586.0</v>
       </c>
-      <c r="N95" s="1">
+      <c r="O95" s="1">
         <v>12.0</v>
       </c>
-      <c r="O95" s="1">
+      <c r="P95" s="1">
         <v>41.0</v>
       </c>
-      <c r="P95" s="1">
+      <c r="Q95" s="1">
         <v>9.0</v>
       </c>
     </row>
@@ -5198,18 +5482,21 @@
         <v>15.0</v>
       </c>
       <c r="L96" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M96" s="1">
         <v>342.0</v>
       </c>
-      <c r="M96" s="1">
+      <c r="N96" s="1">
         <v>604.0</v>
       </c>
-      <c r="N96" s="1">
+      <c r="O96" s="1">
         <v>12.0</v>
       </c>
-      <c r="O96" s="1">
+      <c r="P96" s="1">
         <v>41.0</v>
       </c>
-      <c r="P96" s="1">
+      <c r="Q96" s="1">
         <v>9.0</v>
       </c>
     </row>
@@ -5248,18 +5535,21 @@
         <v>16.0</v>
       </c>
       <c r="L97" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M97" s="1">
         <v>358.0</v>
       </c>
-      <c r="M97" s="1">
+      <c r="N97" s="1">
         <v>623.0</v>
       </c>
-      <c r="N97" s="1">
+      <c r="O97" s="1">
         <v>12.0</v>
       </c>
-      <c r="O97" s="1">
+      <c r="P97" s="1">
         <v>41.0</v>
       </c>
-      <c r="P97" s="1">
+      <c r="Q97" s="1">
         <v>9.0</v>
       </c>
     </row>
@@ -5298,18 +5588,21 @@
         <v>18.0</v>
       </c>
       <c r="L98" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M98" s="1">
         <v>369.0</v>
       </c>
-      <c r="M98" s="1">
+      <c r="N98" s="1">
         <v>642.0</v>
       </c>
-      <c r="N98" s="1">
+      <c r="O98" s="1">
         <v>12.0</v>
       </c>
-      <c r="O98" s="1">
+      <c r="P98" s="1">
         <v>41.0</v>
       </c>
-      <c r="P98" s="1">
+      <c r="Q98" s="1">
         <v>10.0</v>
       </c>
     </row>
@@ -5348,18 +5641,21 @@
         <v>12.0</v>
       </c>
       <c r="L99" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M99" s="1">
         <v>394.0</v>
       </c>
-      <c r="M99" s="1">
+      <c r="N99" s="1">
         <v>656.0</v>
       </c>
-      <c r="N99" s="1">
+      <c r="O99" s="1">
         <v>12.0</v>
       </c>
-      <c r="O99" s="1">
+      <c r="P99" s="1">
         <v>41.0</v>
       </c>
-      <c r="P99" s="1">
+      <c r="Q99" s="1">
         <v>10.0</v>
       </c>
     </row>
@@ -5398,18 +5694,21 @@
         <v>20.0</v>
       </c>
       <c r="L100" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M100" s="1">
         <v>404.0</v>
       </c>
-      <c r="M100" s="1">
+      <c r="N100" s="1">
         <v>675.0</v>
       </c>
-      <c r="N100" s="1">
+      <c r="O100" s="1">
         <v>12.0</v>
       </c>
-      <c r="O100" s="1">
+      <c r="P100" s="1">
         <v>41.0</v>
       </c>
-      <c r="P100" s="1">
+      <c r="Q100" s="1">
         <v>10.0</v>
       </c>
     </row>
@@ -5448,18 +5747,21 @@
         <v>23.0</v>
       </c>
       <c r="L101" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M101" s="1">
         <v>415.0</v>
       </c>
-      <c r="M101" s="1">
+      <c r="N101" s="1">
         <v>699.0</v>
       </c>
-      <c r="N101" s="1">
+      <c r="O101" s="1">
         <v>12.0</v>
       </c>
-      <c r="O101" s="1">
+      <c r="P101" s="1">
         <v>41.0</v>
       </c>
-      <c r="P101" s="1">
+      <c r="Q101" s="1">
         <v>10.0</v>
       </c>
     </row>
@@ -5498,18 +5800,21 @@
         <v>20.0</v>
       </c>
       <c r="L102" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M102" s="1">
         <v>415.0</v>
       </c>
-      <c r="M102" s="1">
+      <c r="N102" s="1">
         <v>706.0</v>
       </c>
-      <c r="N102" s="1">
+      <c r="O102" s="1">
         <v>12.0</v>
       </c>
-      <c r="O102" s="1">
+      <c r="P102" s="1">
         <v>41.0</v>
       </c>
-      <c r="P102" s="1">
+      <c r="Q102" s="1">
         <v>10.0</v>
       </c>
     </row>
@@ -5548,18 +5853,21 @@
         <v>20.0</v>
       </c>
       <c r="L103" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M103" s="1">
         <v>435.0</v>
       </c>
-      <c r="M103" s="1">
+      <c r="N103" s="1">
         <v>711.0</v>
       </c>
-      <c r="N103" s="1">
+      <c r="O103" s="1">
         <v>12.0</v>
       </c>
-      <c r="O103" s="1">
+      <c r="P103" s="1">
         <v>41.0</v>
       </c>
-      <c r="P103" s="1">
+      <c r="Q103" s="1">
         <v>10.0</v>
       </c>
     </row>
@@ -5598,18 +5906,21 @@
         <v>21.0</v>
       </c>
       <c r="L104" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M104" s="1">
         <v>461.0</v>
       </c>
-      <c r="M104" s="1">
+      <c r="N104" s="1">
         <v>725.0</v>
       </c>
-      <c r="N104" s="1">
+      <c r="O104" s="1">
         <v>12.0</v>
       </c>
-      <c r="O104" s="1">
+      <c r="P104" s="1">
         <v>41.0</v>
       </c>
-      <c r="P104" s="1">
+      <c r="Q104" s="1">
         <v>10.0</v>
       </c>
     </row>
@@ -5648,18 +5959,21 @@
         <v>28.0</v>
       </c>
       <c r="L105" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M105" s="1">
         <v>478.0</v>
       </c>
-      <c r="M105" s="1">
+      <c r="N105" s="1">
         <v>744.0</v>
       </c>
-      <c r="N105" s="1">
+      <c r="O105" s="1">
         <v>15.0</v>
       </c>
-      <c r="O105" s="1">
+      <c r="P105" s="1">
         <v>41.0</v>
       </c>
-      <c r="P105" s="1">
+      <c r="Q105" s="1">
         <v>10.0</v>
       </c>
     </row>
@@ -5698,18 +6012,21 @@
         <v>28.0</v>
       </c>
       <c r="L106" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M106" s="1">
         <v>495.0</v>
       </c>
-      <c r="M106" s="1">
+      <c r="N106" s="1">
         <v>751.0</v>
       </c>
-      <c r="N106" s="1">
+      <c r="O106" s="1">
         <v>16.0</v>
       </c>
-      <c r="O106" s="1">
+      <c r="P106" s="1">
         <v>41.0</v>
       </c>
-      <c r="P106" s="1">
+      <c r="Q106" s="1">
         <v>10.0</v>
       </c>
     </row>
@@ -5748,18 +6065,21 @@
         <v>28.0</v>
       </c>
       <c r="L107" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M107" s="1">
         <v>514.0</v>
       </c>
-      <c r="M107" s="1">
+      <c r="N107" s="1">
         <v>751.0</v>
       </c>
-      <c r="N107" s="1">
+      <c r="O107" s="1">
         <v>16.0</v>
       </c>
-      <c r="O107" s="1">
+      <c r="P107" s="1">
         <v>41.0</v>
       </c>
-      <c r="P107" s="1">
+      <c r="Q107" s="1">
         <v>10.0</v>
       </c>
     </row>
@@ -5798,18 +6118,21 @@
         <v>27.0</v>
       </c>
       <c r="L108" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M108" s="1">
         <v>522.0</v>
       </c>
-      <c r="M108" s="1">
+      <c r="N108" s="1">
         <v>751.0</v>
       </c>
-      <c r="N108" s="1">
+      <c r="O108" s="1">
         <v>16.0</v>
       </c>
-      <c r="O108" s="1">
+      <c r="P108" s="1">
         <v>41.0</v>
       </c>
-      <c r="P108" s="1">
+      <c r="Q108" s="1">
         <v>10.0</v>
       </c>
     </row>
@@ -5848,18 +6171,21 @@
         <v>29.0</v>
       </c>
       <c r="L109" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M109" s="1">
         <v>529.0</v>
       </c>
-      <c r="M109" s="1">
+      <c r="N109" s="1">
         <v>751.0</v>
       </c>
-      <c r="N109" s="1">
+      <c r="O109" s="1">
         <v>16.0</v>
       </c>
-      <c r="O109" s="1">
+      <c r="P109" s="1">
         <v>41.0</v>
       </c>
-      <c r="P109" s="1">
+      <c r="Q109" s="1">
         <v>10.0</v>
       </c>
     </row>
@@ -5898,18 +6224,21 @@
         <v>29.0</v>
       </c>
       <c r="L110" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M110" s="1">
         <v>532.0</v>
       </c>
-      <c r="M110" s="1">
+      <c r="N110" s="1">
         <v>751.0</v>
       </c>
-      <c r="N110" s="1">
+      <c r="O110" s="1">
         <v>16.0</v>
       </c>
-      <c r="O110" s="1">
+      <c r="P110" s="1">
         <v>41.0</v>
       </c>
-      <c r="P110" s="1">
+      <c r="Q110" s="1">
         <v>10.0</v>
       </c>
     </row>
@@ -5948,18 +6277,21 @@
         <v>20.0</v>
       </c>
       <c r="L111" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M111" s="1">
         <v>549.0</v>
       </c>
-      <c r="M111" s="1">
+      <c r="N111" s="1">
         <v>758.0</v>
       </c>
-      <c r="N111" s="1">
+      <c r="O111" s="1">
         <v>16.0</v>
       </c>
-      <c r="O111" s="1">
+      <c r="P111" s="1">
         <v>41.0</v>
       </c>
-      <c r="P111" s="1">
+      <c r="Q111" s="1">
         <v>10.0</v>
       </c>
     </row>
@@ -5998,18 +6330,21 @@
         <v>23.0</v>
       </c>
       <c r="L112" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M112" s="1">
         <v>558.0</v>
       </c>
-      <c r="M112" s="1">
+      <c r="N112" s="1">
         <v>764.0</v>
       </c>
-      <c r="N112" s="1">
+      <c r="O112" s="1">
         <v>16.0</v>
       </c>
-      <c r="O112" s="1">
+      <c r="P112" s="1">
         <v>41.0</v>
       </c>
-      <c r="P112" s="1">
+      <c r="Q112" s="1">
         <v>10.0</v>
       </c>
     </row>
@@ -6048,18 +6383,21 @@
         <v>21.0</v>
       </c>
       <c r="L113" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M113" s="1">
         <v>566.0</v>
       </c>
-      <c r="M113" s="1">
+      <c r="N113" s="1">
         <v>764.0</v>
       </c>
-      <c r="N113" s="1">
+      <c r="O113" s="1">
         <v>18.0</v>
       </c>
-      <c r="O113" s="1">
+      <c r="P113" s="1">
         <v>41.0</v>
       </c>
-      <c r="P113" s="1">
+      <c r="Q113" s="1">
         <v>10.0</v>
       </c>
     </row>
@@ -6094,22 +6432,555 @@
       <c r="J114" s="1">
         <v>32.0</v>
       </c>
-      <c r="K114" s="10">
+      <c r="K114" s="1">
         <v>0.0</v>
       </c>
       <c r="L114" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M114" s="1">
         <v>573.0</v>
       </c>
-      <c r="M114" s="1">
+      <c r="N114" s="1">
         <v>771.0</v>
       </c>
-      <c r="N114" s="1">
+      <c r="O114" s="1">
         <v>18.0</v>
       </c>
-      <c r="O114" s="1">
+      <c r="P114" s="1">
         <v>41.0</v>
       </c>
-      <c r="P114" s="1">
+      <c r="Q114" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2">
+        <v>44065.0</v>
+      </c>
+      <c r="B115" s="1">
+        <v>547502.0</v>
+      </c>
+      <c r="C115" s="1">
+        <v>87993.0</v>
+      </c>
+      <c r="D115" s="1">
+        <v>459461.0</v>
+      </c>
+      <c r="E115" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="F115" s="1">
+        <v>1429.0</v>
+      </c>
+      <c r="G115" s="1">
+        <v>56908.0</v>
+      </c>
+      <c r="H115" s="1">
+        <v>501.0</v>
+      </c>
+      <c r="I115" s="1">
+        <v>171.0</v>
+      </c>
+      <c r="J115" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="K115" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L115" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M115" s="1">
+        <v>587.0</v>
+      </c>
+      <c r="N115" s="1">
+        <v>773.0</v>
+      </c>
+      <c r="O115" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="P115" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="Q115" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2">
+        <v>44066.0</v>
+      </c>
+      <c r="B116" s="1">
+        <v>556859.0</v>
+      </c>
+      <c r="C116" s="1">
+        <v>89902.0</v>
+      </c>
+      <c r="D116" s="1">
+        <v>466915.0</v>
+      </c>
+      <c r="E116" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="F116" s="1">
+        <v>1433.0</v>
+      </c>
+      <c r="G116" s="1">
+        <v>58721.0</v>
+      </c>
+      <c r="H116" s="1">
+        <v>501.0</v>
+      </c>
+      <c r="I116" s="1">
+        <v>171.0</v>
+      </c>
+      <c r="J116" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="K116" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L116" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M116" s="1">
+        <v>590.0</v>
+      </c>
+      <c r="N116" s="1">
+        <v>773.0</v>
+      </c>
+      <c r="O116" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="P116" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="Q116" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2">
+        <v>44067.0</v>
+      </c>
+      <c r="B117" s="1">
+        <v>562295.0</v>
+      </c>
+      <c r="C117" s="1">
+        <v>90959.0</v>
+      </c>
+      <c r="D117" s="1">
+        <v>471294.0</v>
+      </c>
+      <c r="E117" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="F117" s="1">
+        <v>1452.0</v>
+      </c>
+      <c r="G117" s="1">
+        <v>60875.0</v>
+      </c>
+      <c r="H117" s="1">
+        <v>495.0</v>
+      </c>
+      <c r="I117" s="1">
+        <v>171.0</v>
+      </c>
+      <c r="J117" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="K117" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L117" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M117" s="1">
+        <v>607.0</v>
+      </c>
+      <c r="N117" s="1">
+        <v>776.0</v>
+      </c>
+      <c r="O117" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="P117" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="Q117" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2">
+        <v>44068.0</v>
+      </c>
+      <c r="B118" s="1">
+        <v>568508.0</v>
+      </c>
+      <c r="C118" s="1">
+        <v>92126.0</v>
+      </c>
+      <c r="D118" s="1">
+        <v>476324.0</v>
+      </c>
+      <c r="E118" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="F118" s="1">
+        <v>1469.0</v>
+      </c>
+      <c r="G118" s="1">
+        <v>62121.0</v>
+      </c>
+      <c r="H118" s="1">
+        <v>495.0</v>
+      </c>
+      <c r="I118" s="1">
+        <v>171.0</v>
+      </c>
+      <c r="J118" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="K118" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L118" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M118" s="1">
+        <v>623.0</v>
+      </c>
+      <c r="N118" s="1">
+        <v>776.0</v>
+      </c>
+      <c r="O118" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="P118" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="Q118" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2">
+        <v>44069.0</v>
+      </c>
+      <c r="B119" s="1">
+        <v>576134.0</v>
+      </c>
+      <c r="C119" s="1">
+        <v>93741.0</v>
+      </c>
+      <c r="D119" s="1">
+        <v>482340.0</v>
+      </c>
+      <c r="E119" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="F119" s="1">
+        <v>1501.0</v>
+      </c>
+      <c r="G119" s="1">
+        <v>63661.0</v>
+      </c>
+      <c r="H119" s="1">
+        <v>609.0</v>
+      </c>
+      <c r="I119" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="J119" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="K119" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L119" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M119" s="1">
+        <v>632.0</v>
+      </c>
+      <c r="N119" s="1">
+        <v>799.0</v>
+      </c>
+      <c r="O119" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="P119" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="Q119" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2">
+        <v>44070.0</v>
+      </c>
+      <c r="B120" s="1">
+        <v>583938.0</v>
+      </c>
+      <c r="C120" s="1">
+        <v>95376.0</v>
+      </c>
+      <c r="D120" s="1">
+        <v>488504.0</v>
+      </c>
+      <c r="E120" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1548.0</v>
+      </c>
+      <c r="G120" s="1">
+        <v>65095.0</v>
+      </c>
+      <c r="H120" s="1">
+        <v>564.0</v>
+      </c>
+      <c r="I120" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="J120" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="K120" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L120" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M120" s="1">
+        <v>634.0</v>
+      </c>
+      <c r="N120" s="1">
+        <v>841.0</v>
+      </c>
+      <c r="O120" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="P120" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="Q120" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2">
+        <v>44071.0</v>
+      </c>
+      <c r="B121" s="1">
+        <v>591809.0</v>
+      </c>
+      <c r="C121" s="1">
+        <v>97244.0</v>
+      </c>
+      <c r="D121" s="1">
+        <v>494526.0</v>
+      </c>
+      <c r="E121" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="F121" s="1">
+        <v>1667.0</v>
+      </c>
+      <c r="G121" s="1">
+        <v>66927.0</v>
+      </c>
+      <c r="H121" s="1">
+        <v>564.0</v>
+      </c>
+      <c r="I121" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="J121" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="K121" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L121" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M121" s="1">
+        <v>639.0</v>
+      </c>
+      <c r="N121" s="1">
+        <v>955.0</v>
+      </c>
+      <c r="O121" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="P121" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="Q121" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2">
+        <v>44072.0</v>
+      </c>
+      <c r="B122" s="1">
+        <v>599388.0</v>
+      </c>
+      <c r="C122" s="1">
+        <v>98736.0</v>
+      </c>
+      <c r="D122" s="1">
+        <v>500604.0</v>
+      </c>
+      <c r="E122" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="F122" s="1">
+        <v>1685.0</v>
+      </c>
+      <c r="G122" s="1">
+        <v>68458.0</v>
+      </c>
+      <c r="H122" s="1">
+        <v>544.0</v>
+      </c>
+      <c r="I122" s="1">
+        <v>140.0</v>
+      </c>
+      <c r="J122" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="K122" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L122" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M122" s="1">
+        <v>644.0</v>
+      </c>
+      <c r="N122" s="1">
+        <v>968.0</v>
+      </c>
+      <c r="O122" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="P122" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="Q122" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2">
+        <v>44073.0</v>
+      </c>
+      <c r="B123" s="1">
+        <v>606581.0</v>
+      </c>
+      <c r="C123" s="1">
+        <v>100097.0</v>
+      </c>
+      <c r="D123" s="1">
+        <v>506449.0</v>
+      </c>
+      <c r="E123" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="F123" s="1">
+        <v>1696.0</v>
+      </c>
+      <c r="G123" s="1">
+        <v>70311.0</v>
+      </c>
+      <c r="H123" s="1">
+        <v>498.0</v>
+      </c>
+      <c r="I123" s="1">
+        <v>126.0</v>
+      </c>
+      <c r="J123" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="K123" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L123" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M123" s="1">
+        <v>647.0</v>
+      </c>
+      <c r="N123" s="1">
+        <v>976.0</v>
+      </c>
+      <c r="O123" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="P123" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="Q123" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2">
+        <v>44074.0</v>
+      </c>
+      <c r="B124" s="1">
+        <v>610048.0</v>
+      </c>
+      <c r="C124" s="1">
+        <v>100639.0</v>
+      </c>
+      <c r="D124" s="1">
+        <v>509374.0</v>
+      </c>
+      <c r="E124" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="F124" s="1">
+        <v>1708.0</v>
+      </c>
+      <c r="G124" s="1">
+        <v>72173.0</v>
+      </c>
+      <c r="H124" s="1">
+        <v>459.0</v>
+      </c>
+      <c r="I124" s="1">
+        <v>111.0</v>
+      </c>
+      <c r="J124" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="K124" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L124" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="M124" s="1">
+        <v>647.0</v>
+      </c>
+      <c r="N124" s="1">
+        <v>988.0</v>
+      </c>
+      <c r="O124" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="P124" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="Q124" s="1">
         <v>10.0</v>
       </c>
     </row>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -6984,6 +6984,59 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" s="2">
+        <v>44075.0</v>
+      </c>
+      <c r="B125" s="1">
+        <v>616104.0</v>
+      </c>
+      <c r="C125" s="1">
+        <v>101955.0</v>
+      </c>
+      <c r="D125" s="1">
+        <v>514078.0</v>
+      </c>
+      <c r="E125" s="1">
+        <v>71.0</v>
+      </c>
+      <c r="F125" s="1">
+        <v>1725.0</v>
+      </c>
+      <c r="G125" s="1">
+        <v>74113.0</v>
+      </c>
+      <c r="H125" s="1">
+        <v>449.0</v>
+      </c>
+      <c r="I125" s="1">
+        <v>120.0</v>
+      </c>
+      <c r="J125" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="K125" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L125" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="M125" s="1">
+        <v>655.0</v>
+      </c>
+      <c r="N125" s="1">
+        <v>997.0</v>
+      </c>
+      <c r="O125" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="P125" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="Q125" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -7037,6 +7037,59 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" s="2">
+        <v>44076.0</v>
+      </c>
+      <c r="B126" s="1">
+        <v>623940.0</v>
+      </c>
+      <c r="C126" s="1">
+        <v>103504.0</v>
+      </c>
+      <c r="D126" s="1">
+        <v>520392.0</v>
+      </c>
+      <c r="E126" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="F126" s="1">
+        <v>1739.0</v>
+      </c>
+      <c r="G126" s="1">
+        <v>75613.0</v>
+      </c>
+      <c r="H126" s="1">
+        <v>449.0</v>
+      </c>
+      <c r="I126" s="1">
+        <v>105.0</v>
+      </c>
+      <c r="J126" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="K126" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L126" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="M126" s="1">
+        <v>662.0</v>
+      </c>
+      <c r="N126" s="1">
+        <v>1004.0</v>
+      </c>
+      <c r="O126" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="P126" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="Q126" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -7090,6 +7090,59 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="127">
+      <c r="A127" s="2">
+        <v>44077.0</v>
+      </c>
+      <c r="B127" s="1">
+        <v>632557.0</v>
+      </c>
+      <c r="C127" s="1">
+        <v>104882.0</v>
+      </c>
+      <c r="D127" s="1">
+        <v>527572.0</v>
+      </c>
+      <c r="E127" s="1">
+        <v>103.0</v>
+      </c>
+      <c r="F127" s="1">
+        <v>1751.0</v>
+      </c>
+      <c r="G127" s="1">
+        <v>76901.0</v>
+      </c>
+      <c r="H127" s="1">
+        <v>407.0</v>
+      </c>
+      <c r="I127" s="1">
+        <v>95.0</v>
+      </c>
+      <c r="J127" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="K127" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L127" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="M127" s="1">
+        <v>666.0</v>
+      </c>
+      <c r="N127" s="1">
+        <v>1011.0</v>
+      </c>
+      <c r="O127" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="P127" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="Q127" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -7143,6 +7143,59 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="128">
+      <c r="A128" s="2">
+        <v>44078.0</v>
+      </c>
+      <c r="B128" s="1">
+        <v>640604.0</v>
+      </c>
+      <c r="C128" s="1">
+        <v>106274.0</v>
+      </c>
+      <c r="D128" s="1">
+        <v>534276.0</v>
+      </c>
+      <c r="E128" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="F128" s="1">
+        <v>1764.0</v>
+      </c>
+      <c r="G128" s="1">
+        <v>78301.0</v>
+      </c>
+      <c r="H128" s="1">
+        <v>390.0</v>
+      </c>
+      <c r="I128" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="J128" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="K128" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L128" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="M128" s="1">
+        <v>669.0</v>
+      </c>
+      <c r="N128" s="1">
+        <v>1021.0</v>
+      </c>
+      <c r="O128" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="P128" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="Q128" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -71,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -81,6 +81,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -108,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -133,6 +134,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -7196,6 +7200,59 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="129">
+      <c r="A129" s="2">
+        <v>44079.0</v>
+      </c>
+      <c r="B129" s="1">
+        <v>647498.0</v>
+      </c>
+      <c r="C129" s="1">
+        <v>107426.0</v>
+      </c>
+      <c r="D129" s="1">
+        <v>540008.0</v>
+      </c>
+      <c r="E129" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="F129" s="1">
+        <v>1772.0</v>
+      </c>
+      <c r="G129" s="1">
+        <v>79900.0</v>
+      </c>
+      <c r="H129" s="1">
+        <v>386.0</v>
+      </c>
+      <c r="I129" s="1">
+        <v>76.0</v>
+      </c>
+      <c r="J129" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="K129" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L129" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M129" s="1">
+        <v>672.0</v>
+      </c>
+      <c r="N129" s="1">
+        <v>1026.0</v>
+      </c>
+      <c r="O129" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="P129" s="10">
+        <v>41.0</v>
+      </c>
+      <c r="Q129" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -7253,6 +7253,59 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="130">
+      <c r="A130" s="2">
+        <v>44080.0</v>
+      </c>
+      <c r="B130" s="1">
+        <v>653979.0</v>
+      </c>
+      <c r="C130" s="1">
+        <v>108443.0</v>
+      </c>
+      <c r="D130" s="1">
+        <v>545439.0</v>
+      </c>
+      <c r="E130" s="1">
+        <v>97.0</v>
+      </c>
+      <c r="F130" s="1">
+        <v>1778.0</v>
+      </c>
+      <c r="G130" s="1">
+        <v>81996.0</v>
+      </c>
+      <c r="H130" s="1">
+        <v>380.0</v>
+      </c>
+      <c r="I130" s="1">
+        <v>73.0</v>
+      </c>
+      <c r="J130" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="K130" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L130" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M130" s="1">
+        <v>678.0</v>
+      </c>
+      <c r="N130" s="1">
+        <v>1026.0</v>
+      </c>
+      <c r="O130" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="P130" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="Q130" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -71,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -81,7 +81,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -109,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -134,9 +133,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -7246,7 +7242,7 @@
       <c r="O129" s="1">
         <v>23.0</v>
       </c>
-      <c r="P129" s="10">
+      <c r="P129" s="1">
         <v>41.0</v>
       </c>
       <c r="Q129" s="1">
@@ -7303,6 +7299,59 @@
         <v>41.0</v>
       </c>
       <c r="Q130" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2">
+        <v>44081.0</v>
+      </c>
+      <c r="B131" s="1">
+        <v>656187.0</v>
+      </c>
+      <c r="C131" s="1">
+        <v>108788.0</v>
+      </c>
+      <c r="D131" s="1">
+        <v>547302.0</v>
+      </c>
+      <c r="E131" s="1">
+        <v>97.0</v>
+      </c>
+      <c r="F131" s="1">
+        <v>1790.0</v>
+      </c>
+      <c r="G131" s="1">
+        <v>84061.0</v>
+      </c>
+      <c r="H131" s="1">
+        <v>349.0</v>
+      </c>
+      <c r="I131" s="1">
+        <v>114.0</v>
+      </c>
+      <c r="J131" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="K131" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L131" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="M131" s="1">
+        <v>679.0</v>
+      </c>
+      <c r="N131" s="1">
+        <v>1037.0</v>
+      </c>
+      <c r="O131" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="P131" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="Q131" s="1">
         <v>10.0</v>
       </c>
     </row>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -71,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -81,6 +81,10 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <name val="Arial"/>
+    </font>
+    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -108,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -133,6 +137,21 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -7355,6 +7374,271 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" s="10">
+        <v>44082.0</v>
+      </c>
+      <c r="B132" s="11">
+        <v>661464.0</v>
+      </c>
+      <c r="C132" s="11">
+        <v>109736.0</v>
+      </c>
+      <c r="D132" s="11">
+        <v>551664.0</v>
+      </c>
+      <c r="E132" s="11">
+        <v>64.0</v>
+      </c>
+      <c r="F132" s="11">
+        <v>1821.0</v>
+      </c>
+      <c r="G132" s="11">
+        <v>86502.0</v>
+      </c>
+      <c r="H132" s="11">
+        <v>402.0</v>
+      </c>
+      <c r="I132" s="11">
+        <v>96.0</v>
+      </c>
+      <c r="J132" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="K132" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L132" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="M132" s="11">
+        <v>693.0</v>
+      </c>
+      <c r="N132" s="11">
+        <v>1039.0</v>
+      </c>
+      <c r="O132" s="11">
+        <v>38.0</v>
+      </c>
+      <c r="P132" s="11">
+        <v>41.0</v>
+      </c>
+      <c r="Q132" s="11">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="12">
+        <v>44083.0</v>
+      </c>
+      <c r="B133" s="1">
+        <v>668597.0</v>
+      </c>
+      <c r="C133" s="1">
+        <v>111085.0</v>
+      </c>
+      <c r="D133" s="1">
+        <v>557470.0</v>
+      </c>
+      <c r="E133" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="F133" s="1">
+        <v>1834.0</v>
+      </c>
+      <c r="G133" s="1">
+        <v>88366.0</v>
+      </c>
+      <c r="H133" s="1">
+        <v>355.0</v>
+      </c>
+      <c r="I133" s="1">
+        <v>126.0</v>
+      </c>
+      <c r="J133" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="K133" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L133" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M133" s="1">
+        <v>695.0</v>
+      </c>
+      <c r="N133" s="1">
+        <v>1050.0</v>
+      </c>
+      <c r="O133" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P133" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="Q133" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="13">
+        <v>44084.0</v>
+      </c>
+      <c r="B134" s="1">
+        <v>676147.0</v>
+      </c>
+      <c r="C134" s="1">
+        <v>112487.0</v>
+      </c>
+      <c r="D134" s="1">
+        <v>563600.0</v>
+      </c>
+      <c r="E134" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="F134" s="1">
+        <v>1844.0</v>
+      </c>
+      <c r="G134" s="1">
+        <v>89773.0</v>
+      </c>
+      <c r="H134" s="1">
+        <v>381.0</v>
+      </c>
+      <c r="I134" s="1">
+        <v>127.0</v>
+      </c>
+      <c r="J134" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="K134" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="L134" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M134" s="1">
+        <v>696.0</v>
+      </c>
+      <c r="N134" s="1">
+        <v>1059.0</v>
+      </c>
+      <c r="O134" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P134" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="Q134" s="14">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="13">
+        <v>44085.0</v>
+      </c>
+      <c r="B135" s="1">
+        <v>683346.0</v>
+      </c>
+      <c r="C135" s="1">
+        <v>113577.0</v>
+      </c>
+      <c r="D135" s="1">
+        <v>569612.0</v>
+      </c>
+      <c r="E135" s="1">
+        <v>157.0</v>
+      </c>
+      <c r="F135" s="1">
+        <v>1862.0</v>
+      </c>
+      <c r="G135" s="1">
+        <v>90618.0</v>
+      </c>
+      <c r="H135" s="1">
+        <v>604.0</v>
+      </c>
+      <c r="I135" s="1">
+        <v>132.0</v>
+      </c>
+      <c r="J135" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="K135" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L135" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M135" s="1">
+        <v>706.0</v>
+      </c>
+      <c r="N135" s="1">
+        <v>1067.0</v>
+      </c>
+      <c r="O135" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P135" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="Q135" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="13">
+        <v>44086.0</v>
+      </c>
+      <c r="B136" s="1">
+        <v>689465.0</v>
+      </c>
+      <c r="C136" s="1">
+        <v>114622.0</v>
+      </c>
+      <c r="D136" s="1">
+        <v>574668.0</v>
+      </c>
+      <c r="E136" s="1">
+        <v>175.0</v>
+      </c>
+      <c r="F136" s="1">
+        <v>1948.0</v>
+      </c>
+      <c r="G136" s="1">
+        <v>90394.0</v>
+      </c>
+      <c r="H136" s="1">
+        <v>604.0</v>
+      </c>
+      <c r="I136" s="1">
+        <v>132.0</v>
+      </c>
+      <c r="J136" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="K136" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L136" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M136" s="1">
+        <v>711.0</v>
+      </c>
+      <c r="N136" s="1">
+        <v>1073.0</v>
+      </c>
+      <c r="O136" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P136" s="14">
+        <v>116.0</v>
+      </c>
+      <c r="Q136" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -71,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -79,9 +79,6 @@
     </font>
     <font>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <name val="Arial"/>
     </font>
     <font/>
@@ -112,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -143,13 +140,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -7481,7 +7475,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="13">
+      <c r="A134" s="12">
         <v>44084.0</v>
       </c>
       <c r="B134" s="1">
@@ -7511,7 +7505,7 @@
       <c r="J134" s="1">
         <v>30.0</v>
       </c>
-      <c r="K134" s="14">
+      <c r="K134" s="1">
         <v>0.0</v>
       </c>
       <c r="L134" s="1">
@@ -7529,12 +7523,12 @@
       <c r="P134" s="1">
         <v>41.0</v>
       </c>
-      <c r="Q134" s="14">
+      <c r="Q134" s="1">
         <v>10.0</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="13">
+      <c r="A135" s="12">
         <v>44085.0</v>
       </c>
       <c r="B135" s="1">
@@ -7587,7 +7581,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="13">
+      <c r="A136" s="12">
         <v>44086.0</v>
       </c>
       <c r="B136" s="1">
@@ -7632,10 +7626,169 @@
       <c r="O136" s="1">
         <v>38.0</v>
       </c>
-      <c r="P136" s="14">
+      <c r="P136" s="1">
         <v>116.0</v>
       </c>
       <c r="Q136" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="10">
+        <v>44087.0</v>
+      </c>
+      <c r="B137" s="11">
+        <v>695025.0</v>
+      </c>
+      <c r="C137" s="11">
+        <v>115555.0</v>
+      </c>
+      <c r="D137" s="11">
+        <v>579310.0</v>
+      </c>
+      <c r="E137" s="11">
+        <v>160.0</v>
+      </c>
+      <c r="F137" s="11">
+        <v>1949.0</v>
+      </c>
+      <c r="G137" s="11">
+        <v>92025.0</v>
+      </c>
+      <c r="H137" s="11">
+        <v>613.0</v>
+      </c>
+      <c r="I137" s="11">
+        <v>125.0</v>
+      </c>
+      <c r="J137" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="K137" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L137" s="11">
+        <v>11.0</v>
+      </c>
+      <c r="M137" s="11">
+        <v>711.0</v>
+      </c>
+      <c r="N137" s="11">
+        <v>1074.0</v>
+      </c>
+      <c r="O137" s="11">
+        <v>38.0</v>
+      </c>
+      <c r="P137" s="11">
+        <v>116.0</v>
+      </c>
+      <c r="Q137" s="11">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2">
+        <v>44088.0</v>
+      </c>
+      <c r="B138" s="1">
+        <v>697585.0</v>
+      </c>
+      <c r="C138" s="1">
+        <v>115907.0</v>
+      </c>
+      <c r="D138" s="1">
+        <v>581518.0</v>
+      </c>
+      <c r="E138" s="1">
+        <v>160.0</v>
+      </c>
+      <c r="F138" s="1">
+        <v>1962.0</v>
+      </c>
+      <c r="G138" s="1">
+        <v>93501.0</v>
+      </c>
+      <c r="H138" s="1">
+        <v>592.0</v>
+      </c>
+      <c r="I138" s="1">
+        <v>121.0</v>
+      </c>
+      <c r="J138" s="1">
+        <v>68.0</v>
+      </c>
+      <c r="K138" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L138" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="M138" s="1">
+        <v>711.0</v>
+      </c>
+      <c r="N138" s="1">
+        <v>1087.0</v>
+      </c>
+      <c r="O138" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P138" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="Q138" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2">
+        <v>44089.0</v>
+      </c>
+      <c r="B139" s="1">
+        <v>702099.0</v>
+      </c>
+      <c r="C139" s="1">
+        <v>116796.0</v>
+      </c>
+      <c r="D139" s="1">
+        <v>585121.0</v>
+      </c>
+      <c r="E139" s="1">
+        <v>182.0</v>
+      </c>
+      <c r="F139" s="1">
+        <v>1970.0</v>
+      </c>
+      <c r="G139" s="1">
+        <v>95114.0</v>
+      </c>
+      <c r="H139" s="1">
+        <v>592.0</v>
+      </c>
+      <c r="I139" s="1">
+        <v>121.0</v>
+      </c>
+      <c r="J139" s="1">
+        <v>68.0</v>
+      </c>
+      <c r="K139" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L139" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="M139" s="1">
+        <v>716.0</v>
+      </c>
+      <c r="N139" s="1">
+        <v>1090.0</v>
+      </c>
+      <c r="O139" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P139" s="13">
+        <v>116.0</v>
+      </c>
+      <c r="Q139" s="13">
         <v>10.0</v>
       </c>
     </row>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -7792,6 +7792,59 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" s="2">
+        <v>44090.0</v>
+      </c>
+      <c r="B140" s="1">
+        <v>708776.0</v>
+      </c>
+      <c r="C140" s="1">
+        <v>117837.0</v>
+      </c>
+      <c r="D140" s="1">
+        <v>590767.0</v>
+      </c>
+      <c r="E140" s="1">
+        <v>172.0</v>
+      </c>
+      <c r="F140" s="1">
+        <v>1981.0</v>
+      </c>
+      <c r="G140" s="1">
+        <v>96732.0</v>
+      </c>
+      <c r="H140" s="1">
+        <v>555.0</v>
+      </c>
+      <c r="I140" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="J140" s="1">
+        <v>66.0</v>
+      </c>
+      <c r="K140" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L140" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="M140" s="1">
+        <v>723.0</v>
+      </c>
+      <c r="N140" s="1">
+        <v>1094.0</v>
+      </c>
+      <c r="O140" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P140" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="Q140" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -7845,6 +7845,59 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="141">
+      <c r="A141" s="2">
+        <v>44091.0</v>
+      </c>
+      <c r="B141" s="1">
+        <v>714395.0</v>
+      </c>
+      <c r="C141" s="1">
+        <v>118686.0</v>
+      </c>
+      <c r="D141" s="1">
+        <v>595496.0</v>
+      </c>
+      <c r="E141" s="1">
+        <v>213.0</v>
+      </c>
+      <c r="F141" s="1">
+        <v>1991.0</v>
+      </c>
+      <c r="G141" s="1">
+        <v>98175.0</v>
+      </c>
+      <c r="H141" s="1">
+        <v>536.0</v>
+      </c>
+      <c r="I141" s="1">
+        <v>94.0</v>
+      </c>
+      <c r="J141" s="1">
+        <v>68.0</v>
+      </c>
+      <c r="K141" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L141" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="M141" s="1">
+        <v>728.0</v>
+      </c>
+      <c r="N141" s="1">
+        <v>1099.0</v>
+      </c>
+      <c r="O141" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P141" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="Q141" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -7898,6 +7898,59 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" s="2">
+        <v>44092.0</v>
+      </c>
+      <c r="B142" s="1">
+        <v>720964.0</v>
+      </c>
+      <c r="C142" s="1">
+        <v>119514.0</v>
+      </c>
+      <c r="D142" s="1">
+        <v>600909.0</v>
+      </c>
+      <c r="E142" s="1">
+        <v>541.0</v>
+      </c>
+      <c r="F142" s="1">
+        <v>1999.0</v>
+      </c>
+      <c r="G142" s="1">
+        <v>99548.0</v>
+      </c>
+      <c r="H142" s="1">
+        <v>505.0</v>
+      </c>
+      <c r="I142" s="1">
+        <v>93.0</v>
+      </c>
+      <c r="J142" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="K142" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L142" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="M142" s="1">
+        <v>729.0</v>
+      </c>
+      <c r="N142" s="1">
+        <v>1106.0</v>
+      </c>
+      <c r="O142" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P142" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="Q142" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -7951,6 +7951,59 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" s="2">
+        <v>44093.0</v>
+      </c>
+      <c r="B143" s="1">
+        <v>726501.0</v>
+      </c>
+      <c r="C143" s="1">
+        <v>120265.0</v>
+      </c>
+      <c r="D143" s="1">
+        <v>605671.0</v>
+      </c>
+      <c r="E143" s="1">
+        <v>565.0</v>
+      </c>
+      <c r="F143" s="1">
+        <v>2005.0</v>
+      </c>
+      <c r="G143" s="1">
+        <v>99747.0</v>
+      </c>
+      <c r="H143" s="1">
+        <v>505.0</v>
+      </c>
+      <c r="I143" s="1">
+        <v>93.0</v>
+      </c>
+      <c r="J143" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="K143" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="L143" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="M143" s="1">
+        <v>729.0</v>
+      </c>
+      <c r="N143" s="1">
+        <v>1112.0</v>
+      </c>
+      <c r="O143" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P143" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="Q143" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -71,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -81,7 +81,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -109,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -142,9 +141,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7785,10 +7781,10 @@
       <c r="O139" s="1">
         <v>38.0</v>
       </c>
-      <c r="P139" s="13">
+      <c r="P139" s="1">
         <v>116.0</v>
       </c>
-      <c r="Q139" s="13">
+      <c r="Q139" s="1">
         <v>10.0</v>
       </c>
     </row>
@@ -7982,7 +7978,7 @@
       <c r="J143" s="1">
         <v>24.0</v>
       </c>
-      <c r="K143" s="13">
+      <c r="K143" s="1">
         <v>0.0</v>
       </c>
       <c r="L143" s="1">
@@ -8001,6 +7997,59 @@
         <v>116.0</v>
       </c>
       <c r="Q143" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2">
+        <v>44094.0</v>
+      </c>
+      <c r="B144" s="1">
+        <v>731321.0</v>
+      </c>
+      <c r="C144" s="1">
+        <v>120998.0</v>
+      </c>
+      <c r="D144" s="1">
+        <v>609776.0</v>
+      </c>
+      <c r="E144" s="1">
+        <v>547.0</v>
+      </c>
+      <c r="F144" s="1">
+        <v>2014.0</v>
+      </c>
+      <c r="G144" s="1">
+        <v>101347.0</v>
+      </c>
+      <c r="H144" s="1">
+        <v>504.0</v>
+      </c>
+      <c r="I144" s="1">
+        <v>94.0</v>
+      </c>
+      <c r="J144" s="1">
+        <v>67.0</v>
+      </c>
+      <c r="K144" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L144" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="M144" s="1">
+        <v>737.0</v>
+      </c>
+      <c r="N144" s="1">
+        <v>1113.0</v>
+      </c>
+      <c r="O144" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P144" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="Q144" s="1">
         <v>10.0</v>
       </c>
     </row>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -71,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -81,6 +81,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -108,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -141,6 +142,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8053,6 +8057,59 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="145">
+      <c r="A145" s="2">
+        <v>44095.0</v>
+      </c>
+      <c r="B145" s="1">
+        <v>733702.0</v>
+      </c>
+      <c r="C145" s="1">
+        <v>121222.0</v>
+      </c>
+      <c r="D145" s="13">
+        <v>611933.0</v>
+      </c>
+      <c r="E145" s="1">
+        <v>547.0</v>
+      </c>
+      <c r="F145" s="1">
+        <v>2021.0</v>
+      </c>
+      <c r="G145" s="1">
+        <v>102817.0</v>
+      </c>
+      <c r="H145" s="1">
+        <v>476.0</v>
+      </c>
+      <c r="I145" s="1">
+        <v>103.0</v>
+      </c>
+      <c r="J145" s="1">
+        <v>67.0</v>
+      </c>
+      <c r="K145" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L145" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M145" s="1">
+        <v>741.0</v>
+      </c>
+      <c r="N145" s="1">
+        <v>1116.0</v>
+      </c>
+      <c r="O145" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P145" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="Q145" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -109,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -144,6 +144,9 @@
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -8110,6 +8113,62 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" s="2">
+        <v>44096.0</v>
+      </c>
+      <c r="B146" s="1">
+        <v>738280.0</v>
+      </c>
+      <c r="C146" s="1">
+        <v>121889.0</v>
+      </c>
+      <c r="D146" s="1">
+        <v>615416.0</v>
+      </c>
+      <c r="E146" s="1">
+        <v>975.0</v>
+      </c>
+      <c r="F146" s="1">
+        <v>2028.0</v>
+      </c>
+      <c r="G146" s="1">
+        <v>104102.0</v>
+      </c>
+      <c r="H146" s="1">
+        <v>491.0</v>
+      </c>
+      <c r="I146" s="1">
+        <v>95.0</v>
+      </c>
+      <c r="J146" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="K146" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L146" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M146" s="1">
+        <v>747.0</v>
+      </c>
+      <c r="N146" s="1">
+        <v>1117.0</v>
+      </c>
+      <c r="O146" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P146" s="13">
+        <v>116.0</v>
+      </c>
+      <c r="Q146" s="13">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="14"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -8167,7 +8167,57 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="14"/>
+      <c r="A147" s="14">
+        <v>44097.0</v>
+      </c>
+      <c r="B147" s="1">
+        <v>744134.0</v>
+      </c>
+      <c r="C147" s="1">
+        <v>122713.0</v>
+      </c>
+      <c r="D147" s="1">
+        <v>620215.0</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1206.0</v>
+      </c>
+      <c r="F147" s="1">
+        <v>2033.0</v>
+      </c>
+      <c r="G147" s="1">
+        <v>105412.0</v>
+      </c>
+      <c r="H147" s="1">
+        <v>491.0</v>
+      </c>
+      <c r="I147" s="1">
+        <v>95.0</v>
+      </c>
+      <c r="J147" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="K147" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L147" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M147" s="1">
+        <v>747.0</v>
+      </c>
+      <c r="N147" s="1">
+        <v>1122.0</v>
+      </c>
+      <c r="O147" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P147" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="Q147" s="1">
+        <v>10.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -8219,6 +8219,59 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" s="2">
+        <v>44098.0</v>
+      </c>
+      <c r="B148" s="1">
+        <v>750748.0</v>
+      </c>
+      <c r="C148" s="1">
+        <v>123375.0</v>
+      </c>
+      <c r="D148" s="1">
+        <v>625272.0</v>
+      </c>
+      <c r="E148" s="1">
+        <v>2101.0</v>
+      </c>
+      <c r="F148" s="1">
+        <v>2037.0</v>
+      </c>
+      <c r="G148" s="1">
+        <v>106655.0</v>
+      </c>
+      <c r="H148" s="1">
+        <v>422.0</v>
+      </c>
+      <c r="I148" s="1">
+        <v>79.0</v>
+      </c>
+      <c r="J148" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="K148" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="L148" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="M148" s="1">
+        <v>750.0</v>
+      </c>
+      <c r="N148" s="1">
+        <v>1123.0</v>
+      </c>
+      <c r="O148" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P148" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="Q148" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -8272,6 +8272,59 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="149">
+      <c r="A149" s="2">
+        <v>44099.0</v>
+      </c>
+      <c r="B149" s="1">
+        <v>757181.0</v>
+      </c>
+      <c r="C149" s="1">
+        <v>124282.0</v>
+      </c>
+      <c r="D149" s="1">
+        <v>630839.0</v>
+      </c>
+      <c r="E149" s="1">
+        <v>2060.0</v>
+      </c>
+      <c r="F149" s="1">
+        <v>2040.0</v>
+      </c>
+      <c r="G149" s="13">
+        <v>107707.0</v>
+      </c>
+      <c r="H149" s="1">
+        <v>436.0</v>
+      </c>
+      <c r="I149" s="1">
+        <v>86.0</v>
+      </c>
+      <c r="J149" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="K149" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L149" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M149" s="1">
+        <v>752.0</v>
+      </c>
+      <c r="N149" s="1">
+        <v>1124.0</v>
+      </c>
+      <c r="O149" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P149" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="Q149" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -71,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -81,7 +81,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -109,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -142,12 +141,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8070,7 +8063,7 @@
       <c r="C145" s="1">
         <v>121222.0</v>
       </c>
-      <c r="D145" s="13">
+      <c r="D145" s="1">
         <v>611933.0</v>
       </c>
       <c r="E145" s="1">
@@ -8159,15 +8152,15 @@
       <c r="O146" s="1">
         <v>38.0</v>
       </c>
-      <c r="P146" s="13">
+      <c r="P146" s="1">
         <v>116.0</v>
       </c>
-      <c r="Q146" s="13">
+      <c r="Q146" s="1">
         <v>10.0</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="14">
+      <c r="A147" s="2">
         <v>44097.0</v>
       </c>
       <c r="B147" s="1">
@@ -8250,7 +8243,7 @@
       <c r="J148" s="1">
         <v>56.0</v>
       </c>
-      <c r="K148" s="13">
+      <c r="K148" s="1">
         <v>0.0</v>
       </c>
       <c r="L148" s="1">
@@ -8291,7 +8284,7 @@
       <c r="F149" s="1">
         <v>2040.0</v>
       </c>
-      <c r="G149" s="13">
+      <c r="G149" s="1">
         <v>107707.0</v>
       </c>
       <c r="H149" s="1">
@@ -8322,6 +8315,112 @@
         <v>116.0</v>
       </c>
       <c r="Q149" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2">
+        <v>44100.0</v>
+      </c>
+      <c r="B150" s="1">
+        <v>763290.0</v>
+      </c>
+      <c r="C150" s="1">
+        <v>125203.0</v>
+      </c>
+      <c r="D150" s="1">
+        <v>635911.0</v>
+      </c>
+      <c r="E150" s="1">
+        <v>2176.0</v>
+      </c>
+      <c r="F150" s="1">
+        <v>2049.0</v>
+      </c>
+      <c r="G150" s="1">
+        <v>107929.0</v>
+      </c>
+      <c r="H150" s="1">
+        <v>436.0</v>
+      </c>
+      <c r="I150" s="1">
+        <v>86.0</v>
+      </c>
+      <c r="J150" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="K150" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L150" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M150" s="1">
+        <v>758.0</v>
+      </c>
+      <c r="N150" s="1">
+        <v>1127.0</v>
+      </c>
+      <c r="O150" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P150" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="Q150" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2">
+        <v>44101.0</v>
+      </c>
+      <c r="B151" s="1">
+        <v>768834.0</v>
+      </c>
+      <c r="C151" s="1">
+        <v>126000.0</v>
+      </c>
+      <c r="D151" s="1">
+        <v>640449.0</v>
+      </c>
+      <c r="E151" s="1">
+        <v>2385.0</v>
+      </c>
+      <c r="F151" s="1">
+        <v>2052.0</v>
+      </c>
+      <c r="G151" s="1">
+        <v>109216.0</v>
+      </c>
+      <c r="H151" s="1">
+        <v>460.0</v>
+      </c>
+      <c r="I151" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="J151" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="K151" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L151" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="M151" s="1">
+        <v>761.0</v>
+      </c>
+      <c r="N151" s="1">
+        <v>1127.0</v>
+      </c>
+      <c r="O151" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P151" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="Q151" s="1">
         <v>10.0</v>
       </c>
     </row>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -8424,6 +8424,59 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" s="2">
+        <v>44102.0</v>
+      </c>
+      <c r="B152" s="1">
+        <v>771420.0</v>
+      </c>
+      <c r="C152" s="1">
+        <v>126480.0</v>
+      </c>
+      <c r="D152" s="1">
+        <v>642555.0</v>
+      </c>
+      <c r="E152" s="1">
+        <v>2385.0</v>
+      </c>
+      <c r="F152" s="1">
+        <v>2055.0</v>
+      </c>
+      <c r="G152" s="1">
+        <v>110584.0</v>
+      </c>
+      <c r="H152" s="1">
+        <v>428.0</v>
+      </c>
+      <c r="I152" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="J152" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="K152" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L152" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="M152" s="1">
+        <v>761.0</v>
+      </c>
+      <c r="N152" s="1">
+        <v>1130.0</v>
+      </c>
+      <c r="O152" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P152" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="Q152" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -71,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -81,6 +81,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -108,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -141,6 +142,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8477,6 +8481,112 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="153">
+      <c r="A153" s="2">
+        <v>44103.0</v>
+      </c>
+      <c r="B153" s="1">
+        <v>775193.0</v>
+      </c>
+      <c r="C153" s="1">
+        <v>127018.0</v>
+      </c>
+      <c r="D153" s="1">
+        <v>645999.0</v>
+      </c>
+      <c r="E153" s="1">
+        <v>2176.0</v>
+      </c>
+      <c r="F153" s="1">
+        <v>2067.0</v>
+      </c>
+      <c r="G153" s="1">
+        <v>111717.0</v>
+      </c>
+      <c r="H153" s="1">
+        <v>459.0</v>
+      </c>
+      <c r="I153" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="J153" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="K153" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L153" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="M153" s="1">
+        <v>771.0</v>
+      </c>
+      <c r="N153" s="1">
+        <v>1132.0</v>
+      </c>
+      <c r="O153" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P153" s="13">
+        <v>116.0</v>
+      </c>
+      <c r="Q153" s="13">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2">
+        <v>44104.0</v>
+      </c>
+      <c r="B154" s="1">
+        <v>779877.0</v>
+      </c>
+      <c r="C154" s="1">
+        <v>127505.0</v>
+      </c>
+      <c r="D154" s="1">
+        <v>650539.0</v>
+      </c>
+      <c r="E154" s="1">
+        <v>1833.0</v>
+      </c>
+      <c r="F154" s="1">
+        <v>2069.0</v>
+      </c>
+      <c r="G154" s="1">
+        <v>112775.0</v>
+      </c>
+      <c r="H154" s="1">
+        <v>383.0</v>
+      </c>
+      <c r="I154" s="1">
+        <v>68.0</v>
+      </c>
+      <c r="J154" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="K154" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L154" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M154" s="13">
+        <v>772.0</v>
+      </c>
+      <c r="N154" s="1">
+        <v>1133.0</v>
+      </c>
+      <c r="O154" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P154" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="Q154" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -71,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -81,7 +81,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -109,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -142,9 +141,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8527,10 +8523,10 @@
       <c r="O153" s="1">
         <v>38.0</v>
       </c>
-      <c r="P153" s="13">
+      <c r="P153" s="1">
         <v>116.0</v>
       </c>
-      <c r="Q153" s="13">
+      <c r="Q153" s="1">
         <v>10.0</v>
       </c>
     </row>
@@ -8571,7 +8567,7 @@
       <c r="L154" s="1">
         <v>10.0</v>
       </c>
-      <c r="M154" s="13">
+      <c r="M154" s="1">
         <v>772.0</v>
       </c>
       <c r="N154" s="1">
@@ -8584,6 +8580,59 @@
         <v>116.0</v>
       </c>
       <c r="Q154" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2">
+        <v>44105.0</v>
+      </c>
+      <c r="B155" s="1">
+        <v>785318.0</v>
+      </c>
+      <c r="C155" s="1">
+        <v>128090.0</v>
+      </c>
+      <c r="D155" s="1">
+        <v>654848.0</v>
+      </c>
+      <c r="E155" s="1">
+        <v>2380.0</v>
+      </c>
+      <c r="F155" s="1">
+        <v>2073.0</v>
+      </c>
+      <c r="G155" s="1">
+        <v>113670.0</v>
+      </c>
+      <c r="H155" s="1">
+        <v>370.0</v>
+      </c>
+      <c r="I155" s="1">
+        <v>71.0</v>
+      </c>
+      <c r="J155" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="K155" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L155" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M155" s="1">
+        <v>775.0</v>
+      </c>
+      <c r="N155" s="1">
+        <v>1134.0</v>
+      </c>
+      <c r="O155" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P155" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="Q155" s="1">
         <v>10.0</v>
       </c>
     </row>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -8636,6 +8636,59 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="156">
+      <c r="A156" s="2">
+        <v>44106.0</v>
+      </c>
+      <c r="B156" s="1">
+        <v>790022.0</v>
+      </c>
+      <c r="C156" s="1">
+        <v>128566.0</v>
+      </c>
+      <c r="D156" s="1">
+        <v>659005.0</v>
+      </c>
+      <c r="E156" s="1">
+        <v>2451.0</v>
+      </c>
+      <c r="F156" s="1">
+        <v>2079.0</v>
+      </c>
+      <c r="G156" s="1">
+        <v>114423.0</v>
+      </c>
+      <c r="H156" s="1">
+        <v>361.0</v>
+      </c>
+      <c r="I156" s="1">
+        <v>66.0</v>
+      </c>
+      <c r="J156" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="K156" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L156" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="M156" s="1">
+        <v>777.0</v>
+      </c>
+      <c r="N156" s="1">
+        <v>1138.0</v>
+      </c>
+      <c r="O156" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P156" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="Q156" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -71,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -81,6 +81,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -108,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -141,6 +142,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8689,6 +8693,112 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" s="2">
+        <v>44107.0</v>
+      </c>
+      <c r="B157" s="1">
+        <v>795087.0</v>
+      </c>
+      <c r="C157" s="1">
+        <v>129047.0</v>
+      </c>
+      <c r="D157" s="1">
+        <v>663241.0</v>
+      </c>
+      <c r="E157" s="1">
+        <v>2799.0</v>
+      </c>
+      <c r="F157" s="1">
+        <v>2081.0</v>
+      </c>
+      <c r="G157" s="1">
+        <v>114558.0</v>
+      </c>
+      <c r="H157" s="1">
+        <v>361.0</v>
+      </c>
+      <c r="I157" s="1">
+        <v>66.0</v>
+      </c>
+      <c r="J157" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="K157" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L157" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="M157" s="1">
+        <v>778.0</v>
+      </c>
+      <c r="N157" s="1">
+        <v>1139.0</v>
+      </c>
+      <c r="O157" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P157" s="13">
+        <v>116.0</v>
+      </c>
+      <c r="Q157" s="13">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2">
+        <v>44108.0</v>
+      </c>
+      <c r="B158" s="1">
+        <v>798979.0</v>
+      </c>
+      <c r="C158" s="1">
+        <v>129473.0</v>
+      </c>
+      <c r="D158" s="1">
+        <v>667034.0</v>
+      </c>
+      <c r="E158" s="13">
+        <v>2472.0</v>
+      </c>
+      <c r="F158" s="1">
+        <v>2084.0</v>
+      </c>
+      <c r="G158" s="1">
+        <v>115741.0</v>
+      </c>
+      <c r="H158" s="1">
+        <v>353.0</v>
+      </c>
+      <c r="I158" s="1">
+        <v>76.0</v>
+      </c>
+      <c r="J158" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="K158" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L158" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M158" s="1">
+        <v>779.0</v>
+      </c>
+      <c r="N158" s="1">
+        <v>1141.0</v>
+      </c>
+      <c r="O158" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P158" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="Q158" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -8799,6 +8799,59 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="159">
+      <c r="A159" s="2">
+        <v>44109.0</v>
+      </c>
+      <c r="B159" s="1">
+        <v>801626.0</v>
+      </c>
+      <c r="C159" s="1">
+        <v>129637.0</v>
+      </c>
+      <c r="D159" s="1">
+        <v>669517.0</v>
+      </c>
+      <c r="E159" s="1">
+        <v>2472.0</v>
+      </c>
+      <c r="F159" s="1">
+        <v>2087.0</v>
+      </c>
+      <c r="G159" s="1">
+        <v>116564.0</v>
+      </c>
+      <c r="H159" s="1">
+        <v>324.0</v>
+      </c>
+      <c r="I159" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="J159" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="K159" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L159" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M159" s="1">
+        <v>780.0</v>
+      </c>
+      <c r="N159" s="1">
+        <v>1143.0</v>
+      </c>
+      <c r="O159" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P159" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="Q159" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -71,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -81,7 +81,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -109,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -142,9 +141,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8739,10 +8735,10 @@
       <c r="O157" s="1">
         <v>38.0</v>
       </c>
-      <c r="P157" s="13">
+      <c r="P157" s="1">
         <v>116.0</v>
       </c>
-      <c r="Q157" s="13">
+      <c r="Q157" s="1">
         <v>10.0</v>
       </c>
     </row>
@@ -8759,7 +8755,7 @@
       <c r="D158" s="1">
         <v>667034.0</v>
       </c>
-      <c r="E158" s="13">
+      <c r="E158" s="1">
         <v>2472.0</v>
       </c>
       <c r="F158" s="1">
@@ -8849,6 +8845,59 @@
         <v>116.0</v>
       </c>
       <c r="Q159" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2">
+        <v>44110.0</v>
+      </c>
+      <c r="B160" s="1">
+        <v>805516.0</v>
+      </c>
+      <c r="C160" s="1">
+        <v>130040.0</v>
+      </c>
+      <c r="D160" s="1">
+        <v>673664.0</v>
+      </c>
+      <c r="E160" s="1">
+        <v>1812.0</v>
+      </c>
+      <c r="F160" s="1">
+        <v>2092.0</v>
+      </c>
+      <c r="G160" s="1">
+        <v>117586.0</v>
+      </c>
+      <c r="H160" s="1">
+        <v>292.0</v>
+      </c>
+      <c r="I160" s="1">
+        <v>87.0</v>
+      </c>
+      <c r="J160" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="K160" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L160" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="M160" s="1">
+        <v>784.0</v>
+      </c>
+      <c r="N160" s="1">
+        <v>1144.0</v>
+      </c>
+      <c r="O160" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P160" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="Q160" s="1">
         <v>10.0</v>
       </c>
     </row>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -71,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -81,6 +81,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -108,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -141,6 +142,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8901,6 +8905,59 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="161">
+      <c r="A161" s="2">
+        <v>44111.0</v>
+      </c>
+      <c r="B161" s="1">
+        <v>810095.0</v>
+      </c>
+      <c r="C161" s="1">
+        <v>130523.0</v>
+      </c>
+      <c r="D161" s="1">
+        <v>677563.0</v>
+      </c>
+      <c r="E161" s="13">
+        <v>2009.0</v>
+      </c>
+      <c r="F161" s="1">
+        <v>2099.0</v>
+      </c>
+      <c r="G161" s="1">
+        <v>118376.0</v>
+      </c>
+      <c r="H161" s="1">
+        <v>294.0</v>
+      </c>
+      <c r="I161" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="J161" s="13">
+        <v>59.0</v>
+      </c>
+      <c r="K161" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L161" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M161" s="1">
+        <v>787.0</v>
+      </c>
+      <c r="N161" s="1">
+        <v>1148.0</v>
+      </c>
+      <c r="O161" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P161" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="Q161" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -8958,6 +8958,218 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="162">
+      <c r="A162" s="2">
+        <v>44112.0</v>
+      </c>
+      <c r="B162" s="1">
+        <v>814408.0</v>
+      </c>
+      <c r="C162" s="13">
+        <v>130890.0</v>
+      </c>
+      <c r="D162" s="1">
+        <v>681443.0</v>
+      </c>
+      <c r="E162" s="1">
+        <v>2075.0</v>
+      </c>
+      <c r="F162" s="1">
+        <v>2100.0</v>
+      </c>
+      <c r="G162" s="1">
+        <v>119102.0</v>
+      </c>
+      <c r="H162" s="1">
+        <v>261.0</v>
+      </c>
+      <c r="I162" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="J162" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="K162" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L162" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M162" s="1">
+        <v>787.0</v>
+      </c>
+      <c r="N162" s="1">
+        <v>1149.0</v>
+      </c>
+      <c r="O162" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P162" s="1">
+        <v>115.0</v>
+      </c>
+      <c r="Q162" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="10">
+        <v>44113.0</v>
+      </c>
+      <c r="B163" s="11">
+        <v>819681.0</v>
+      </c>
+      <c r="C163" s="11">
+        <v>131368.0</v>
+      </c>
+      <c r="D163" s="11">
+        <v>686700.0</v>
+      </c>
+      <c r="E163" s="11">
+        <v>1613.0</v>
+      </c>
+      <c r="F163" s="11">
+        <v>2104.0</v>
+      </c>
+      <c r="G163" s="11">
+        <v>119764.0</v>
+      </c>
+      <c r="H163" s="11">
+        <v>261.0</v>
+      </c>
+      <c r="I163" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="J163" s="11">
+        <v>59.0</v>
+      </c>
+      <c r="K163" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L163" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="M163" s="11">
+        <v>789.0</v>
+      </c>
+      <c r="N163" s="11">
+        <v>1151.0</v>
+      </c>
+      <c r="O163" s="11">
+        <v>38.0</v>
+      </c>
+      <c r="P163" s="11">
+        <v>116.0</v>
+      </c>
+      <c r="Q163" s="11">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="10">
+        <v>44114.0</v>
+      </c>
+      <c r="B164" s="11">
+        <v>824212.0</v>
+      </c>
+      <c r="C164" s="11">
+        <v>131787.0</v>
+      </c>
+      <c r="D164" s="11">
+        <v>690762.0</v>
+      </c>
+      <c r="E164" s="11">
+        <v>1663.0</v>
+      </c>
+      <c r="F164" s="11">
+        <v>2149.0</v>
+      </c>
+      <c r="G164" s="11">
+        <v>119843.0</v>
+      </c>
+      <c r="H164" s="11">
+        <v>268.0</v>
+      </c>
+      <c r="I164" s="11">
+        <v>61.0</v>
+      </c>
+      <c r="J164" s="11">
+        <v>59.0</v>
+      </c>
+      <c r="K164" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L164" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="M164" s="11">
+        <v>813.0</v>
+      </c>
+      <c r="N164" s="11">
+        <v>1165.0</v>
+      </c>
+      <c r="O164" s="11">
+        <v>38.0</v>
+      </c>
+      <c r="P164" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q164" s="11">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="10">
+        <v>44115.0</v>
+      </c>
+      <c r="B165" s="11">
+        <v>826988.0</v>
+      </c>
+      <c r="C165" s="11">
+        <v>132053.0</v>
+      </c>
+      <c r="D165" s="11">
+        <v>693353.0</v>
+      </c>
+      <c r="E165" s="11">
+        <v>1582.0</v>
+      </c>
+      <c r="F165" s="11">
+        <v>2154.0</v>
+      </c>
+      <c r="G165" s="11">
+        <v>120680.0</v>
+      </c>
+      <c r="H165" s="11">
+        <v>266.0</v>
+      </c>
+      <c r="I165" s="11">
+        <v>67.0</v>
+      </c>
+      <c r="J165" s="11">
+        <v>58.0</v>
+      </c>
+      <c r="K165" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L165" s="11">
+        <v>9.0</v>
+      </c>
+      <c r="M165" s="11">
+        <v>816.0</v>
+      </c>
+      <c r="N165" s="11">
+        <v>1167.0</v>
+      </c>
+      <c r="O165" s="11">
+        <v>38.0</v>
+      </c>
+      <c r="P165" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q165" s="11">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -8918,7 +8918,7 @@
       <c r="D161" s="1">
         <v>677563.0</v>
       </c>
-      <c r="E161" s="13">
+      <c r="E161" s="1">
         <v>2009.0</v>
       </c>
       <c r="F161" s="1">
@@ -8933,7 +8933,7 @@
       <c r="I161" s="1">
         <v>59.0</v>
       </c>
-      <c r="J161" s="13">
+      <c r="J161" s="1">
         <v>59.0</v>
       </c>
       <c r="K161" s="1">
@@ -8965,7 +8965,7 @@
       <c r="B162" s="1">
         <v>814408.0</v>
       </c>
-      <c r="C162" s="13">
+      <c r="C162" s="1">
         <v>130890.0</v>
       </c>
       <c r="D162" s="1">
@@ -9167,6 +9167,218 @@
         <v>123.0</v>
       </c>
       <c r="Q165" s="11">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="10">
+        <v>44116.0</v>
+      </c>
+      <c r="B166" s="1">
+        <v>828457.0</v>
+      </c>
+      <c r="C166" s="1">
+        <v>132154.0</v>
+      </c>
+      <c r="D166" s="1">
+        <v>694721.0</v>
+      </c>
+      <c r="E166" s="1">
+        <v>1582.0</v>
+      </c>
+      <c r="F166" s="1">
+        <v>2158.0</v>
+      </c>
+      <c r="G166" s="1">
+        <v>121391.0</v>
+      </c>
+      <c r="H166" s="1">
+        <v>266.0</v>
+      </c>
+      <c r="I166" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="J166" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="K166" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L166" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="M166" s="1">
+        <v>817.0</v>
+      </c>
+      <c r="N166" s="1">
+        <v>1170.0</v>
+      </c>
+      <c r="O166" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P166" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="Q166" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="10">
+        <v>44117.0</v>
+      </c>
+      <c r="B167" s="1">
+        <v>831368.0</v>
+      </c>
+      <c r="C167" s="1">
+        <v>132417.0</v>
+      </c>
+      <c r="D167" s="1">
+        <v>697083.0</v>
+      </c>
+      <c r="E167" s="1">
+        <v>1868.0</v>
+      </c>
+      <c r="F167" s="1">
+        <v>2159.0</v>
+      </c>
+      <c r="G167" s="1">
+        <v>122007.0</v>
+      </c>
+      <c r="H167" s="1">
+        <v>246.0</v>
+      </c>
+      <c r="I167" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="J167" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="K167" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L167" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="M167" s="1">
+        <v>818.0</v>
+      </c>
+      <c r="N167" s="1">
+        <v>1170.0</v>
+      </c>
+      <c r="O167" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P167" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="Q167" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="10">
+        <v>44118.0</v>
+      </c>
+      <c r="B168" s="13">
+        <v>834358.0</v>
+      </c>
+      <c r="C168" s="1">
+        <v>132754.0</v>
+      </c>
+      <c r="D168" s="1">
+        <v>700242.0</v>
+      </c>
+      <c r="E168" s="1">
+        <v>1362.0</v>
+      </c>
+      <c r="F168" s="1">
+        <v>2161.0</v>
+      </c>
+      <c r="G168" s="1">
+        <v>122974.0</v>
+      </c>
+      <c r="H168" s="1">
+        <v>240.0</v>
+      </c>
+      <c r="I168" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="J168" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="K168" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L168" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="M168" s="1">
+        <v>818.0</v>
+      </c>
+      <c r="N168" s="1">
+        <v>1172.0</v>
+      </c>
+      <c r="O168" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P168" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="Q168" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="10">
+        <v>44119.0</v>
+      </c>
+      <c r="B169" s="1">
+        <v>836958.0</v>
+      </c>
+      <c r="C169" s="1">
+        <v>132964.0</v>
+      </c>
+      <c r="D169" s="1">
+        <v>702645.0</v>
+      </c>
+      <c r="E169" s="1">
+        <v>1349.0</v>
+      </c>
+      <c r="F169" s="1">
+        <v>2168.0</v>
+      </c>
+      <c r="G169" s="1">
+        <v>123918.0</v>
+      </c>
+      <c r="H169" s="1">
+        <v>240.0</v>
+      </c>
+      <c r="I169" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="J169" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="K169" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L169" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="M169" s="1">
+        <v>822.0</v>
+      </c>
+      <c r="N169" s="1">
+        <v>1175.0</v>
+      </c>
+      <c r="O169" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P169" s="13">
+        <v>123.0</v>
+      </c>
+      <c r="Q169" s="13">
         <v>10.0</v>
       </c>
     </row>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -9382,6 +9382,112 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="170">
+      <c r="A170" s="10">
+        <v>44120.0</v>
+      </c>
+      <c r="B170" s="1">
+        <v>840316.0</v>
+      </c>
+      <c r="C170" s="1">
+        <v>133219.0</v>
+      </c>
+      <c r="D170" s="1">
+        <v>706516.0</v>
+      </c>
+      <c r="E170" s="1">
+        <v>581.0</v>
+      </c>
+      <c r="F170" s="1">
+        <v>2172.0</v>
+      </c>
+      <c r="G170" s="1">
+        <v>124860.0</v>
+      </c>
+      <c r="H170" s="1">
+        <v>249.0</v>
+      </c>
+      <c r="I170" s="1">
+        <v>66.0</v>
+      </c>
+      <c r="J170" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="K170" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L170" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M170" s="1">
+        <v>825.0</v>
+      </c>
+      <c r="N170" s="1">
+        <v>1176.0</v>
+      </c>
+      <c r="O170" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P170" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="Q170" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="10">
+        <v>44121.0</v>
+      </c>
+      <c r="B171" s="1">
+        <v>844745.0</v>
+      </c>
+      <c r="C171" s="1">
+        <v>133548.0</v>
+      </c>
+      <c r="D171" s="1">
+        <v>710327.0</v>
+      </c>
+      <c r="E171" s="1">
+        <v>870.0</v>
+      </c>
+      <c r="F171" s="1">
+        <v>2173.0</v>
+      </c>
+      <c r="G171" s="1">
+        <v>125052.0</v>
+      </c>
+      <c r="H171" s="1">
+        <v>229.0</v>
+      </c>
+      <c r="I171" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="J171" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="K171" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L171" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M171" s="1">
+        <v>826.0</v>
+      </c>
+      <c r="N171" s="1">
+        <v>1176.0</v>
+      </c>
+      <c r="O171" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P171" s="13">
+        <v>123.0</v>
+      </c>
+      <c r="Q171" s="13">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -71,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -81,7 +81,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -109,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -142,9 +141,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9280,7 +9276,7 @@
       <c r="A168" s="10">
         <v>44118.0</v>
       </c>
-      <c r="B168" s="13">
+      <c r="B168" s="1">
         <v>834358.0</v>
       </c>
       <c r="C168" s="1">
@@ -9375,10 +9371,10 @@
       <c r="O169" s="1">
         <v>38.0</v>
       </c>
-      <c r="P169" s="13">
+      <c r="P169" s="1">
         <v>123.0</v>
       </c>
-      <c r="Q169" s="13">
+      <c r="Q169" s="1">
         <v>10.0</v>
       </c>
     </row>
@@ -9481,10 +9477,222 @@
       <c r="O171" s="1">
         <v>38.0</v>
       </c>
-      <c r="P171" s="13">
+      <c r="P171" s="1">
         <v>123.0</v>
       </c>
-      <c r="Q171" s="13">
+      <c r="Q171" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="10">
+        <v>44122.0</v>
+      </c>
+      <c r="B172" s="11">
+        <v>847926.0</v>
+      </c>
+      <c r="C172" s="11">
+        <v>133841.0</v>
+      </c>
+      <c r="D172" s="11">
+        <v>713802.0</v>
+      </c>
+      <c r="E172" s="11">
+        <v>283.0</v>
+      </c>
+      <c r="F172" s="11">
+        <v>2175.0</v>
+      </c>
+      <c r="G172" s="11">
+        <v>125601.0</v>
+      </c>
+      <c r="H172" s="11">
+        <v>232.0</v>
+      </c>
+      <c r="I172" s="11">
+        <v>76.0</v>
+      </c>
+      <c r="J172" s="11">
+        <v>46.0</v>
+      </c>
+      <c r="K172" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L172" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="M172" s="11">
+        <v>828.0</v>
+      </c>
+      <c r="N172" s="11">
+        <v>1176.0</v>
+      </c>
+      <c r="O172" s="11">
+        <v>38.0</v>
+      </c>
+      <c r="P172" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q172" s="11">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="10">
+        <v>44123.0</v>
+      </c>
+      <c r="B173" s="11">
+        <v>849137.0</v>
+      </c>
+      <c r="C173" s="11">
+        <v>133932.0</v>
+      </c>
+      <c r="D173" s="11">
+        <v>715008.0</v>
+      </c>
+      <c r="E173" s="11">
+        <v>197.0</v>
+      </c>
+      <c r="F173" s="11">
+        <v>2178.0</v>
+      </c>
+      <c r="G173" s="11">
+        <v>126075.0</v>
+      </c>
+      <c r="H173" s="11">
+        <v>221.0</v>
+      </c>
+      <c r="I173" s="11">
+        <v>70.0</v>
+      </c>
+      <c r="J173" s="11">
+        <v>47.0</v>
+      </c>
+      <c r="K173" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L173" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="M173" s="11">
+        <v>830.0</v>
+      </c>
+      <c r="N173" s="11">
+        <v>1177.0</v>
+      </c>
+      <c r="O173" s="11">
+        <v>38.0</v>
+      </c>
+      <c r="P173" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q173" s="11">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="10">
+        <v>44124.0</v>
+      </c>
+      <c r="B174" s="11">
+        <v>852760.0</v>
+      </c>
+      <c r="C174" s="11">
+        <v>134324.0</v>
+      </c>
+      <c r="D174" s="11">
+        <v>718241.0</v>
+      </c>
+      <c r="E174" s="11">
+        <v>195.0</v>
+      </c>
+      <c r="F174" s="11">
+        <v>2180.0</v>
+      </c>
+      <c r="G174" s="11">
+        <v>126734.0</v>
+      </c>
+      <c r="H174" s="11">
+        <v>221.0</v>
+      </c>
+      <c r="I174" s="11">
+        <v>86.0</v>
+      </c>
+      <c r="J174" s="11">
+        <v>47.0</v>
+      </c>
+      <c r="K174" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L174" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="M174" s="11">
+        <v>832.0</v>
+      </c>
+      <c r="N174" s="11">
+        <v>1177.0</v>
+      </c>
+      <c r="O174" s="11">
+        <v>38.0</v>
+      </c>
+      <c r="P174" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q174" s="11">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="10">
+        <v>44125.0</v>
+      </c>
+      <c r="B175" s="1">
+        <v>856670.0</v>
+      </c>
+      <c r="C175" s="1">
+        <v>134588.0</v>
+      </c>
+      <c r="D175" s="1">
+        <v>721954.0</v>
+      </c>
+      <c r="E175" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="F175" s="1">
+        <v>2184.0</v>
+      </c>
+      <c r="G175" s="1">
+        <v>127120.0</v>
+      </c>
+      <c r="H175" s="1">
+        <v>226.0</v>
+      </c>
+      <c r="I175" s="1">
+        <v>86.0</v>
+      </c>
+      <c r="J175" s="1">
+        <v>47.0</v>
+      </c>
+      <c r="K175" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L175" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M175" s="1">
+        <v>834.0</v>
+      </c>
+      <c r="N175" s="1">
+        <v>1179.0</v>
+      </c>
+      <c r="O175" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P175" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="Q175" s="1">
         <v>10.0</v>
       </c>
     </row>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -9696,6 +9696,218 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="176">
+      <c r="A176" s="10">
+        <v>44126.0</v>
+      </c>
+      <c r="B176" s="11">
+        <v>860148.0</v>
+      </c>
+      <c r="C176" s="11">
+        <v>134845.0</v>
+      </c>
+      <c r="D176" s="11">
+        <v>725053.0</v>
+      </c>
+      <c r="E176" s="11">
+        <v>250.0</v>
+      </c>
+      <c r="F176" s="11">
+        <v>2186.0</v>
+      </c>
+      <c r="G176" s="11">
+        <v>127512.0</v>
+      </c>
+      <c r="H176" s="11">
+        <v>215.0</v>
+      </c>
+      <c r="I176" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="J176" s="11">
+        <v>47.0</v>
+      </c>
+      <c r="K176" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L176" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="M176" s="11">
+        <v>836.0</v>
+      </c>
+      <c r="N176" s="11">
+        <v>1179.0</v>
+      </c>
+      <c r="O176" s="11">
+        <v>38.0</v>
+      </c>
+      <c r="P176" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q176" s="11">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2">
+        <v>44127.0</v>
+      </c>
+      <c r="B177" s="1">
+        <v>864820.0</v>
+      </c>
+      <c r="C177" s="1">
+        <v>135265.0</v>
+      </c>
+      <c r="D177" s="1">
+        <v>729069.0</v>
+      </c>
+      <c r="E177" s="1">
+        <v>486.0</v>
+      </c>
+      <c r="F177" s="1">
+        <v>2188.0</v>
+      </c>
+      <c r="G177" s="1">
+        <v>127820.0</v>
+      </c>
+      <c r="H177" s="1">
+        <v>230.0</v>
+      </c>
+      <c r="I177" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="J177" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="K177" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L177" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M177" s="1">
+        <v>837.0</v>
+      </c>
+      <c r="N177" s="1">
+        <v>1180.0</v>
+      </c>
+      <c r="O177" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="P177" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="Q177" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="10">
+        <v>44128.0</v>
+      </c>
+      <c r="B178" s="11">
+        <v>868976.0</v>
+      </c>
+      <c r="C178" s="11">
+        <v>135780.0</v>
+      </c>
+      <c r="D178" s="11">
+        <v>732929.0</v>
+      </c>
+      <c r="E178" s="11">
+        <v>267.0</v>
+      </c>
+      <c r="F178" s="11">
+        <v>2222.0</v>
+      </c>
+      <c r="G178" s="11">
+        <v>127869.0</v>
+      </c>
+      <c r="H178" s="11">
+        <v>229.0</v>
+      </c>
+      <c r="I178" s="11">
+        <v>79.0</v>
+      </c>
+      <c r="J178" s="11">
+        <v>47.0</v>
+      </c>
+      <c r="K178" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L178" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="M178" s="11">
+        <v>838.0</v>
+      </c>
+      <c r="N178" s="11">
+        <v>1180.0</v>
+      </c>
+      <c r="O178" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="P178" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q178" s="11">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="10">
+        <v>44129.0</v>
+      </c>
+      <c r="B179" s="1">
+        <v>873890.0</v>
+      </c>
+      <c r="C179" s="1">
+        <v>136209.0</v>
+      </c>
+      <c r="D179" s="1">
+        <v>737336.0</v>
+      </c>
+      <c r="E179" s="1">
+        <v>345.0</v>
+      </c>
+      <c r="F179" s="1">
+        <v>2224.0</v>
+      </c>
+      <c r="G179" s="1">
+        <v>128263.0</v>
+      </c>
+      <c r="H179" s="1">
+        <v>236.0</v>
+      </c>
+      <c r="I179" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="J179" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="K179" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L179" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M179" s="1">
+        <v>839.0</v>
+      </c>
+      <c r="N179" s="1">
+        <v>1181.0</v>
+      </c>
+      <c r="O179" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="P179" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="Q179" s="1">
+        <v>42.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -9908,6 +9908,218 @@
         <v>42.0</v>
       </c>
     </row>
+    <row r="180">
+      <c r="A180" s="10">
+        <v>44130.0</v>
+      </c>
+      <c r="B180" s="1">
+        <v>875291.0</v>
+      </c>
+      <c r="C180" s="1">
+        <v>136263.0</v>
+      </c>
+      <c r="D180" s="1">
+        <v>738764.0</v>
+      </c>
+      <c r="E180" s="1">
+        <v>264.0</v>
+      </c>
+      <c r="F180" s="1">
+        <v>2225.0</v>
+      </c>
+      <c r="G180" s="1">
+        <v>128680.0</v>
+      </c>
+      <c r="H180" s="1">
+        <v>227.0</v>
+      </c>
+      <c r="I180" s="1">
+        <v>67.0</v>
+      </c>
+      <c r="J180" s="1">
+        <v>47.0</v>
+      </c>
+      <c r="K180" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L180" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M180" s="1">
+        <v>839.0</v>
+      </c>
+      <c r="N180" s="1">
+        <v>1182.0</v>
+      </c>
+      <c r="O180" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="P180" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="Q180" s="1">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="10">
+        <v>44131.0</v>
+      </c>
+      <c r="B181" s="11">
+        <v>878156.0</v>
+      </c>
+      <c r="C181" s="11">
+        <v>136488.0</v>
+      </c>
+      <c r="D181" s="11">
+        <v>741370.0</v>
+      </c>
+      <c r="E181" s="11">
+        <v>298.0</v>
+      </c>
+      <c r="F181" s="11">
+        <v>2225.0</v>
+      </c>
+      <c r="G181" s="11">
+        <v>129135.0</v>
+      </c>
+      <c r="H181" s="11">
+        <v>223.0</v>
+      </c>
+      <c r="I181" s="11">
+        <v>63.0</v>
+      </c>
+      <c r="J181" s="11">
+        <v>49.0</v>
+      </c>
+      <c r="K181" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L181" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="M181" s="11">
+        <v>839.0</v>
+      </c>
+      <c r="N181" s="11">
+        <v>1182.0</v>
+      </c>
+      <c r="O181" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="P181" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q181" s="11">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="10">
+        <v>44132.0</v>
+      </c>
+      <c r="B182" s="1">
+        <v>882024.0</v>
+      </c>
+      <c r="C182" s="1">
+        <v>136776.0</v>
+      </c>
+      <c r="D182" s="1">
+        <v>744993.0</v>
+      </c>
+      <c r="E182" s="1">
+        <v>255.0</v>
+      </c>
+      <c r="F182" s="1">
+        <v>2229.0</v>
+      </c>
+      <c r="G182" s="1">
+        <v>129896.0</v>
+      </c>
+      <c r="H182" s="1">
+        <v>228.0</v>
+      </c>
+      <c r="I182" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="J182" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="K182" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L182" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M182" s="1">
+        <v>841.0</v>
+      </c>
+      <c r="N182" s="1">
+        <v>1184.0</v>
+      </c>
+      <c r="O182" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="P182" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="Q182" s="1">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="10">
+        <v>44133.0</v>
+      </c>
+      <c r="B183" s="1">
+        <v>885094.0</v>
+      </c>
+      <c r="C183" s="1">
+        <v>136965.0</v>
+      </c>
+      <c r="D183" s="1">
+        <v>747906.0</v>
+      </c>
+      <c r="E183" s="1">
+        <v>223.0</v>
+      </c>
+      <c r="F183" s="1">
+        <v>2231.0</v>
+      </c>
+      <c r="G183" s="1">
+        <v>130198.0</v>
+      </c>
+      <c r="H183" s="1">
+        <v>231.0</v>
+      </c>
+      <c r="I183" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="J183" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="K183" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L183" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M183" s="1">
+        <v>842.0</v>
+      </c>
+      <c r="N183" s="1">
+        <v>1185.0</v>
+      </c>
+      <c r="O183" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="P183" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="Q183" s="1">
+        <v>42.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -10120,6 +10120,165 @@
         <v>42.0</v>
       </c>
     </row>
+    <row r="184">
+      <c r="A184" s="10">
+        <v>44134.0</v>
+      </c>
+      <c r="B184" s="1">
+        <v>888936.0</v>
+      </c>
+      <c r="C184" s="1">
+        <v>137250.0</v>
+      </c>
+      <c r="D184" s="1">
+        <v>751168.0</v>
+      </c>
+      <c r="E184" s="1">
+        <v>518.0</v>
+      </c>
+      <c r="F184" s="1">
+        <v>2232.0</v>
+      </c>
+      <c r="G184" s="1">
+        <v>130269.0</v>
+      </c>
+      <c r="H184" s="1">
+        <v>237.0</v>
+      </c>
+      <c r="I184" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="J184" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="K184" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L184" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M184" s="1">
+        <v>843.0</v>
+      </c>
+      <c r="N184" s="1">
+        <v>1185.0</v>
+      </c>
+      <c r="O184" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="P184" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="Q184" s="1">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="10">
+        <v>44135.0</v>
+      </c>
+      <c r="B185" s="1">
+        <v>892588.0</v>
+      </c>
+      <c r="C185" s="1">
+        <v>137550.0</v>
+      </c>
+      <c r="D185" s="1">
+        <v>754779.0</v>
+      </c>
+      <c r="E185" s="1">
+        <v>259.0</v>
+      </c>
+      <c r="F185" s="1">
+        <v>2234.0</v>
+      </c>
+      <c r="G185" s="1">
+        <v>130637.0</v>
+      </c>
+      <c r="H185" s="1">
+        <v>237.0</v>
+      </c>
+      <c r="I185" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="J185" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="K185" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L185" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M185" s="1">
+        <v>843.0</v>
+      </c>
+      <c r="N185" s="1">
+        <v>1187.0</v>
+      </c>
+      <c r="O185" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="P185" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="Q185" s="1">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="10">
+        <v>44136.0</v>
+      </c>
+      <c r="B186" s="1">
+        <v>895768.0</v>
+      </c>
+      <c r="C186" s="1">
+        <v>137740.0</v>
+      </c>
+      <c r="D186" s="1">
+        <v>757751.0</v>
+      </c>
+      <c r="E186" s="1">
+        <v>277.0</v>
+      </c>
+      <c r="F186" s="1">
+        <v>2234.0</v>
+      </c>
+      <c r="G186" s="1">
+        <v>130917.0</v>
+      </c>
+      <c r="H186" s="1">
+        <v>237.0</v>
+      </c>
+      <c r="I186" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="J186" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="K186" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L186" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M186" s="1">
+        <v>843.0</v>
+      </c>
+      <c r="N186" s="1">
+        <v>1187.0</v>
+      </c>
+      <c r="O186" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="P186" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="Q186" s="1">
+        <v>42.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -10279,6 +10279,59 @@
         <v>42.0</v>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" s="10">
+        <v>44137.0</v>
+      </c>
+      <c r="B187" s="1">
+        <v>897243.0</v>
+      </c>
+      <c r="C187" s="1">
+        <v>137800.0</v>
+      </c>
+      <c r="D187" s="1">
+        <v>759221.0</v>
+      </c>
+      <c r="E187" s="1">
+        <v>222.0</v>
+      </c>
+      <c r="F187" s="1">
+        <v>2236.0</v>
+      </c>
+      <c r="G187" s="1">
+        <v>131193.0</v>
+      </c>
+      <c r="H187" s="1">
+        <v>238.0</v>
+      </c>
+      <c r="I187" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="J187" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="K187" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L187" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M187" s="1">
+        <v>843.0</v>
+      </c>
+      <c r="N187" s="1">
+        <v>1189.0</v>
+      </c>
+      <c r="O187" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="P187" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="Q187" s="1">
+        <v>42.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -10332,6 +10332,59 @@
         <v>42.0</v>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" s="10">
+        <v>44138.0</v>
+      </c>
+      <c r="B188" s="1">
+        <v>900872.0</v>
+      </c>
+      <c r="C188" s="1">
+        <v>138039.0</v>
+      </c>
+      <c r="D188" s="1">
+        <v>762464.0</v>
+      </c>
+      <c r="E188" s="1">
+        <v>369.0</v>
+      </c>
+      <c r="F188" s="1">
+        <v>2239.0</v>
+      </c>
+      <c r="G188" s="1">
+        <v>131441.0</v>
+      </c>
+      <c r="H188" s="1">
+        <v>238.0</v>
+      </c>
+      <c r="I188" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="J188" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="K188" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L188" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M188" s="1">
+        <v>846.0</v>
+      </c>
+      <c r="N188" s="1">
+        <v>1189.0</v>
+      </c>
+      <c r="O188" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="P188" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="Q188" s="1">
+        <v>42.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -10385,6 +10385,218 @@
         <v>42.0</v>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" s="10">
+        <v>44139.0</v>
+      </c>
+      <c r="B189" s="11">
+        <v>904739.0</v>
+      </c>
+      <c r="C189" s="11">
+        <v>138298.0</v>
+      </c>
+      <c r="D189" s="11">
+        <v>766132.0</v>
+      </c>
+      <c r="E189" s="11">
+        <v>309.0</v>
+      </c>
+      <c r="F189" s="11">
+        <v>2239.0</v>
+      </c>
+      <c r="G189" s="11">
+        <v>131768.0</v>
+      </c>
+      <c r="H189" s="11">
+        <v>239.0</v>
+      </c>
+      <c r="I189" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="J189" s="11">
+        <v>51.0</v>
+      </c>
+      <c r="K189" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L189" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="M189" s="11">
+        <v>846.0</v>
+      </c>
+      <c r="N189" s="11">
+        <v>1189.0</v>
+      </c>
+      <c r="O189" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="P189" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q189" s="11">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="10">
+        <v>44140.0</v>
+      </c>
+      <c r="B190" s="11">
+        <v>909225.0</v>
+      </c>
+      <c r="C190" s="11">
+        <v>138567.0</v>
+      </c>
+      <c r="D190" s="11">
+        <v>770304.0</v>
+      </c>
+      <c r="E190" s="11">
+        <v>354.0</v>
+      </c>
+      <c r="F190" s="11">
+        <v>2241.0</v>
+      </c>
+      <c r="G190" s="11">
+        <v>131987.0</v>
+      </c>
+      <c r="H190" s="11">
+        <v>235.0</v>
+      </c>
+      <c r="I190" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="J190" s="11">
+        <v>63.0</v>
+      </c>
+      <c r="K190" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L190" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="M190" s="11">
+        <v>847.0</v>
+      </c>
+      <c r="N190" s="11">
+        <v>1190.0</v>
+      </c>
+      <c r="O190" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="P190" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q190" s="11">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="10">
+        <v>44141.0</v>
+      </c>
+      <c r="B191" s="11">
+        <v>912762.0</v>
+      </c>
+      <c r="C191" s="11">
+        <v>138768.0</v>
+      </c>
+      <c r="D191" s="11">
+        <v>773785.0</v>
+      </c>
+      <c r="E191" s="11">
+        <v>209.0</v>
+      </c>
+      <c r="F191" s="11">
+        <v>2242.0</v>
+      </c>
+      <c r="G191" s="11">
+        <v>132059.0</v>
+      </c>
+      <c r="H191" s="11">
+        <v>233.0</v>
+      </c>
+      <c r="I191" s="11">
+        <v>34.0</v>
+      </c>
+      <c r="J191" s="11">
+        <v>48.0</v>
+      </c>
+      <c r="K191" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L191" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="M191" s="11">
+        <v>847.0</v>
+      </c>
+      <c r="N191" s="11">
+        <v>1191.0</v>
+      </c>
+      <c r="O191" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="P191" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q191" s="11">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="10">
+        <v>44142.0</v>
+      </c>
+      <c r="B192" s="11">
+        <v>916792.0</v>
+      </c>
+      <c r="C192" s="11">
+        <v>139011.0</v>
+      </c>
+      <c r="D192" s="11">
+        <v>777548.0</v>
+      </c>
+      <c r="E192" s="11">
+        <v>233.0</v>
+      </c>
+      <c r="F192" s="11">
+        <v>2243.0</v>
+      </c>
+      <c r="G192" s="11">
+        <v>132403.0</v>
+      </c>
+      <c r="H192" s="11">
+        <v>222.0</v>
+      </c>
+      <c r="I192" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="J192" s="11">
+        <v>48.0</v>
+      </c>
+      <c r="K192" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L192" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="M192" s="11">
+        <v>847.0</v>
+      </c>
+      <c r="N192" s="11">
+        <v>1192.0</v>
+      </c>
+      <c r="O192" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="P192" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q192" s="11">
+        <v>42.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -10597,6 +10597,59 @@
         <v>42.0</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" s="10">
+        <v>44143.0</v>
+      </c>
+      <c r="B193" s="1">
+        <v>919900.0</v>
+      </c>
+      <c r="C193" s="1">
+        <v>139164.0</v>
+      </c>
+      <c r="D193" s="1">
+        <v>780531.0</v>
+      </c>
+      <c r="E193" s="1">
+        <v>205.0</v>
+      </c>
+      <c r="F193" s="1">
+        <v>2244.0</v>
+      </c>
+      <c r="G193" s="1">
+        <v>132670.0</v>
+      </c>
+      <c r="H193" s="1">
+        <v>241.0</v>
+      </c>
+      <c r="I193" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="J193" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="K193" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L193" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M193" s="1">
+        <v>848.0</v>
+      </c>
+      <c r="N193" s="1">
+        <v>1192.0</v>
+      </c>
+      <c r="O193" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="P193" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="Q193" s="1">
+        <v>42.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -10650,6 +10650,59 @@
         <v>42.0</v>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" s="10">
+        <v>44144.0</v>
+      </c>
+      <c r="B194" s="1">
+        <v>921196.0</v>
+      </c>
+      <c r="C194" s="1">
+        <v>139237.0</v>
+      </c>
+      <c r="D194" s="1">
+        <v>781754.0</v>
+      </c>
+      <c r="E194" s="1">
+        <v>205.0</v>
+      </c>
+      <c r="F194" s="1">
+        <v>2247.0</v>
+      </c>
+      <c r="G194" s="1">
+        <v>132931.0</v>
+      </c>
+      <c r="H194" s="1">
+        <v>242.0</v>
+      </c>
+      <c r="I194" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="J194" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="K194" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L194" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M194" s="1">
+        <v>849.0</v>
+      </c>
+      <c r="N194" s="1">
+        <v>1194.0</v>
+      </c>
+      <c r="O194" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="P194" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="Q194" s="1">
+        <v>42.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -71,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -81,6 +81,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -108,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -141,6 +142,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10643,7 +10647,7 @@
       <c r="O193" s="1">
         <v>39.0</v>
       </c>
-      <c r="P193" s="1">
+      <c r="P193" s="13">
         <v>123.0</v>
       </c>
       <c r="Q193" s="1">
@@ -10700,6 +10704,483 @@
         <v>123.0</v>
       </c>
       <c r="Q194" s="1">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="10">
+        <v>44145.0</v>
+      </c>
+      <c r="B195" s="11">
+        <v>925918.0</v>
+      </c>
+      <c r="C195" s="11">
+        <v>139455.0</v>
+      </c>
+      <c r="D195" s="11">
+        <v>785426.0</v>
+      </c>
+      <c r="E195" s="11">
+        <v>1037.0</v>
+      </c>
+      <c r="F195" s="11">
+        <v>2250.0</v>
+      </c>
+      <c r="G195" s="11">
+        <v>133360.0</v>
+      </c>
+      <c r="H195" s="11">
+        <v>241.0</v>
+      </c>
+      <c r="I195" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="J195" s="11">
+        <v>48.0</v>
+      </c>
+      <c r="K195" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L195" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="M195" s="11">
+        <v>851.0</v>
+      </c>
+      <c r="N195" s="11">
+        <v>1195.0</v>
+      </c>
+      <c r="O195" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="P195" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q195" s="11">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="10">
+        <v>44146.0</v>
+      </c>
+      <c r="B196" s="11">
+        <v>929945.0</v>
+      </c>
+      <c r="C196" s="11">
+        <v>139727.0</v>
+      </c>
+      <c r="D196" s="11">
+        <v>789746.0</v>
+      </c>
+      <c r="E196" s="11">
+        <v>472.0</v>
+      </c>
+      <c r="F196" s="11">
+        <v>2257.0</v>
+      </c>
+      <c r="G196" s="11">
+        <v>133846.0</v>
+      </c>
+      <c r="H196" s="11">
+        <v>225.0</v>
+      </c>
+      <c r="I196" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="J196" s="11">
+        <v>46.0</v>
+      </c>
+      <c r="K196" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L196" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="M196" s="11">
+        <v>857.0</v>
+      </c>
+      <c r="N196" s="11">
+        <v>1196.0</v>
+      </c>
+      <c r="O196" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="P196" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q196" s="11">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="10">
+        <v>44147.0</v>
+      </c>
+      <c r="B197" s="11">
+        <v>933933.0</v>
+      </c>
+      <c r="C197" s="11">
+        <v>139954.0</v>
+      </c>
+      <c r="D197" s="11">
+        <v>793449.0</v>
+      </c>
+      <c r="E197" s="11">
+        <v>530.0</v>
+      </c>
+      <c r="F197" s="11">
+        <v>2258.0</v>
+      </c>
+      <c r="G197" s="11">
+        <v>134170.0</v>
+      </c>
+      <c r="H197" s="11">
+        <v>219.0</v>
+      </c>
+      <c r="I197" s="11">
+        <v>31.0</v>
+      </c>
+      <c r="J197" s="11">
+        <v>47.0</v>
+      </c>
+      <c r="K197" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L197" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="M197" s="11">
+        <v>857.0</v>
+      </c>
+      <c r="N197" s="11">
+        <v>1197.0</v>
+      </c>
+      <c r="O197" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="P197" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q197" s="11">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="10">
+        <v>44148.0</v>
+      </c>
+      <c r="B198" s="11">
+        <v>937575.0</v>
+      </c>
+      <c r="C198" s="11">
+        <v>140175.0</v>
+      </c>
+      <c r="D198" s="11">
+        <v>796520.0</v>
+      </c>
+      <c r="E198" s="11">
+        <v>880.0</v>
+      </c>
+      <c r="F198" s="11">
+        <v>2260.0</v>
+      </c>
+      <c r="G198" s="11">
+        <v>134213.0</v>
+      </c>
+      <c r="H198" s="11">
+        <v>216.0</v>
+      </c>
+      <c r="I198" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="J198" s="11">
+        <v>46.0</v>
+      </c>
+      <c r="K198" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L198" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="M198" s="11">
+        <v>857.0</v>
+      </c>
+      <c r="N198" s="11">
+        <v>1199.0</v>
+      </c>
+      <c r="O198" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="P198" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q198" s="11">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="10">
+        <v>44149.0</v>
+      </c>
+      <c r="B199" s="11">
+        <v>941967.0</v>
+      </c>
+      <c r="C199" s="11">
+        <v>140474.0</v>
+      </c>
+      <c r="D199" s="11">
+        <v>800652.0</v>
+      </c>
+      <c r="E199" s="11">
+        <v>841.0</v>
+      </c>
+      <c r="F199" s="11">
+        <v>2263.0</v>
+      </c>
+      <c r="G199" s="11">
+        <v>134480.0</v>
+      </c>
+      <c r="H199" s="11">
+        <v>213.0</v>
+      </c>
+      <c r="I199" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="J199" s="11">
+        <v>49.0</v>
+      </c>
+      <c r="K199" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L199" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="M199" s="11">
+        <v>858.0</v>
+      </c>
+      <c r="N199" s="11">
+        <v>1201.0</v>
+      </c>
+      <c r="O199" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="P199" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q199" s="11">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="10">
+        <v>44150.0</v>
+      </c>
+      <c r="B200" s="11">
+        <v>945113.0</v>
+      </c>
+      <c r="C200" s="11">
+        <v>140635.0</v>
+      </c>
+      <c r="D200" s="11">
+        <v>803756.0</v>
+      </c>
+      <c r="E200" s="11">
+        <v>722.0</v>
+      </c>
+      <c r="F200" s="11">
+        <v>2266.0</v>
+      </c>
+      <c r="G200" s="11">
+        <v>134691.0</v>
+      </c>
+      <c r="H200" s="11">
+        <v>214.0</v>
+      </c>
+      <c r="I200" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="J200" s="11">
+        <v>49.0</v>
+      </c>
+      <c r="K200" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L200" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="M200" s="11">
+        <v>859.0</v>
+      </c>
+      <c r="N200" s="11">
+        <v>1203.0</v>
+      </c>
+      <c r="O200" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="P200" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q200" s="11">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="10">
+        <v>44151.0</v>
+      </c>
+      <c r="B201" s="11">
+        <v>946579.0</v>
+      </c>
+      <c r="C201" s="11">
+        <v>140740.0</v>
+      </c>
+      <c r="D201" s="11">
+        <v>805119.0</v>
+      </c>
+      <c r="E201" s="11">
+        <v>720.0</v>
+      </c>
+      <c r="F201" s="11">
+        <v>2268.0</v>
+      </c>
+      <c r="G201" s="11">
+        <v>134905.0</v>
+      </c>
+      <c r="H201" s="11">
+        <v>201.0</v>
+      </c>
+      <c r="I201" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="J201" s="11">
+        <v>48.0</v>
+      </c>
+      <c r="K201" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L201" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="M201" s="11">
+        <v>860.0</v>
+      </c>
+      <c r="N201" s="11">
+        <v>1204.0</v>
+      </c>
+      <c r="O201" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="P201" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q201" s="11">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="10">
+        <v>44152.0</v>
+      </c>
+      <c r="B202" s="11">
+        <v>950955.0</v>
+      </c>
+      <c r="C202" s="11">
+        <v>140953.0</v>
+      </c>
+      <c r="D202" s="11">
+        <v>808279.0</v>
+      </c>
+      <c r="E202" s="11">
+        <v>1723.0</v>
+      </c>
+      <c r="F202" s="11">
+        <v>2272.0</v>
+      </c>
+      <c r="G202" s="11">
+        <v>135233.0</v>
+      </c>
+      <c r="H202" s="11">
+        <v>205.0</v>
+      </c>
+      <c r="I202" s="11">
+        <v>34.0</v>
+      </c>
+      <c r="J202" s="11">
+        <v>46.0</v>
+      </c>
+      <c r="K202" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L202" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="M202" s="11">
+        <v>862.0</v>
+      </c>
+      <c r="N202" s="11">
+        <v>1206.0</v>
+      </c>
+      <c r="O202" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="P202" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q202" s="11">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="10">
+        <v>44153.0</v>
+      </c>
+      <c r="B203" s="1">
+        <v>954878.0</v>
+      </c>
+      <c r="C203" s="1">
+        <v>141196.0</v>
+      </c>
+      <c r="D203" s="1">
+        <v>813159.0</v>
+      </c>
+      <c r="E203" s="1">
+        <v>523.0</v>
+      </c>
+      <c r="F203" s="1">
+        <v>2278.0</v>
+      </c>
+      <c r="G203" s="1">
+        <v>135511.0</v>
+      </c>
+      <c r="H203" s="1">
+        <v>194.0</v>
+      </c>
+      <c r="I203" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="J203" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="K203" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L203" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M203" s="1">
+        <v>866.0</v>
+      </c>
+      <c r="N203" s="1">
+        <v>1208.0</v>
+      </c>
+      <c r="O203" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="P203" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="Q203" s="1">
         <v>42.0</v>
       </c>
     </row>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -71,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -81,7 +81,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -109,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -142,9 +141,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10647,7 +10643,7 @@
       <c r="O193" s="1">
         <v>39.0</v>
       </c>
-      <c r="P193" s="13">
+      <c r="P193" s="1">
         <v>123.0</v>
       </c>
       <c r="Q193" s="1">
@@ -11181,6 +11177,589 @@
         <v>123.0</v>
       </c>
       <c r="Q203" s="1">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="10">
+        <v>44154.0</v>
+      </c>
+      <c r="B204" s="11">
+        <v>958953.0</v>
+      </c>
+      <c r="C204" s="11">
+        <v>141422.0</v>
+      </c>
+      <c r="D204" s="11">
+        <v>816833.0</v>
+      </c>
+      <c r="E204" s="11">
+        <v>698.0</v>
+      </c>
+      <c r="F204" s="11">
+        <v>2280.0</v>
+      </c>
+      <c r="G204" s="11">
+        <v>135701.0</v>
+      </c>
+      <c r="H204" s="11">
+        <v>200.0</v>
+      </c>
+      <c r="I204" s="11">
+        <v>29.0</v>
+      </c>
+      <c r="J204" s="11">
+        <v>44.0</v>
+      </c>
+      <c r="K204" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L204" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="M204" s="11">
+        <v>868.0</v>
+      </c>
+      <c r="N204" s="11">
+        <v>1208.0</v>
+      </c>
+      <c r="O204" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="P204" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q204" s="11">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="10">
+        <v>44155.0</v>
+      </c>
+      <c r="B205" s="11">
+        <v>962881.0</v>
+      </c>
+      <c r="C205" s="11">
+        <v>141582.0</v>
+      </c>
+      <c r="D205" s="11">
+        <v>820082.0</v>
+      </c>
+      <c r="E205" s="11">
+        <v>1207.0</v>
+      </c>
+      <c r="F205" s="11">
+        <v>2282.0</v>
+      </c>
+      <c r="G205" s="11">
+        <v>135748.0</v>
+      </c>
+      <c r="H205" s="11">
+        <v>188.0</v>
+      </c>
+      <c r="I205" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="J205" s="11">
+        <v>45.0</v>
+      </c>
+      <c r="K205" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L205" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="M205" s="11">
+        <v>870.0</v>
+      </c>
+      <c r="N205" s="11">
+        <v>1208.0</v>
+      </c>
+      <c r="O205" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="P205" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q205" s="11">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="10">
+        <v>44156.0</v>
+      </c>
+      <c r="B206" s="1">
+        <v>966284.0</v>
+      </c>
+      <c r="C206" s="1">
+        <v>141758.0</v>
+      </c>
+      <c r="D206" s="1">
+        <v>823880.0</v>
+      </c>
+      <c r="E206" s="1">
+        <v>646.0</v>
+      </c>
+      <c r="F206" s="1">
+        <v>2284.0</v>
+      </c>
+      <c r="G206" s="1">
+        <v>135999.0</v>
+      </c>
+      <c r="H206" s="1">
+        <v>189.0</v>
+      </c>
+      <c r="I206" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="J206" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="K206" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L206" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M206" s="1">
+        <v>871.0</v>
+      </c>
+      <c r="N206" s="1">
+        <v>1209.0</v>
+      </c>
+      <c r="O206" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="P206" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="Q206" s="1">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="10">
+        <v>44157.0</v>
+      </c>
+      <c r="B207" s="1">
+        <v>971251.0</v>
+      </c>
+      <c r="C207" s="1">
+        <v>141917.0</v>
+      </c>
+      <c r="D207" s="1">
+        <v>828072.0</v>
+      </c>
+      <c r="E207" s="1">
+        <v>1262.0</v>
+      </c>
+      <c r="F207" s="1">
+        <v>2284.0</v>
+      </c>
+      <c r="G207" s="1">
+        <v>136289.0</v>
+      </c>
+      <c r="H207" s="1">
+        <v>189.0</v>
+      </c>
+      <c r="I207" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="J207" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="K207" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L207" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M207" s="1">
+        <v>871.0</v>
+      </c>
+      <c r="N207" s="1">
+        <v>1209.0</v>
+      </c>
+      <c r="O207" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="P207" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="Q207" s="1">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="10">
+        <v>44158.0</v>
+      </c>
+      <c r="B208" s="1">
+        <v>972921.0</v>
+      </c>
+      <c r="C208" s="1">
+        <v>141979.0</v>
+      </c>
+      <c r="D208" s="1">
+        <v>829603.0</v>
+      </c>
+      <c r="E208" s="1">
+        <v>1339.0</v>
+      </c>
+      <c r="F208" s="1">
+        <v>2284.0</v>
+      </c>
+      <c r="G208" s="1">
+        <v>136548.0</v>
+      </c>
+      <c r="H208" s="1">
+        <v>194.0</v>
+      </c>
+      <c r="I208" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="J208" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="K208" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L208" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M208" s="1">
+        <v>871.0</v>
+      </c>
+      <c r="N208" s="1">
+        <v>1209.0</v>
+      </c>
+      <c r="O208" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="P208" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="Q208" s="1">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="10">
+        <v>44159.0</v>
+      </c>
+      <c r="B209" s="11">
+        <v>977488.0</v>
+      </c>
+      <c r="C209" s="11">
+        <v>142168.0</v>
+      </c>
+      <c r="D209" s="11">
+        <v>833268.0</v>
+      </c>
+      <c r="E209" s="11">
+        <v>2052.0</v>
+      </c>
+      <c r="F209" s="11">
+        <v>2287.0</v>
+      </c>
+      <c r="G209" s="11">
+        <v>136777.0</v>
+      </c>
+      <c r="H209" s="11">
+        <v>186.0</v>
+      </c>
+      <c r="I209" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="J209" s="11">
+        <v>42.0</v>
+      </c>
+      <c r="K209" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L209" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="M209" s="11">
+        <v>871.0</v>
+      </c>
+      <c r="N209" s="11">
+        <v>1212.0</v>
+      </c>
+      <c r="O209" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="P209" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q209" s="11">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="10">
+        <v>44160.0</v>
+      </c>
+      <c r="B210" s="11">
+        <v>980902.0</v>
+      </c>
+      <c r="C210" s="11">
+        <v>142379.0</v>
+      </c>
+      <c r="D210" s="11">
+        <v>838114.0</v>
+      </c>
+      <c r="E210" s="11">
+        <v>409.0</v>
+      </c>
+      <c r="F210" s="11">
+        <v>2289.0</v>
+      </c>
+      <c r="G210" s="11">
+        <v>137007.0</v>
+      </c>
+      <c r="H210" s="11">
+        <v>175.0</v>
+      </c>
+      <c r="I210" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="J210" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="K210" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L210" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="M210" s="11">
+        <v>871.0</v>
+      </c>
+      <c r="N210" s="11">
+        <v>1214.0</v>
+      </c>
+      <c r="O210" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="P210" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q210" s="11">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="10">
+        <v>44161.0</v>
+      </c>
+      <c r="B211" s="11">
+        <v>985284.0</v>
+      </c>
+      <c r="C211" s="11">
+        <v>142623.0</v>
+      </c>
+      <c r="D211" s="11">
+        <v>841926.0</v>
+      </c>
+      <c r="E211" s="11">
+        <v>735.0</v>
+      </c>
+      <c r="F211" s="11">
+        <v>2291.0</v>
+      </c>
+      <c r="G211" s="11">
+        <v>137175.0</v>
+      </c>
+      <c r="H211" s="11">
+        <v>178.0</v>
+      </c>
+      <c r="I211" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="J211" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="K211" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L211" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="M211" s="11">
+        <v>873.0</v>
+      </c>
+      <c r="N211" s="11">
+        <v>1214.0</v>
+      </c>
+      <c r="O211" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="P211" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q211" s="11">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="10">
+        <v>44162.0</v>
+      </c>
+      <c r="B212" s="11">
+        <v>989029.0</v>
+      </c>
+      <c r="C212" s="11">
+        <v>142936.0</v>
+      </c>
+      <c r="D212" s="11">
+        <v>845413.0</v>
+      </c>
+      <c r="E212" s="11">
+        <v>680.0</v>
+      </c>
+      <c r="F212" s="11">
+        <v>2293.0</v>
+      </c>
+      <c r="G212" s="11">
+        <v>137229.0</v>
+      </c>
+      <c r="H212" s="11">
+        <v>183.0</v>
+      </c>
+      <c r="I212" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="J212" s="11">
+        <v>42.0</v>
+      </c>
+      <c r="K212" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L212" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="M212" s="11">
+        <v>873.0</v>
+      </c>
+      <c r="N212" s="11">
+        <v>1216.0</v>
+      </c>
+      <c r="O212" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="P212" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q212" s="11">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="10">
+        <v>44163.0</v>
+      </c>
+      <c r="B213" s="1">
+        <v>993860.0</v>
+      </c>
+      <c r="C213" s="1">
+        <v>143393.0</v>
+      </c>
+      <c r="D213" s="1">
+        <v>848998.0</v>
+      </c>
+      <c r="E213" s="1">
+        <v>1469.0</v>
+      </c>
+      <c r="F213" s="1">
+        <v>2294.0</v>
+      </c>
+      <c r="G213" s="1">
+        <v>137500.0</v>
+      </c>
+      <c r="H213" s="1">
+        <v>183.0</v>
+      </c>
+      <c r="I213" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="J213" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="K213" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L213" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M213" s="1">
+        <v>874.0</v>
+      </c>
+      <c r="N213" s="1">
+        <v>1216.0</v>
+      </c>
+      <c r="O213" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="P213" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="Q213" s="1">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="10">
+        <v>44164.0</v>
+      </c>
+      <c r="B214" s="1">
+        <v>998249.0</v>
+      </c>
+      <c r="C214" s="1">
+        <v>143642.0</v>
+      </c>
+      <c r="D214" s="1">
+        <v>852992.0</v>
+      </c>
+      <c r="E214" s="1">
+        <v>1615.0</v>
+      </c>
+      <c r="F214" s="1">
+        <v>2295.0</v>
+      </c>
+      <c r="G214" s="1">
+        <v>137722.0</v>
+      </c>
+      <c r="H214" s="1">
+        <v>197.0</v>
+      </c>
+      <c r="I214" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="J214" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="K214" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L214" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="M214" s="1">
+        <v>874.0</v>
+      </c>
+      <c r="N214" s="1">
+        <v>1217.0</v>
+      </c>
+      <c r="O214" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="P214" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="Q214" s="1">
         <v>42.0</v>
       </c>
     </row>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -11763,6 +11763,112 @@
         <v>42.0</v>
       </c>
     </row>
+    <row r="215">
+      <c r="A215" s="10">
+        <v>44165.0</v>
+      </c>
+      <c r="B215" s="11">
+        <v>999345.0</v>
+      </c>
+      <c r="C215" s="11">
+        <v>143704.0</v>
+      </c>
+      <c r="D215" s="11">
+        <v>854146.0</v>
+      </c>
+      <c r="E215" s="11">
+        <v>1495.0</v>
+      </c>
+      <c r="F215" s="11">
+        <v>2295.0</v>
+      </c>
+      <c r="G215" s="11">
+        <v>137962.0</v>
+      </c>
+      <c r="H215" s="11">
+        <v>211.0</v>
+      </c>
+      <c r="I215" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="J215" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="K215" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L215" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="M215" s="11">
+        <v>874.0</v>
+      </c>
+      <c r="N215" s="11">
+        <v>1217.0</v>
+      </c>
+      <c r="O215" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="P215" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q215" s="11">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="10">
+        <v>44166.0</v>
+      </c>
+      <c r="B216" s="11">
+        <v>1003514.0</v>
+      </c>
+      <c r="C216" s="11">
+        <v>143917.0</v>
+      </c>
+      <c r="D216" s="11">
+        <v>857912.0</v>
+      </c>
+      <c r="E216" s="11">
+        <v>1685.0</v>
+      </c>
+      <c r="F216" s="11">
+        <v>2299.0</v>
+      </c>
+      <c r="G216" s="11">
+        <v>138196.0</v>
+      </c>
+      <c r="H216" s="11">
+        <v>189.0</v>
+      </c>
+      <c r="I216" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="J216" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="K216" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L216" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="M216" s="11">
+        <v>876.0</v>
+      </c>
+      <c r="N216" s="11">
+        <v>1219.0</v>
+      </c>
+      <c r="O216" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="P216" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q216" s="11">
+        <v>42.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data_GERESA/DatosArequipa.xlsx
+++ b/data_GERESA/DatosArequipa.xlsx
@@ -11869,6 +11869,589 @@
         <v>42.0</v>
       </c>
     </row>
+    <row r="217">
+      <c r="A217" s="10">
+        <v>44167.0</v>
+      </c>
+      <c r="B217" s="1">
+        <v>1007130.0</v>
+      </c>
+      <c r="C217" s="1">
+        <v>144138.0</v>
+      </c>
+      <c r="D217" s="1">
+        <v>861388.0</v>
+      </c>
+      <c r="E217" s="1">
+        <v>1604.0</v>
+      </c>
+      <c r="F217" s="1">
+        <v>2299.0</v>
+      </c>
+      <c r="G217" s="1">
+        <v>138430.0</v>
+      </c>
+      <c r="H217" s="1">
+        <v>196.0</v>
+      </c>
+      <c r="I217" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="J217" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="K217" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L217" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="M217" s="1">
+        <v>876.0</v>
+      </c>
+      <c r="N217" s="1">
+        <v>1219.0</v>
+      </c>
+      <c r="O217" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="P217" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="Q217" s="1">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="10">
+        <v>44168.0</v>
+      </c>
+      <c r="B218" s="1">
+        <v>1011938.0</v>
+      </c>
+      <c r="C218" s="1">
+        <v>144359.0</v>
+      </c>
+      <c r="D218" s="1">
+        <v>865558.0</v>
+      </c>
+      <c r="E218" s="1">
+        <v>2021.0</v>
+      </c>
+      <c r="F218" s="1">
+        <v>2303.0</v>
+      </c>
+      <c r="G218" s="1">
+        <v>138574.0</v>
+      </c>
+      <c r="H218" s="1">
+        <v>198.0</v>
+      </c>
+      <c r="I218" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="J218" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="K218" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L218" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="M218" s="1">
+        <v>878.0</v>
+      </c>
+      <c r="N218" s="1">
+        <v>1221.0</v>
+      </c>
+      <c r="O218" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="P218" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="Q218" s="1">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="10">
+        <v>44169.0</v>
+      </c>
+      <c r="B219" s="1">
+        <v>1017193.0</v>
+      </c>
+      <c r="C219" s="1">
+        <v>144598.0</v>
+      </c>
+      <c r="D219" s="1">
+        <v>870383.0</v>
+      </c>
+      <c r="E219" s="1">
+        <v>2212.0</v>
+      </c>
+      <c r="F219" s="1">
+        <v>2304.0</v>
+      </c>
+      <c r="G219" s="1">
+        <v>138629.0</v>
+      </c>
+      <c r="H219" s="1">
+        <v>208.0</v>
+      </c>
+      <c r="I219" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="J219" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="K219" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L219" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="M219" s="1">
+        <v>879.0</v>
+      </c>
+      <c r="N219" s="1">
+        <v>1221.0</v>
+      </c>
+      <c r="O219" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="P219" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="Q219" s="1">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="10">
+        <v>44170.0</v>
+      </c>
+      <c r="B220" s="1">
+        <v>1021704.0</v>
+      </c>
+      <c r="C220" s="1">
+        <v>144816.0</v>
+      </c>
+      <c r="D220" s="1">
+        <v>874575.0</v>
+      </c>
+      <c r="E220" s="1">
+        <v>2313.0</v>
+      </c>
+      <c r="F220" s="1">
+        <v>2304.0</v>
+      </c>
+      <c r="G220" s="1">
+        <v>138833.0</v>
+      </c>
+      <c r="H220" s="1">
+        <v>206.0</v>
+      </c>
+      <c r="I220" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="J220" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="K220" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L220" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="M220" s="1">
+        <v>879.0</v>
+      </c>
+      <c r="N220" s="1">
+        <v>1221.0</v>
+      </c>
+      <c r="O220" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="P220" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="Q220" s="1">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="10">
+        <v>44171.0</v>
+      </c>
+      <c r="B221" s="1">
+        <v>1024792.0</v>
+      </c>
+      <c r="C221" s="1">
+        <v>144996.0</v>
+      </c>
+      <c r="D221" s="1">
+        <v>877272.0</v>
+      </c>
+      <c r="E221" s="1">
+        <v>2524.0</v>
+      </c>
+      <c r="F221" s="1">
+        <v>2305.0</v>
+      </c>
+      <c r="G221" s="1">
+        <v>139081.0</v>
+      </c>
+      <c r="H221" s="1">
+        <v>211.0</v>
+      </c>
+      <c r="I221" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="J221" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="K221" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L221" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="M221" s="1">
+        <v>879.0</v>
+      </c>
+      <c r="N221" s="1">
+        <v>1222.0</v>
+      </c>
+      <c r="O221" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="P221" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="Q221" s="1">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="10">
+        <v>44172.0</v>
+      </c>
+      <c r="B222" s="11">
+        <v>1025580.0</v>
+      </c>
+      <c r="C222" s="11">
+        <v>145045.0</v>
+      </c>
+      <c r="D222" s="11">
+        <v>878044.0</v>
+      </c>
+      <c r="E222" s="11">
+        <v>2491.0</v>
+      </c>
+      <c r="F222" s="11">
+        <v>2305.0</v>
+      </c>
+      <c r="G222" s="11">
+        <v>139081.0</v>
+      </c>
+      <c r="H222" s="11">
+        <v>207.0</v>
+      </c>
+      <c r="I222" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="J222" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="K222" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L222" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="M222" s="11">
+        <v>879.0</v>
+      </c>
+      <c r="N222" s="11">
+        <v>1222.0</v>
+      </c>
+      <c r="O222" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="P222" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q222" s="11">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="10">
+        <v>44173.0</v>
+      </c>
+      <c r="B223" s="11">
+        <v>1027730.0</v>
+      </c>
+      <c r="C223" s="11">
+        <v>145172.0</v>
+      </c>
+      <c r="D223" s="11">
+        <v>879789.0</v>
+      </c>
+      <c r="E223" s="11">
+        <v>2769.0</v>
+      </c>
+      <c r="F223" s="11">
+        <v>2308.0</v>
+      </c>
+      <c r="G223" s="11">
+        <v>139292.0</v>
+      </c>
+      <c r="H223" s="11">
+        <v>204.0</v>
+      </c>
+      <c r="I223" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="J223" s="11">
+        <v>41.0</v>
+      </c>
+      <c r="K223" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L223" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="M223" s="11">
+        <v>881.0</v>
+      </c>
+      <c r="N223" s="11">
+        <v>1223.0</v>
+      </c>
+      <c r="O223" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="P223" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q223" s="11">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="10">
+        <v>44174.0</v>
+      </c>
+      <c r="B224" s="11">
+        <v>1029030.0</v>
+      </c>
+      <c r="C224" s="11">
+        <v>145207.0</v>
+      </c>
+      <c r="D224" s="11">
+        <v>881051.0</v>
+      </c>
+      <c r="E224" s="11">
+        <v>2772.0</v>
+      </c>
+      <c r="F224" s="11">
+        <v>2309.0</v>
+      </c>
+      <c r="G224" s="11">
+        <v>139489.0</v>
+      </c>
+      <c r="H224" s="11">
+        <v>216.0</v>
+      </c>
+      <c r="I224" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="J224" s="11">
+        <v>43.0</v>
+      </c>
+      <c r="K224" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L224" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="M224" s="11">
+        <v>881.0</v>
+      </c>
+      <c r="N224" s="11">
+        <v>1224.0</v>
+      </c>
+      <c r="O224" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="P224" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q224" s="11">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="10">
+        <v>44175.0</v>
+      </c>
+      <c r="B225" s="11">
+        <v>1033562.0</v>
+      </c>
+      <c r="C225" s="11">
+        <v>145505.0</v>
+      </c>
+      <c r="D225" s="11">
+        <v>885366.0</v>
+      </c>
+      <c r="E225" s="11">
+        <v>2691.0</v>
+      </c>
+      <c r="F225" s="11">
+        <v>2311.0</v>
+      </c>
+      <c r="G225" s="11">
+        <v>139687.0</v>
+      </c>
+      <c r="H225" s="11">
+        <v>212.0</v>
+      </c>
+      <c r="I225" s="11">
+        <v>29.0</v>
+      </c>
+      <c r="J225" s="11">
+        <v>43.0</v>
+      </c>
+      <c r="K225" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L225" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="M225" s="11">
+        <v>882.0</v>
+      </c>
+      <c r="N225" s="11">
+        <v>1225.0</v>
+      </c>
+      <c r="O225" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="P225" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q225" s="11">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="10">
+        <v>44176.0</v>
+      </c>
+      <c r="B226" s="11">
+        <v>1037631.0</v>
+      </c>
+      <c r="C226" s="11">
+        <v>145709.0</v>
+      </c>
+      <c r="D226" s="11">
+        <v>888851.0</v>
+      </c>
+      <c r="E226" s="11">
+        <v>3071.0</v>
+      </c>
+      <c r="F226" s="11">
+        <v>2314.0</v>
+      </c>
+      <c r="G226" s="11">
+        <v>139871.0</v>
+      </c>
+      <c r="H226" s="11">
+        <v>222.0</v>
+      </c>
+      <c r="I226" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="J226" s="11">
+        <v>43.0</v>
+      </c>
+      <c r="K226" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L226" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="M226" s="11">
+        <v>884.0</v>
+      </c>
+      <c r="N226" s="11">
+        <v>1226.0</v>
+      </c>
+      <c r="O226" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="P226" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q226" s="11">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="10">
+        <v>44177.0</v>
+      </c>
+      <c r="B227" s="11">
+        <v>1042534.0</v>
+      </c>
+      <c r="C227" s="11">
+        <v>145958.0</v>
+      </c>
+      <c r="D227" s="11">
+        <v>893012.0</v>
+      </c>
+      <c r="E227" s="11">
+        <v>3564.0</v>
+      </c>
+      <c r="F227" s="11">
+        <v>2316.0</v>
+      </c>
+      <c r="G227" s="11">
+        <v>140076.0</v>
+      </c>
+      <c r="H227" s="11">
+        <v>261.0</v>
+      </c>
+      <c r="I227" s="11">
+        <v>29.0</v>
+      </c>
+      <c r="J227" s="11">
+        <v>48.0</v>
+      </c>
+      <c r="K227" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L227" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="M227" s="11">
+        <v>886.0</v>
+      </c>
+      <c r="N227" s="11">
+        <v>1226.0</v>
+      </c>
+      <c r="O227" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="P227" s="11">
+        <v>123.0</v>
+      </c>
+      <c r="Q227" s="11">
+        <v>42.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
